--- a/src/sample_data/sample_data.xlsx
+++ b/src/sample_data/sample_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,32 +374,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sentence_w</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sentence_i</t>
+          <t>sentence_ids</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>label_w</t>
+          <t>labels</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>label_i</t>
+          <t>labels_ids</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>characters</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>padded_sentence</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>padded_label</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>padded_labels</t>
         </is>
       </c>
     </row>
@@ -419,7 +424,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 566, 1542, 1313, 1028, 1285, 670, 30, 129, 1017, 1054, 1134, 1705, 1873, 750, 981, 1431, 1905, 841, 1398, 1905, 33, 1074, 1539, 1150, 1008]</t>
+          <t>[330, 871, 410, 13, 455, 1504, 400, 1576, 49, 1636, 856, 849, 327, 949, 736, 719, 912, 341, 1834, 1597, 1599, 1900, 1597, 1012, 408, 1154, 1844, 1538]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -429,17 +434,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 10, 16, 1, 1, 20, 1, 1, 1, 1, 1, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 25, 1, 15, 19, 1, 1, 4, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 566, 1542, 1313, 1028, 1285, 670, 30, 129, 1017, 1054, 1134, 1705, 1873, 750, 981, 1431, 1905, 841, 1398, 1905, 33, 1074, 1539, 1150, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3, 9), (10, 14), (14, 15), (16, 26), (28, 31), (32, 38), (39, 43), (44, 46), (47, 48), (49, 51), (52, 56), (57, 60), (61, 67), (68, 75), (76, 78), (79, 82), (83, 86), (87, 91), (92, 97), (98, 102), (103, 108), (109, 114), (115, 119), (120, 122), (123, 126), (127, 134), (135, 141), (141, 142)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 10, 16, 1, 1, 20, 1, 1, 1, 1, 1, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[330, 871, 410, 13, 455, 1504, 400, 1576, 49, 1636, 856, 849, 327, 949, 736, 719, 912, 341, 1834, 1597, 1599, 1900, 1597, 1012, 408, 1154, 1844, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 15, 19, 1, 1, 4, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -459,7 +469,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1544, 1905, 1570, 1091, 1164, 1074, 1155, 1150, 1428, 1742, 1654, 556, 85, 387, 560, 1428, 1320, 387, 966, 1929, 844, 228, 1428, 1420, 230, 110, 1428, 1933, 1001, 845, 1860, 1420, 1654, 556, 1130, 387, 1368, 845, 576, 1428, 1245, 1420, 445, 313, 387, 1282, 178, 1399, 123, 845, 389, 153, 488, 903, 967, 701, 1074, 444, 925, 1613, 706, 1569, 79, 1575, 1245, 1245, 1560, 490, 1373, 1091, 1356, 1399, 714, 1399, 813, 1428, 535, 959, 1907, 959, 266, 1684, 1759, 808, 120, 1011, 1838, 487, 1905, 886, 1244, 79, 105, 1742, 1459, 444, 372, 557, 670, 877, 960, 1428, 1431, 438, 592, 1575, 258, 1694, 419, 573, 1692, 560, 79, 466, 1860, 1692, 110, 194, 1275, 79, 185, 215, 1569, 1615, 710, 831, 806, 1664, 1260, 1403, 1420, 1785, 1403, 508, 285, 105, 845, 1189, 1340, 1228, 672, 1891, 79, 1617, 1721, 1420, 1899, 845, 1676, 1420, 1332, 1230, 845, 880, 1403, 1420, 880, 1403, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 214, 325, 1403, 1420, 1796, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 1728, 1810, 425, 1420, 1810, 1681, 1806, 285, 1575, 845, 1189, 248, 1228, 613, 1891, 79, 1848, 1915, 1420, 1899, 845, 1538, 1420, 330, 845, 1359, 1403, 1420, 1359, 1403, 508, 285, 1575, 845, 1189, 677, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 1368, 1483, 1403, 1420, 1483, 1403, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 560, 1785, 1403, 1420, 1785, 1403, 508, 285, 1575, 845, 1189, 1340, 1228, 761, 1891, 79, 1005, 1721, 1420, 1899, 845, 249, 903, 1403, 1420, 903, 1403, 508, 27, 285, 1575, 845, 1189, 1340, 1228, 672, 1891, 79, 913, 1721, 1420, 1899, 845, 649, 1352, 81, 1569, 259, 701, 674, 1008]</t>
+          <t>[1125, 1597, 651, 1497, 508, 408, 1624, 1844, 773, 906, 637, 290, 1785, 1822, 581, 773, 994, 1822, 1637, 91, 566, 1805, 773, 1282, 126, 180, 773, 1010, 396, 1431, 1553, 1282, 637, 290, 1400, 1822, 1081, 1431, 368, 773, 541, 1282, 289, 364, 1822, 32, 844, 690, 869, 1431, 710, 295, 823, 874, 999, 1771, 408, 1028, 1102, 1843, 1391, 410, 1138, 1084, 541, 541, 1645, 182, 1801, 1497, 266, 690, 1651, 690, 101, 773, 421, 1325, 398, 1325, 1548, 380, 902, 41, 954, 1259, 1642, 115, 1597, 1653, 106, 1138, 118, 906, 1724, 1028, 1122, 1725, 49, 1820, 376, 773, 1834, 496, 1849, 1084, 1277, 1253, 1780, 1555, 738, 581, 1138, 495, 1553, 738, 180, 1523, 142, 1138, 1013, 190, 410, 425, 1505, 1054, 1610, 722, 694, 951, 1282, 56, 951, 672, 386, 118, 1431, 257, 725, 1324, 774, 202, 1138, 1762, 1829, 1282, 654, 1431, 439, 1282, 1249, 1303, 1431, 1472, 951, 1282, 1472, 951, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 450, 1103, 951, 1282, 943, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 775, 1088, 861, 1282, 1088, 207, 1696, 386, 1084, 1431, 257, 28, 1324, 894, 202, 1138, 135, 1458, 1282, 654, 1431, 1815, 1282, 723, 1431, 579, 951, 1282, 579, 951, 672, 386, 1084, 1431, 257, 992, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 1081, 1058, 951, 1282, 1058, 951, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 581, 56, 951, 1282, 56, 951, 672, 386, 1084, 1431, 257, 725, 1324, 1053, 202, 1138, 649, 1829, 1282, 654, 1431, 255, 874, 951, 1282, 874, 951, 672, 348, 386, 1084, 1431, 257, 725, 1324, 774, 202, 1138, 878, 1829, 1282, 654, 1431, 1767, 15, 1104, 410, 440, 1771, 1699, 1538]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -469,17 +479,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1]</t>
+          <t>[1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[1544, 1905, 1570, 1091, 1164, 1074, 1155, 1150, 1428, 1742, 1654, 556, 85, 387, 560, 1428, 1320, 387, 966, 1929, 844, 228, 1428, 1420, 230, 110, 1428, 1933, 1001, 845, 1860, 1420, 1654, 556, 1130, 387, 1368, 845, 576, 1428, 1245, 1420, 445, 313, 387, 1282, 178, 1399, 123, 845, 389, 153, 488, 903, 967, 701, 1074, 444, 925, 1613, 706, 1569, 79, 1575, 1245, 1245, 1560, 490, 1373, 1091, 1356, 1399, 714, 1399, 813, 1428, 535, 959, 1907, 959, 266, 1684, 1759, 808, 120, 1011, 1838, 487, 1905, 886, 1244, 79, 105, 1742, 1459, 444, 372, 557, 670, 877, 960, 1428, 1431, 438, 592, 1575, 258, 1694, 419, 573, 1692, 560, 79, 466, 1860, 1692, 110, 194, 1275, 79, 185, 215, 1569, 1615, 710, 831, 806, 1664, 1260, 1403, 1420, 1785, 1403, 508, 285, 105, 845, 1189, 1340, 1228, 672, 1891, 79, 1617, 1721, 1420, 1899, 845, 1676, 1420, 1332, 1230, 845, 880, 1403, 1420, 880, 1403, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 214, 325, 1403, 1420, 1796, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 1728, 1810, 425, 1420, 1810, 1681, 1806, 285, 1575, 845, 1189, 248, 1228, 613, 1891, 79, 1848, 1915, 1420, 1899, 845, 1538, 1420, 330, 845, 1359, 1403, 1420, 1359, 1403, 508, 285, 1575, 845, 1189, 677, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 1368, 1483, 1403, 1420, 1483, 1403, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 560, 1785, 1403, 1420, 1785, 1403, 508, 285, 1575, 845, 1189, 1340, 1228, 761, 1891, 79, 1005, 1721, 1420, 1899, 845, 249, 903, 1403, 1420, 903, 1403, 508, 27, 285, 1575, 845, 1189, 1340, 1228, 672, 1891, 79, 913, 1721, 1420, 1899, 845, 649, 1352, 81, 1569, 259, 701, 674, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(143, 146), (147, 151), (152, 155), (156, 158), (159, 162), (163, 166), (167, 175), (176, 182), (182, 183), (184, 186), (187, 194), (195, 199), (200, 205), (202, 204), (209, 218), (218, 219), (220, 228), (229, 231), (232, 240), (241, 249), (249, 250), (251, 264), (264, 265), (267, 268), (268, 270), (271, 275), (275, 276), (277, 279), (280, 287), (287, 288), (289, 292), (293, 294), (294, 301), (302, 306), (307, 315), (316, 318), (319, 329), (329, 330), (331, 342), (342, 343), (344, 346), (347, 348), (348, 351), (352, 356), (357, 359), (360, 363), (364, 366), (367, 370), (371, 374), (374, 375), (376, 385), (388, 391), (392, 399), (400, 402), (403, 410), (411, 415), (416, 419), (420, 423), (424, 435), (436, 441), (442, 448), (448, 449), (450, 451), (452, 453), (454, 456), (458, 460), (461, 464), (465, 469), (470, 481), (482, 484), (485, 494), (495, 498), (499, 507), (508, 511), (512, 521), (521, 522), (523, 527), (528, 532), (533, 551), (552, 556), (557, 560), (561, 567), (568, 571), (572, 578), (579, 591), (592, 596), (597, 606), (607, 611), (612, 616), (617, 626), (627, 632), (635, 636), (637, 638), (639, 641), (643, 647), (648, 651), (652, 654), (655, 659), (660, 661), (662, 674), (675, 678), (678, 679), (680, 685), (686, 693), (690, 692), (697, 698), (699, 701), (702, 706), (708, 715), (716, 725), (726, 732), (733, 742), (743, 744), (745, 746), (747, 750), (751, 757), (758, 762), (763, 765), (766, 776), (779, 780), (781, 782), (783, 787), (787, 788), (789, 798), (799, 818), (819, 825), (836, 847), (848, 859), (860, 864), (865, 867), (868, 869), (869, 872), (873, 875), (876, 882), (883, 887), (888, 889), (889, 890), (891, 893), (894, 897), (898, 899), (900, 902), (903, 907), (908, 909), (909, 911), (912, 918), (918, 919), (919, 920), (920, 921), (922, 929), (930, 931), (931, 946), (947, 951), (951, 952), (953, 955), (956, 958), (959, 960), (960, 962), (963, 965), (966, 972), (973, 977), (978, 979), (979, 980), (981, 983), (984, 986), (987, 988), (989, 991), (992, 996), (997, 998), (998, 1000), (1001, 1007), (1007, 1008), (1008, 1009), (1009, 1010), (1011, 1019), (1020, 1022), (1023, 1025), (1026, 1027), (1027, 1031), (1032, 1038), (1039, 1043), (1044, 1045), (1045, 1046), (1047, 1049), (1050, 1052), (1053, 1054), (1055, 1057), (1058, 1062), (1063, 1064), (1064, 1066), (1067, 1073), (1073, 1074), (1074, 1075), (1075, 1076), (1077, 1091), (1092, 1097), (1098, 1103), (1104, 1105), (1105, 1110), (1111, 1115), (1116, 1123), (1124, 1128), (1129, 1130), (1130, 1131), (1132, 1134), (1135, 1140), (1141, 1142), (1143, 1145), (1146, 1150), (1151, 1152), (1152, 1153), (1154, 1161), (1161, 1162), (1162, 1163), (1163, 1164), (1165, 1172), (1173, 1174), (1174, 1186), (1186, 1187), (1188, 1190), (1191, 1193), (1194, 1195), (1195, 1197), (1198, 1200), (1201, 1207), (1208, 1212), (1213, 1214), (1214, 1215), (1216, 1218), (1219, 1222), (1223, 1224), (1225, 1227), (1228, 1232), (1233, 1234), (1234, 1236), (1237, 1243), (1243, 1244), (1244, 1245), (1245, 1246), (1247, 1257), (1258, 1259), (1260, 1262), (1263, 1264), (1264, 1265), (1266, 1268), (1269, 1275), (1276, 1280), (1281, 1282), (1282, 1283), (1284, 1286), (1287, 1289), (1290, 1291), (1292, 1294), (1295, 1299), (1300, 1301), (1301, 1303), (1304, 1310), (1310, 1311), (1311, 1312), (1312, 1313), (1314, 1323), (1324, 1327), (1328, 1330), (1331, 1332), (1332, 1335), (1336, 1338), (1339, 1345), (1346, 1350), (1351, 1352), (1352, 1353), (1354, 1356), (1357, 1360), (1361, 1362), (1363, 1365), (1366, 1370), (1371, 1372), (1372, 1374), (1375, 1381), (1381, 1382), (1382, 1383), (1383, 1384), (1385, 1395), (1396, 1398), (1399, 1401), (1402, 1403), (1403, 1405), (1406, 1408), (1409, 1415), (1416, 1418), (1419, 1423), (1424, 1425), (1425, 1426), (1427, 1429), (1430, 1433), (1434, 1435), (1436, 1438), (1439, 1443), (1444, 1445), (1445, 1447), (1448, 1454), (1454, 1455), (1455, 1456), (1456, 1457), (1460, 1468), (1469, 1477), (1478, 1486), (1487, 1488), (1489, 1491), (1492, 1496), (1497, 1502), (1502, 1503)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1125, 1597, 651, 1497, 508, 408, 1624, 1844, 773, 906, 637, 290, 1785, 1822, 581, 773, 994, 1822, 1637, 91, 566, 1805, 773, 1282, 126, 180, 773, 1010, 396, 1431, 1553, 1282, 637, 290, 1400, 1822, 1081, 1431, 368, 773, 541, 1282, 289, 364, 1822, 32, 844, 690, 869, 1431, 710, 295, 823, 874, 999, 1771, 408, 1028, 1102, 1843, 1391, 410, 1138, 1084, 541, 541, 1645, 182, 1801, 1497, 266, 690, 1651, 690, 101, 773, 421, 1325, 398, 1325, 1548, 380, 902, 41, 954, 1259, 1642, 115, 1597, 1653, 106, 1138, 118, 906, 1724, 1028, 1122, 1725, 49, 1820, 376, 773, 1834, 496, 1849, 1084, 1277, 1253, 1780, 1555, 738, 581, 1138, 495, 1553, 738, 180, 1523, 142, 1138, 1013, 190, 410, 425, 1505, 1054, 1610, 722, 694, 951, 1282, 56, 951, 672, 386, 118, 1431, 257, 725, 1324, 774, 202, 1138, 1762, 1829, 1282, 654, 1431, 439, 1282, 1249, 1303, 1431, 1472, 951, 1282, 1472, 951, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 450, 1103, 951, 1282, 943, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 775, 1088, 861, 1282, 1088, 207, 1696, 386, 1084, 1431, 257, 28, 1324, 894, 202, 1138, 135, 1458, 1282, 654, 1431, 1815, 1282, 723, 1431, 579, 951, 1282, 579, 951, 672, 386, 1084, 1431, 257, 992, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 1081, 1058, 951, 1282, 1058, 951, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 581, 56, 951, 1282, 56, 951, 672, 386, 1084, 1431, 257, 725, 1324, 1053, 202, 1138, 649, 1829, 1282, 654, 1431, 255, 874, 951, 1282, 874, 951, 672, 348, 386, 1084, 1431, 257, 725, 1324, 774, 202, 1138, 878, 1829, 1282, 654, 1431, 1767, 15, 1104, 410, 440, 1771, 1699, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -499,7 +514,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[932, 1121, 1869, 1389, 1347, 699, 1008]</t>
+          <t>[1476, 503, 630, 274, 1457, 1664, 1538]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -514,10 +529,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[932, 1121, 1869, 1389, 1347, 699, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1504, 1506), (1507, 1510), (1511, 1516), (1517, 1519), (1520, 1533), (1534, 1547), (1547, 1548)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>[1476, 503, 630, 274, 1457, 1664, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -539,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[1265, 540, 1569, 259, 674, 1428, 1119, 1692, 507, 1428, 429, 1399, 1235, 1091, 393, 1893, 1440, 784, 1104, 1569, 715, 418, 600, 1286, 798, 876, 900, 1569, 1228, 1665, 1428, 722, 1046, 1685, 1008]</t>
+          <t>[959, 1313, 410, 440, 1699, 773, 477, 738, 1118, 773, 989, 690, 1585, 1497, 743, 1209, 1687, 1905, 1334, 410, 612, 1582, 1608, 1350, 275, 592, 1143, 410, 1324, 215, 773, 292, 138, 1719, 1538]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -549,17 +569,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 11, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 21, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[1265, 540, 1569, 259, 674, 1428, 1119, 1692, 507, 1428, 429, 1399, 1235, 1091, 393, 1893, 1440, 784, 1104, 1569, 715, 418, 600, 1286, 798, 876, 900, 1569, 1228, 1665, 1428, 722, 1046, 1685, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1549, 1561), (1562, 1570), (1571, 1572), (1573, 1575), (1576, 1581), (1581, 1582), (1583, 1586), (1587, 1593), (1594, 1602), (1602, 1603), (1604, 1613), (1614, 1617), (1618, 1628), (1629, 1631), (1632, 1638), (1639, 1646), (1647, 1667), (1669, 1676), (1678, 1692), (1693, 1694), (1695, 1696), (1697, 1701), (1702, 1707), (1708, 1712), (1713, 1729), (1730, 1736), (1737, 1744), (1745, 1746), (1747, 1748), (1749, 1754), (1754, 1755), (1756, 1761), (1762, 1765), (1766, 1769), (1769, 1770)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 11, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[959, 1313, 410, 440, 1699, 773, 477, 738, 1118, 773, 989, 690, 1585, 1497, 743, 1209, 1687, 1905, 1334, 410, 612, 1582, 1608, 1350, 275, 592, 1143, 410, 1324, 215, 773, 292, 138, 1719, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 21, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -579,7 +604,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[675, 127, 1936, 58, 127, 1569, 378, 1126, 131, 1399, 1731, 1193, 1428, 196, 208, 313, 1008]</t>
+          <t>[596, 1378, 848, 311, 1378, 410, 1187, 1295, 1563, 690, 1461, 75, 773, 886, 1573, 364, 1538]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -589,17 +614,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 8, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 25, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[675, 127, 1936, 58, 127, 1569, 378, 1126, 131, 1399, 1731, 1193, 1428, 196, 208, 313, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1771, 1773), (1774, 1780), (1781, 1790), (1791, 1803), (1804, 1810), (1811, 1812), (1813, 1821), (1822, 1830), (1831, 1835), (1836, 1839), (1840, 1848), (1849, 1855), (1855, 1856), (1857, 1859), (1860, 1862), (1863, 1867), (1867, 1868)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 8, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[596, 1378, 848, 311, 1378, 410, 1187, 1295, 1563, 690, 1461, 75, 773, 886, 1573, 364, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 25, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -619,7 +649,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[1812, 354, 602, 642, 1060, 966, 1929, 451, 1691, 76, 389, 669, 132, 141, 1569, 109, 1018, 1399, 1764, 1091, 1362, 1008]</t>
+          <t>[730, 1603, 453, 1186, 609, 1637, 91, 1041, 1577, 1353, 710, 631, 766, 377, 410, 1074, 46, 690, 1930, 1497, 31, 1538]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -629,17 +659,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[1812, 354, 602, 642, 1060, 966, 1929, 451, 1691, 76, 389, 669, 132, 141, 1569, 109, 1018, 1399, 1764, 1091, 1362, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1869, 1874), (1875, 1881), (1882, 1889), (1890, 1892), (1893, 1895), (1896, 1904), (1905, 1913), (1914, 1921), (1922, 1923), (1924, 1934), (1936, 1945), (1946, 1947), (1948, 1956), (1957, 1964), (1965, 1966), (1967, 1970), (1971, 1977), (1978, 1981), (1982, 1988), (1989, 1991), (1992, 1996), (1996, 1997)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[730, 1603, 453, 1186, 609, 1637, 91, 1041, 1577, 1353, 710, 631, 766, 377, 410, 1074, 46, 690, 1930, 1497, 31, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -659,7 +694,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1534, 733, 1362, 1399, 1805, 1008]</t>
+          <t>[1025, 1474, 31, 690, 1274, 1538]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -669,17 +704,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[1, 1, 8, 1, 8, 1]</t>
+          <t>[1, 1, 25, 1, 25, 1]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[1534, 733, 1362, 1399, 1805, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1998, 2002), (2003, 2006), (2007, 2011), (2012, 2015), (2016, 2020), (2020, 2021)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[1, 1, 8, 1, 8, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1025, 1474, 31, 690, 1274, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[1, 1, 25, 1, 25, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -699,7 +739,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[638, 1415, 1481, 1569, 1711, 519, 620, 1923, 1428, 493, 686, 920, 188, 1569, 196, 67, 156, 1569, 1703, 1355, 816, 1428, 196, 405, 326, 1389, 943, 620, 1793, 1451, 1095, 1294, 200, 646, 1101, 1081, 1240, 1273, 1629, 1047, 1420, 289, 845, 1036, 1862, 1569, 1562, 1054, 1091, 408, 1549, 1657, 1569, 1008]</t>
+          <t>[1089, 1928, 198, 410, 1798, 1874, 302, 1266, 773, 610, 938, 1683, 1348, 410, 886, 935, 545, 410, 1007, 865, 1875, 773, 886, 1816, 1847, 274, 22, 302, 139, 1793, 342, 642, 1795, 1026, 798, 1759, 1455, 66, 234, 1600, 1282, 803, 1431, 756, 1508, 410, 343, 327, 1497, 1211, 1869, 1441, 410, 1538]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -714,10 +754,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[638, 1415, 1481, 1569, 1711, 519, 620, 1923, 1428, 493, 686, 920, 188, 1569, 196, 67, 156, 1569, 1703, 1355, 816, 1428, 196, 405, 326, 1389, 943, 620, 1793, 1451, 1095, 1294, 200, 646, 1101, 1081, 1240, 1273, 1629, 1047, 1420, 289, 845, 1036, 1862, 1569, 1562, 1054, 1091, 408, 1549, 1657, 1569, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2024, 2033), (2034, 2037), (2041, 2042), (2042, 2043), (2044, 2049), (2050, 2055), (2056, 2058), (2059, 2065), (2065, 2066), (2067, 2069), (2070, 2075), (2076, 2078), (2079, 2083), (2083, 2084), (2085, 2087), (2088, 2094), (2095, 2102), (2102, 2103), (2104, 2106), (2107, 2109), (2110, 2113), (2113, 2114), (2115, 2117), (2118, 2125), (2126, 2130), (2131, 2133), (2134, 2141), (2142, 2144), (2145, 2149), (2150, 2154), (2155, 2161), (2162, 2168), (2169, 2174), (2175, 2182), (2183, 2186), (2187, 2190), (2191, 2196), (2197, 2199), (2200, 2204), (2205, 2210), (2211, 2212), (2212, 2216), (2216, 2217), (2218, 2219), (2222, 2229), (2229, 2230), (2231, 2241), (2242, 2248), (2249, 2251), (2252, 2255), (2256, 2262), (2263, 2270), (2270, 2271), (2272, 2273)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>[1089, 1928, 198, 410, 1798, 1874, 302, 1266, 773, 610, 938, 1683, 1348, 410, 886, 935, 545, 410, 1007, 865, 1875, 773, 886, 1816, 1847, 274, 22, 302, 139, 1793, 342, 642, 1795, 1026, 798, 1759, 1455, 66, 234, 1600, 1282, 803, 1431, 756, 1508, 410, 343, 327, 1497, 1211, 1869, 1441, 410, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -739,7 +784,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[1483, 275, 203, 1091, 333, 1720, 1471, 506, 1517, 1008]</t>
+          <t>[1058, 103, 1565, 1497, 754, 1757, 1708, 298, 372, 1538]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -754,10 +799,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[1483, 275, 203, 1091, 333, 1720, 1471, 506, 1517, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2274, 2275), (2276, 2278), (2279, 2284), (2285, 2287), (2288, 2293), (2294, 2301), (2302, 2309), (2310, 2320), (2321, 2325), (2326, 2327)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>[1058, 103, 1565, 1497, 754, 1757, 1708, 298, 372, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -779,7 +829,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1483, 275, 203, 1091, 254, 1720, 1471, 506, 461, 304, 485, 1338, 1575, 260, 1428, 992, 1521, 1428, 191, 1209, 1428, 1559, 324, 1338, 105, 260, 1428, 49, 705, 1338, 466, 260, 1338, 1575, 260, 111, 480, 1569, 1756, 1569, 375, 914, 844, 567, 1338, 105, 260, 111, 480, 1569, 1756, 1569, 375, 914, 844, 864, 1338, 466, 260, 111, 480, 1569, 1523, 1187, 1814, 1569, 152, 338, 1686, 1551, 1620, 1428, 1078, 1825, 1420, 599, 845, 1428, 1061, 1201, 1109, 628, 1420, 715, 845, 1428, 93, 1149, 1428, 162, 1343, 1428, 918, 1301, 1428, 1293, 778, 1428, 1475, 1070, 1428, 352, 1057, 1428, 40, 1813, 1552, 852, 477, 1880, 1428, 1916, 1648, 1359, 1428, 1916, 858, 907, 1420, 599, 845, 1428, 1916, 14, 1848, 1428, 1916, 635, 1575, 1428, 1916, 376, 838, 993, 1928, 1420, 599, 845, 1861, 542, 809, 1338, 1575, 260, 1428, 1886, 763, 1428, 1768, 656, 1338, 1575, 260, 111, 480, 1569, 736, 882, 1569, 656, 1420, 1461, 845, 1834, 591, 989, 1428, 865, 1074, 389, 669, 828, 1760, 1428, 953, 1428, 1285, 317, 387, 1113, 1050, 73, 1389, 719, 1060, 821, 1512, 1428, 823, 144, 780, 1428, 1479, 617, 1428, 1727, 611, 603, 1569, 1342, 1653, 797, 1569, 1739, 1569, 252, 105, 342, 1569, 1861, 291, 596, 1569, 1882, 327, 1569, 750, 1428, 1418, 1002, 1791, 1399, 1821, 1212, 1705, 1863, 1895, 1008]</t>
+          <t>[1058, 103, 1565, 1497, 210, 1757, 1708, 298, 1094, 921, 172, 1327, 1084, 606, 773, 1827, 1329, 773, 922, 1449, 773, 982, 1093, 1327, 118, 606, 773, 393, 1069, 1327, 495, 606, 1327, 1084, 606, 1264, 1434, 410, 1197, 410, 1149, 751, 566, 1370, 1327, 118, 606, 1264, 1434, 410, 1197, 410, 1149, 751, 566, 10, 1327, 495, 606, 1264, 1434, 410, 1218, 748, 862, 410, 1409, 199, 294, 824, 870, 773, 1051, 1817, 1282, 36, 1431, 773, 1751, 1020, 375, 588, 1282, 612, 1431, 773, 605, 1799, 773, 686, 369, 773, 1151, 1774, 773, 200, 1477, 773, 1377, 72, 773, 67, 1676, 773, 576, 1343, 1210, 201, 1591, 614, 773, 726, 1432, 579, 773, 726, 1001, 843, 1282, 36, 1431, 773, 726, 1733, 135, 773, 726, 547, 1084, 773, 726, 1674, 1002, 1194, 792, 1282, 36, 1431, 745, 1842, 1311, 1327, 1084, 606, 773, 1079, 1808, 773, 1584, 1682, 1327, 1084, 606, 1264, 1434, 410, 1060, 634, 410, 1682, 1282, 1358, 1431, 265, 1890, 47, 773, 1420, 408, 710, 631, 1230, 1280, 773, 121, 773, 1576, 1248, 1822, 601, 1108, 1390, 274, 1183, 609, 1726, 1848, 773, 256, 422, 498, 773, 1802, 1537, 773, 1046, 1633, 395, 410, 925, 1650, 577, 410, 1862, 410, 1932, 118, 1782, 410, 745, 1351, 1898, 410, 1228, 1072, 410, 912, 773, 1035, 48, 1498, 690, 1339, 322, 736, 1516, 1522, 1538]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -789,17 +839,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[1483, 275, 203, 1091, 254, 1720, 1471, 506, 461, 304, 485, 1338, 1575, 260, 1428, 992, 1521, 1428, 191, 1209, 1428, 1559, 324, 1338, 105, 260, 1428, 49, 705, 1338, 466, 260, 1338, 1575, 260, 111, 480, 1569, 1756, 1569, 375, 914, 844, 567, 1338, 105, 260, 111, 480, 1569, 1756, 1569, 375, 914, 844, 864, 1338, 466, 260, 111, 480, 1569, 1523, 1187, 1814, 1569, 152, 338, 1686, 1551, 1620, 1428, 1078, 1825, 1420, 599, 845, 1428, 1061, 1201, 1109, 628, 1420, 715, 845, 1428, 93, 1149, 1428, 162, 1343, 1428, 918, 1301, 1428, 1293, 778, 1428, 1475, 1070, 1428, 352, 1057, 1428, 40, 1813, 1552, 852, 477, 1880, 1428, 1916, 1648, 1359, 1428, 1916, 858, 907, 1420, 599, 845, 1428, 1916, 14, 1848, 1428, 1916, 635, 1575, 1428, 1916, 376, 838, 993, 1928, 1420, 599, 845, 1861, 542, 809, 1338, 1575, 260, 1428, 1886, 763, 1428, 1768, 656, 1338, 1575, 260, 111, 480, 1569, 736, 882, 1569, 656, 1420, 1461, 845, 1834, 591, 989, 1428, 865, 1074, 389, 669, 828, 1760, 1428, 953, 1428, 1285, 317, 387, 1113, 1050, 73, 1389, 719, 1060, 821, 1512, 1428, 823, 144, 780, 1428, 1479, 617, 1428, 1727, 611, 603, 1569, 1342, 1653, 797, 1569, 1739, 1569, 252, 105, 342, 1569, 1861, 291, 596, 1569, 1882, 327, 1569, 750, 1428, 1418, 1002, 1791, 1399, 1821, 1212, 1705, 1863, 1895, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2328, 2329), (2330, 2332), (2333, 2338), (2339, 2341), (2342, 2346), (2347, 2354), (2355, 2362), (2363, 2373), (2374, 2391), (2392, 2396), (2397, 2400), (2401, 2402), (2402, 2403), (2403, 2404), (2404, 2405), (2407, 2411), (2412, 2415), (2415, 2416), (2418, 2421), (2422, 2424), (2424, 2425), (2427, 2430), (2431, 2434), (2435, 2436), (2436, 2437), (2437, 2438), (2438, 2439), (2441, 2449), (2450, 2453), (2454, 2455), (2455, 2456), (2456, 2457), (2457, 2458), (2458, 2459), (2459, 2460), (2461, 2467), (2468, 2475), (2475, 2476), (2477, 2486), (2486, 2487), (2488, 2489), (2489, 2491), (2491, 2492), (2492, 2495), (2495, 2496), (2496, 2497), (2497, 2498), (2499, 2505), (2506, 2513), (2513, 2514), (2515, 2524), (2524, 2525), (2526, 2527), (2527, 2529), (2529, 2530), (2530, 2533), (2533, 2534), (2534, 2535), (2535, 2536), (2537, 2543), (2544, 2551), (2551, 2552), (2553, 2559), (2560, 2564), (2565, 2570), (2570, 2571), (2572, 2575), (2576, 2578), (2579, 2593), (2594, 2600), (2601, 2605), (2605, 2606), (2608, 2612), (2613, 2616), (2617, 2618), (2618, 2619), (2619, 2620), (2620, 2621), (2623, 2631), (2632, 2646), (2647, 2650), (2651, 2654), (2655, 2656), (2656, 2657), (2657, 2658), (2658, 2659), (2661, 2664), (2665, 2669), (2669, 2670), (2672, 2675), (2676, 2680), (2680, 2681), (2683, 2686), (2687, 2691), (2691, 2692), (2694, 2697), (2698, 2700), (2700, 2701), (2703, 2706), (2707, 2711), (2711, 2712), (2714, 2718), (2719, 2723), (2723, 2724), (2726, 2729), (2730, 2743), (2744, 2747), (2748, 2762), (2763, 2769), (2770, 2774), (2774, 2775), (2777, 2778), (2778, 2782), (2783, 2785), (2785, 2786), (2788, 2789), (2789, 2794), (2795, 2797), (2798, 2799), (2799, 2800), (2800, 2801), (2801, 2802), (2804, 2805), (2805, 2809), (2810, 2811), (2811, 2812), (2814, 2815), (2815, 2818), (2819, 2820), (2820, 2821), (2823, 2824), (2824, 2828), (2829, 2840), (2841, 2844), (2845, 2847), (2848, 2849), (2849, 2850), (2850, 2851), (2851, 2861), (2862, 2869), (2870, 2878), (2879, 2880), (2880, 2881), (2881, 2882), (2882, 2883), (2885, 2892), (2893, 2901), (2901, 2902), (2904, 2911), (2912, 2920), (2920, 2921), (2921, 2922), (2922, 2923), (2924, 2930), (2931, 2938), (2938, 2939), (2940, 2949), (2950, 2955), (2955, 2956), (2957, 2965), (2965, 2966), (2966, 2970), (2970, 2971), (2971, 2973), (2974, 2984), (2985, 2994), (2994, 2995), (2996, 3003), (3004, 3007), (3008, 3017), (3018, 3019), (3020, 3024), (3025, 3036), (3036, 3037), (3038, 3043), (3043, 3044), (3045, 3047), (3048, 3057), (3058, 3060), (3061, 3068), (3069, 3071), (3072, 3077), (3078, 3080), (3081, 3106), (3107, 3109), (3110, 3113), (3114, 3126), (3126, 3127), (3128, 3131), (3132, 3142), (3143, 3147), (3147, 3148), (3148, 3153), (3154, 3160), (3160, 3161), (3162, 3164), (3165, 3183), (3184, 3190), (3190, 3191), (3193, 3201), (3225, 3231), (3232, 3238), (3238, 3239), (3241, 3250), (3250, 3251), (3253, 3258), (3259, 3260), (3261, 3275), (3275, 3276), (3278, 3288), (3289, 3298), (3299, 3303), (3303, 3304), (3306, 3319), (3320, 3328), (3328, 3329), (3331, 3334), (3334, 3335), (3336, 3341), (3342, 3352), (3357, 3364), (3365, 3368), (3369, 3376), (3377, 3382), (3383, 3385), (3386, 3389), (3390, 3395), (3395, 3396)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1058, 103, 1565, 1497, 210, 1757, 1708, 298, 1094, 921, 172, 1327, 1084, 606, 773, 1827, 1329, 773, 922, 1449, 773, 982, 1093, 1327, 118, 606, 773, 393, 1069, 1327, 495, 606, 1327, 1084, 606, 1264, 1434, 410, 1197, 410, 1149, 751, 566, 1370, 1327, 118, 606, 1264, 1434, 410, 1197, 410, 1149, 751, 566, 10, 1327, 495, 606, 1264, 1434, 410, 1218, 748, 862, 410, 1409, 199, 294, 824, 870, 773, 1051, 1817, 1282, 36, 1431, 773, 1751, 1020, 375, 588, 1282, 612, 1431, 773, 605, 1799, 773, 686, 369, 773, 1151, 1774, 773, 200, 1477, 773, 1377, 72, 773, 67, 1676, 773, 576, 1343, 1210, 201, 1591, 614, 773, 726, 1432, 579, 773, 726, 1001, 843, 1282, 36, 1431, 773, 726, 1733, 135, 773, 726, 547, 1084, 773, 726, 1674, 1002, 1194, 792, 1282, 36, 1431, 745, 1842, 1311, 1327, 1084, 606, 773, 1079, 1808, 773, 1584, 1682, 1327, 1084, 606, 1264, 1434, 410, 1060, 634, 410, 1682, 1282, 1358, 1431, 265, 1890, 47, 773, 1420, 408, 710, 631, 1230, 1280, 773, 121, 773, 1576, 1248, 1822, 601, 1108, 1390, 274, 1183, 609, 1726, 1848, 773, 256, 422, 498, 773, 1802, 1537, 773, 1046, 1633, 395, 410, 925, 1650, 577, 410, 1862, 410, 1932, 118, 1782, 410, 745, 1351, 1898, 410, 1228, 1072, 410, 912, 773, 1035, 48, 1498, 690, 1339, 322, 736, 1516, 1522, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -819,7 +874,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[593, 1569, 1897, 968, 1569, 1464, 1569, 1897, 1008]</t>
+          <t>[652, 410, 995, 952, 410, 1667, 410, 995, 1538]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -834,10 +889,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[593, 1569, 1897, 968, 1569, 1464, 1569, 1897, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3407, 3417), (3417, 3418), (3419, 3423), (3438, 3446), (3446, 3447), (3452, 3463), (3463, 3464), (3466, 3470), (3470, 3471)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>[652, 410, 995, 952, 410, 1667, 410, 995, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -859,7 +919,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[476, 1569, 1912, 1646, 1854, 1905, 718, 822, 1470, 592, 1863, 254, 1505, 559, 1008]</t>
+          <t>[1857, 410, 1047, 1290, 1535, 1597, 158, 513, 1224, 1849, 1516, 210, 213, 1670, 1538]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -874,10 +934,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[476, 1569, 1912, 1646, 1854, 1905, 718, 822, 1470, 592, 1863, 254, 1505, 559, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3482, 3487), (3487, 3488), (3490, 3498), (3499, 3506), (3507, 3517), (3518, 3522), (3523, 3535), (3536, 3541), (3547, 3558), (3559, 3561), (3562, 3565), (3566, 3570), (3571, 3575), (3576, 3580), (3580, 3581)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>[1857, 410, 1047, 1290, 1535, 1597, 158, 513, 1224, 1849, 1516, 210, 213, 1670, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -899,7 +964,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[494, 1077, 1683, 1008]</t>
+          <t>[214, 1819, 933, 1538]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -914,10 +979,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[494, 1077, 1683, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3583, 3592), (3593, 3598), (3599, 3604), (3604, 3605)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>[214, 1819, 933, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -939,7 +1009,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[187, 1569, 1800, 1285, 196, 912, 1599, 1389, 70, 1008]</t>
+          <t>[301, 410, 1741, 1576, 886, 845, 1794, 274, 1470, 1538]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -954,10 +1024,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[187, 1569, 1800, 1285, 196, 912, 1599, 1389, 70, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3616, 3622), (3622, 3623), (3625, 3630), (3631, 3633), (3634, 3636), (3637, 3644), (3645, 3653), (3654, 3656), (3657, 3669), (3669, 3670)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>[301, 410, 1741, 1576, 886, 845, 1794, 274, 1470, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -979,7 +1054,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[695, 1399, 1349, 1569, 261, 1365, 1399, 1863, 1349, 1560, 1299, 1008]</t>
+          <t>[1386, 690, 1056, 410, 981, 1784, 690, 1516, 1056, 1645, 586, 1538]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -994,10 +1069,15 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[695, 1399, 1349, 1569, 261, 1365, 1399, 1863, 1349, 1560, 1299, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3681, 3686), (3687, 3690), (3691, 3702), (3702, 3703), (3705, 3708), (3709, 3714), (3715, 3718), (3719, 3722), (3723, 3734), (3735, 3738), (3739, 3745), (3745, 3746)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>[1386, 690, 1056, 410, 981, 1784, 690, 1516, 1056, 1645, 586, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1019,7 +1099,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[1241, 1569, 261, 860, 305, 1285, 212, 1008]</t>
+          <t>[1395, 410, 981, 413, 231, 1576, 1468, 1538]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1034,10 +1114,15 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[1241, 1569, 261, 860, 305, 1285, 212, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3757, 3762), (3762, 3763), (3765, 3768), (3769, 3777), (3778, 3786), (3787, 3789), (3790, 3802), (3802, 3803)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>[1395, 410, 981, 413, 231, 1576, 1468, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1059,7 +1144,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[269, 1569, 1912, 1646, 1854, 1905, 718, 822, 1470, 592, 1863, 254, 1505, 559, 1008]</t>
+          <t>[863, 410, 1047, 1290, 1535, 1597, 158, 513, 1224, 1849, 1516, 210, 213, 1670, 1538]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1074,10 +1159,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[269, 1569, 1912, 1646, 1854, 1905, 718, 822, 1470, 592, 1863, 254, 1505, 559, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3819, 3829), (3829, 3830), (3836, 3844), (3845, 3852), (3853, 3863), (3864, 3868), (3869, 3881), (3882, 3887), (3888, 3899), (3900, 3902), (3908, 3911), (3912, 3916), (3917, 3921), (3922, 3926), (3926, 3927)]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>[863, 410, 1047, 1290, 1535, 1597, 158, 513, 1224, 1849, 1516, 210, 213, 1670, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1099,7 +1189,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[494, 1077, 1683, 1008]</t>
+          <t>[214, 1819, 933, 1538]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1114,10 +1204,15 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[494, 1077, 1683, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3929, 3938), (3939, 3944), (3945, 3950), (3950, 3951)]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>[214, 1819, 933, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1139,7 +1234,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[1227, 1569, 1302, 1569, 1772, 1428, 586, 737, 1395, 1772, 1428, 586, 737, 1395, 1314, 1569, 79, 1575, 1245, 1569, 831, 830, 1943, 1172, 898, 1531, 1288, 1399, 1670, 79, 105, 1742, 694, 1896, 1250, 592, 273, 1916, 223, 1569, 1743, 1060, 966, 1144, 446, 1091, 1455, 917, 1074, 789, 1781, 1705, 333, 26, 86, 1569, 910, 1849, 1398, 149, 1569, 1559, 1870, 772, 1574, 12, 1905, 1570, 226, 1592, 110, 793, 880, 403, 561, 339, 1569, 301, 1392, 1368, 694, 578, 79, 466, 1860, 1569, 1467, 1850, 1431, 1643, 1368, 387, 279, 403, 79, 185, 211, 1597, 1049, 387, 271, 1933, 79, 1483, 850, 1109, 1541, 1091, 1264, 1053, 1206, 387, 628, 1091, 345, 79, 1848, 850, 451, 264, 1674, 242, 622, 1134, 1574, 1091, 525, 605, 651, 203, 764, 145, 387, 1272, 1549, 1657, 1399, 1196, 599, 1575, 645, 1575, 1399, 1169, 61, 1569, 242, 1428, 1786, 1428, 599, 1575, 645, 1575, 1428, 1549, 1657, 1368, 279, 403, 1546, 1033, 896, 1091, 1848, 1381, 548, 1357, 1399, 934, 786, 1812, 195, 774, 387, 522, 385, 437, 1393, 1569, 1406, 105, 1381, 1074, 620, 766, 1817, 1905, 1570, 1399, 1081, 917, 1905, 33, 1074, 894, 1688, 1462, 1569, 1102, 1420, 1264, 845, 979, 1913, 1091, 503, 448, 1569, 545, 1569, 1634, 1657, 1399, 1517, 1941, 1154, 314, 967, 375, 1482, 844, 325, 1916, 1705, 1661, 995, 230, 169, 1428, 372, 1428, 1657, 1399, 1206, 395, 925, 454, 1398, 313, 1905, 1103, 1267, 904, 1008]</t>
+          <t>[1489, 410, 1254, 410, 1894, 773, 14, 1121, 1596, 1894, 773, 14, 1121, 1596, 887, 410, 1138, 1084, 541, 410, 1054, 1745, 1779, 1360, 1564, 102, 1648, 690, 796, 1138, 118, 906, 335, 918, 1185, 1849, 374, 726, 1401, 410, 1790, 609, 1637, 168, 789, 1497, 930, 1396, 408, 1444, 1703, 736, 754, 1180, 1918, 410, 1239, 677, 1900, 1173, 410, 982, 391, 1371, 855, 1048, 1597, 651, 1006, 1344, 180, 133, 1472, 846, 270, 1892, 410, 1490, 83, 1081, 335, 523, 1138, 495, 1553, 410, 1270, 1170, 1834, 1737, 1081, 1822, 883, 846, 1138, 1013, 1126, 1160, 9, 1822, 71, 1010, 1138, 1058, 1711, 375, 638, 1497, 718, 205, 926, 1822, 588, 1497, 613, 1138, 135, 1711, 1041, 468, 961, 646, 226, 949, 855, 1497, 1098, 1519, 1571, 1565, 491, 307, 1822, 412, 1869, 1441, 690, 655, 36, 1084, 691, 1084, 690, 1942, 1268, 410, 646, 773, 1689, 773, 36, 1084, 691, 1084, 773, 1869, 1441, 1081, 883, 846, 810, 620, 1150, 1497, 135, 355, 1130, 1549, 690, 836, 1480, 730, 893, 1654, 1822, 1788, 669, 1546, 1433, 410, 260, 118, 355, 408, 302, 1097, 854, 1597, 651, 690, 1759, 1396, 1597, 1012, 408, 20, 917, 1245, 410, 1410, 1282, 718, 1431, 1684, 1064, 1497, 1589, 1539, 410, 537, 410, 757, 1441, 690, 372, 1859, 1340, 114, 999, 1149, 550, 566, 1103, 726, 736, 1036, 241, 126, 340, 773, 1122, 773, 1441, 690, 926, 1615, 1102, 639, 1900, 364, 1597, 1402, 1526, 1750, 1538]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1154,10 +1249,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[1227, 1569, 1302, 1569, 1772, 1428, 586, 737, 1395, 1772, 1428, 586, 737, 1395, 1314, 1569, 79, 1575, 1245, 1569, 831, 830, 1943, 1172, 898, 1531, 1288, 1399, 1670, 79, 105, 1742, 694, 1896, 1250, 592, 273, 1916, 223, 1569, 1743, 1060, 966, 1144, 446, 1091, 1455, 917, 1074, 789, 1781, 1705, 333, 26, 86, 1569, 910, 1849, 1398, 149, 1569, 1559, 1870, 772, 1574, 12, 1905, 1570, 226, 1592, 110, 793, 880, 403, 561, 339, 1569, 301, 1392, 1368, 694, 578, 79, 466, 1860, 1569, 1467, 1850, 1431, 1643, 1368, 387, 279, 403, 79, 185, 211, 1597, 1049, 387, 271, 1933, 79, 1483, 850, 1109, 1541, 1091, 1264, 1053, 1206, 387, 628, 1091, 345, 79, 1848, 850, 451, 264, 1674, 242, 622, 1134, 1574, 1091, 525, 605, 651, 203, 764, 145, 387, 1272, 1549, 1657, 1399, 1196, 599, 1575, 645, 1575, 1399, 1169, 61, 1569, 242, 1428, 1786, 1428, 599, 1575, 645, 1575, 1428, 1549, 1657, 1368, 279, 403, 1546, 1033, 896, 1091, 1848, 1381, 548, 1357, 1399, 934, 786, 1812, 195, 774, 387, 522, 385, 437, 1393, 1569, 1406, 105, 1381, 1074, 620, 766, 1817, 1905, 1570, 1399, 1081, 917, 1905, 33, 1074, 894, 1688, 1462, 1569, 1102, 1420, 1264, 845, 979, 1913, 1091, 503, 448, 1569, 545, 1569, 1634, 1657, 1399, 1517, 1941, 1154, 314, 967, 375, 1482, 844, 325, 1916, 1705, 1661, 995, 230, 169, 1428, 372, 1428, 1657, 1399, 1206, 395, 925, 454, 1398, 313, 1905, 1103, 1267, 904, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3969, 3981), (3981, 3982), (4009, 4019), (4019, 4020), (4025, 4031), (4031, 4032), (4033, 4038), (4039, 4044), (4045, 4047), (4061, 4067), (4067, 4068), (4069, 4074), (4075, 4080), (4081, 4083), (4090, 4091), (4091, 4092), (4093, 4094), (4095, 4096), (4097, 4099), (4099, 4100), (4101, 4107), (4108, 4114), (4115, 4119), (4120, 4124), (4125, 4140), (4141, 4145), (4146, 4155), (4156, 4159), (4160, 4170), (4175, 4176), (4177, 4178), (4180, 4182), (4183, 4187), (4188, 4191), (4192, 4201), (4202, 4204), (4205, 4208), (4208, 4209), (4221, 4224), (4224, 4225), (4226, 4230), (4231, 4233), (4234, 4242), (4243, 4257), (4258, 4264), (4265, 4267), (4268, 4271), (4272, 4278), (4279, 4282), (4283, 4293), (4294, 4299), (4300, 4302), (4303, 4308), (4309, 4312), (4324, 4328), (4328, 4329), (4330, 4337), (4338, 4342), (4343, 4348), (4360, 4366), (4366, 4367), (4368, 4371), (4372, 4379), (4380, 4383), (4385, 4386), (4387, 4396), (4397, 4401), (4402, 4405), (4406, 4412), (4413, 4422), (4423, 4427), (4439, 4442), (4443, 4445), (4446, 4448), (4449, 4454), (4466, 4478), (4478, 4479), (4480, 4488), (4489, 4494), (4495, 4505), (4506, 4510), (4511, 4516), (4522, 4523), (4524, 4525), (4526, 4529), (4529, 4530), (4531, 4536), (4537, 4543), (4544, 4549), (4550, 4558), (4559, 4569), (4570, 4572), (4573, 4575), (4576, 4578), (4584, 4585), (4586, 4587), (4588, 4599), (4600, 4605), (4606, 4624), (4625, 4627), (4628, 4631), (4632, 4634), (4640, 4641), (4642, 4643), (4644, 4647), (4648, 4651), (4652, 4655), (4656, 4658), (4659, 4663), (4664, 4668), (4669, 4671), (4672, 4674), (4675, 4678), (4679, 4681), (4682, 4685), (4691, 4692), (4693, 4694), (4695, 4698), (4699, 4706), (4707, 4715), (4716, 4727), (4734, 4737), (4738, 4741), (4742, 4749), (4750, 4751), (4752, 4754), (4755, 4770), (4771, 4774), (4775, 4780), (4786, 4791), (4792, 4798), (4799, 4806), (4807, 4809), (4810, 4820), (4821, 4827), (4828, 4835), (4836, 4839), (4840, 4853), (4854, 4855), (4856, 4857), (4858, 4859), (4860, 4861), (4862, 4865), (4866, 4869), (4874, 4875), (4875, 4876), (4879, 4882), (4882, 4883), (4884, 4888), (4888, 4889), (4890, 4891), (4892, 4893), (4894, 4895), (4896, 4897), (4897, 4898), (4899, 4905), (4906, 4913), (4921, 4931), (4932, 4934), (4935, 4937), (4938, 4940), (4941, 4954), (4955, 4958), (4959, 4961), (4962, 4963), (4964, 4969), (4977, 4986), (4987, 4996), (4997, 5000), (5001, 5005), (5006, 5013), (5021, 5026), (5027, 5037), (5038, 5042), (5043, 5045), (5046, 5053), (5054, 5058), (5059, 5066), (5069, 5072), (5072, 5073), (5074, 5076), (5077, 5078), (5079, 5084), (5085, 5088), (5089, 5091), (5092, 5097), (5098, 5103), (5104, 5108), (5109, 5112), (5113, 5116), (5117, 5120), (5121, 5127), (5128, 5132), (5133, 5135), (5136, 5139), (5140, 5146), (5147, 5151), (5152, 5156), (5156, 5157), (5158, 5160), (5161, 5162), (5162, 5166), (5166, 5167), (5168, 5171), (5172, 5176), (5177, 5179), (5180, 5183), (5184, 5189), (5189, 5190), (5191, 5204), (5204, 5205), (5206, 5212), (5213, 5220), (5221, 5224), (5225, 5229), (5230, 5235), (5236, 5242), (5243, 5245), (5246, 5253), (5254, 5255), (5255, 5257), (5257, 5258), (5258, 5260), (5260, 5261), (5262, 5264), (5265, 5269), (5270, 5275), (5276, 5278), (5279, 5290), (5290, 5291), (5292, 5294), (5294, 5295), (5296, 5303), (5304, 5307), (5308, 5310), (5311, 5317), (5318, 5329), (5330, 5336), (5337, 5342), (5343, 5347), (5348, 5352), (5353, 5365), (5366, 5371), (5372, 5383), (5383, 5384)]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>[1489, 410, 1254, 410, 1894, 773, 14, 1121, 1596, 1894, 773, 14, 1121, 1596, 887, 410, 1138, 1084, 541, 410, 1054, 1745, 1779, 1360, 1564, 102, 1648, 690, 796, 1138, 118, 906, 335, 918, 1185, 1849, 374, 726, 1401, 410, 1790, 609, 1637, 168, 789, 1497, 930, 1396, 408, 1444, 1703, 736, 754, 1180, 1918, 410, 1239, 677, 1900, 1173, 410, 982, 391, 1371, 855, 1048, 1597, 651, 1006, 1344, 180, 133, 1472, 846, 270, 1892, 410, 1490, 83, 1081, 335, 523, 1138, 495, 1553, 410, 1270, 1170, 1834, 1737, 1081, 1822, 883, 846, 1138, 1013, 1126, 1160, 9, 1822, 71, 1010, 1138, 1058, 1711, 375, 638, 1497, 718, 205, 926, 1822, 588, 1497, 613, 1138, 135, 1711, 1041, 468, 961, 646, 226, 949, 855, 1497, 1098, 1519, 1571, 1565, 491, 307, 1822, 412, 1869, 1441, 690, 655, 36, 1084, 691, 1084, 690, 1942, 1268, 410, 646, 773, 1689, 773, 36, 1084, 691, 1084, 773, 1869, 1441, 1081, 883, 846, 810, 620, 1150, 1497, 135, 355, 1130, 1549, 690, 836, 1480, 730, 893, 1654, 1822, 1788, 669, 1546, 1433, 410, 260, 118, 355, 408, 302, 1097, 854, 1597, 651, 690, 1759, 1396, 1597, 1012, 408, 20, 917, 1245, 410, 1410, 1282, 718, 1431, 1684, 1064, 1497, 1589, 1539, 410, 537, 410, 757, 1441, 690, 372, 1859, 1340, 114, 999, 1149, 550, 566, 1103, 726, 736, 1036, 241, 126, 340, 773, 1122, 773, 1441, 690, 926, 1615, 1102, 639, 1900, 364, 1597, 1402, 1526, 1750, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1179,7 +1279,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[1248, 1399, 213, 1447, 1399, 1628, 1905, 1134]</t>
+          <t>[1656, 690, 656, 1736, 690, 1314, 1597, 949]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1194,10 +1294,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[1248, 1399, 213, 1447, 1399, 1628, 1905, 1134, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(5386, 5396), (5397, 5400), (5401, 5410), (5411, 5419), (5420, 5423), (5424, 5434), (5435, 5439), (5440, 5447)]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>[1656, 690, 656, 1736, 690, 1314, 1597, 949, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1219,7 +1324,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 1361, 1774, 1569, 29, 337, 1569, 30, 1707, 776, 1516, 1905, 597, 1742, 1428, 1860, 1428, 711, 576, 1600, 1119, 1059, 1310, 387, 563, 204, 218, 1777, 1420, 694, 158, 845, 1074, 626, 1117, 1008]</t>
+          <t>[330, 871, 410, 344, 1379, 410, 1592, 1096, 410, 1636, 1697, 850, 611, 1597, 1566, 906, 773, 1553, 773, 388, 368, 1247, 477, 702, 1442, 1822, 1904, 1112, 599, 1941, 1282, 335, 1852, 1431, 408, 469, 965, 1538]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1229,17 +1334,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 1, 1, 20, 1, 9, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 12, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 25, 1, 1, 1, 1, 1, 4, 1, 21, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 1361, 1774, 1569, 29, 337, 1569, 30, 1707, 776, 1516, 1905, 597, 1742, 1428, 1860, 1428, 711, 576, 1600, 1119, 1059, 1310, 387, 563, 204, 218, 1777, 1420, 694, 158, 845, 1074, 626, 1117, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3, 9), (10, 14), (14, 15), (16, 26), (28, 30), (30, 31), (32, 37), (38, 41), (41, 42), (43, 45), (46, 49), (50, 57), (58, 63), (64, 68), (69, 72), (73, 75), (75, 76), (77, 80), (80, 81), (82, 86), (87, 98), (99, 102), (103, 106), (107, 115), (116, 124), (125, 127), (128, 131), (132, 134), (135, 138), (139, 143), (144, 145), (145, 149), (150, 154), (154, 155), (156, 159), (160, 164), (165, 169), (169, 170)]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 1, 1, 20, 1, 9, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 12, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[330, 871, 410, 344, 1379, 410, 1592, 1096, 410, 1636, 1697, 850, 611, 1597, 1566, 906, 773, 1553, 773, 388, 368, 1247, 477, 702, 1442, 1822, 1904, 1112, 599, 1941, 1282, 335, 1852, 1431, 408, 469, 965, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 1, 1, 1, 1, 4, 1, 21, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1369,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[153, 730, 11, 1692, 1940, 1399, 394, 467, 592, 385, 1008]</t>
+          <t>[295, 1459, 595, 738, 1510, 690, 424, 1418, 1849, 669, 1538]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1274,10 +1384,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[153, 730, 11, 1692, 1940, 1399, 394, 467, 592, 385, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(171, 174), (175, 178), (179, 183), (184, 190), (191, 200), (201, 204), (205, 211), (212, 221), (222, 224), (225, 229), (229, 230)]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>[295, 1459, 595, 738, 1510, 690, 424, 1418, 1849, 669, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1299,7 +1414,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[261, 166, 1710, 1891, 1428, 282, 730, 1046, 1270, 869, 796, 1399, 1828, 1285, 530, 1009, 1350, 1008]</t>
+          <t>[981, 744, 969, 202, 773, 1485, 1459, 138, 286, 1407, 384, 690, 505, 1576, 1491, 1220, 81, 1538]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1314,10 +1429,15 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[261, 166, 1710, 1891, 1428, 282, 730, 1046, 1270, 869, 796, 1399, 1828, 1285, 530, 1009, 1350, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(231, 234), (235, 239), (240, 243), (244, 248), (248, 249), (250, 253), (254, 257), (258, 261), (262, 268), (269, 274), (275, 284), (285, 288), (289, 295), (296, 298), (299, 308), (309, 314), (315, 322), (322, 323)]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>[981, 744, 969, 202, 773, 1485, 1459, 138, 286, 1407, 384, 690, 505, 1576, 1491, 1220, 81, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1339,7 +1459,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[895, 592, 385, 371, 11, 328, 1724, 1399, 497, 1420, 1183, 1905, 1296, 845, 1008]</t>
+          <t>[53, 1849, 669, 1926, 595, 1854, 462, 690, 1758, 1282, 441, 1597, 799, 1431, 1538]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1354,10 +1474,15 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[895, 592, 385, 371, 11, 328, 1724, 1399, 497, 1420, 1183, 1905, 1296, 845, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(324, 330), (331, 333), (334, 338), (339, 343), (344, 348), (349, 356), (357, 360), (361, 364), (365, 368), (369, 370), (370, 378), (379, 383), (384, 395), (395, 396), (396, 397)]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t>[53, 1849, 669, 1926, 595, 1854, 462, 690, 1758, 1282, 441, 1597, 799, 1431, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1379,7 +1504,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[153, 1782, 387, 371, 626, 1117, 1399, 1609, 730, 1390, 1117, 1428, 1127, 1247, 1008]</t>
+          <t>[295, 444, 1822, 1926, 469, 965, 690, 1111, 1459, 636, 965, 773, 346, 1109, 1538]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1394,10 +1519,15 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[153, 1782, 387, 371, 626, 1117, 1399, 1609, 730, 1390, 1117, 1428, 1127, 1247, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(398, 401), (402, 411), (412, 414), (415, 419), (420, 424), (425, 429), (430, 433), (434, 438), (439, 442), (443, 452), (453, 457), (457, 458), (459, 468), (469, 477), (477, 478)]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>[295, 444, 1822, 1926, 469, 965, 690, 1111, 1459, 636, 965, 773, 346, 1109, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1419,7 +1549,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[607, 1828, 1428, 282, 730, 605, 1366, 1639, 592, 564, 1008]</t>
+          <t>[554, 505, 773, 1485, 1459, 1519, 1171, 936, 1849, 87, 1538]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1434,10 +1564,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[607, 1828, 1428, 282, 730, 605, 1366, 1639, 592, 564, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(479, 482), (483, 489), (489, 490), (491, 494), (495, 498), (499, 502), (503, 509), (510, 518), (519, 521), (522, 525), (525, 526)]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>[554, 505, 773, 1485, 1459, 1519, 1171, 936, 1849, 87, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1459,7 +1594,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[406, 1020, 1428, 282, 730, 1046, 1350, 1091, 1863, 166, 1428, 1399, 282, 741, 1863, 63, 1560, 1863, 562, 1372, 194, 1080, 1231, 592, 1706, 1661, 1008]</t>
+          <t>[776, 1212, 773, 1485, 1459, 138, 81, 1497, 1516, 744, 773, 690, 1485, 78, 1516, 1124, 1645, 1516, 831, 838, 1523, 626, 709, 1849, 1176, 1036, 1538]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1474,10 +1609,15 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[406, 1020, 1428, 282, 730, 1046, 1350, 1091, 1863, 166, 1428, 1399, 282, 741, 1863, 63, 1560, 1863, 562, 1372, 194, 1080, 1231, 592, 1706, 1661, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(529, 531), (532, 536), (536, 537), (538, 541), (542, 545), (546, 549), (550, 557), (558, 560), (561, 564), (565, 569), (569, 570), (571, 574), (575, 578), (579, 586), (587, 590), (591, 599), (600, 603), (604, 607), (608, 612), (613, 616), (617, 619), (620, 624), (625, 629), (630, 632), (633, 637), (638, 642), (642, 643)]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>[776, 1212, 773, 1485, 1459, 138, 81, 1497, 1516, 744, 773, 690, 1485, 78, 1516, 1124, 1645, 1516, 831, 838, 1523, 626, 709, 1849, 1176, 1036, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1499,7 +1639,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[649, 1420, 622, 503, 845, 1352, 81, 1569, 259, 701, 674, 1008]</t>
+          <t>[1767, 1282, 226, 1589, 1431, 15, 1104, 410, 440, 1771, 1699, 1538]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1509,17 +1649,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[649, 1420, 622, 503, 845, 1352, 81, 1569, 259, 701, 674, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(646, 654), (655, 656), (656, 659), (660, 663), (663, 664), (665, 673), (674, 682), (683, 684), (685, 687), (688, 692), (693, 698), (698, 699)]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1767, 1282, 226, 1589, 1431, 15, 1104, 410, 440, 1771, 1699, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1684,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[932, 1121, 1869, 1389, 1347, 699, 1008]</t>
+          <t>[1476, 503, 630, 274, 1457, 1664, 1538]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1554,10 +1699,15 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[932, 1121, 1869, 1389, 1347, 699, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(700, 702), (703, 706), (707, 712), (713, 715), (716, 729), (730, 743), (743, 744)]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>[1476, 503, 630, 274, 1457, 1664, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1579,7 +1729,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1265, 540, 1569, 259, 674, 1428, 1119, 1692, 507, 1428, 429, 1399, 1235, 1091, 393, 1893, 1440, 784, 1104, 1569, 715, 418, 600, 1286, 798, 876, 900, 1569, 1228, 1665, 1428, 722, 1046, 1685, 1008]</t>
+          <t>[959, 1313, 410, 440, 1699, 773, 477, 738, 1118, 773, 989, 690, 1585, 1497, 743, 1209, 1687, 1905, 1334, 410, 612, 1582, 1608, 1350, 275, 592, 1143, 410, 1324, 215, 773, 292, 138, 1719, 1538]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1589,17 +1739,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 11, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 21, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[1265, 540, 1569, 259, 674, 1428, 1119, 1692, 507, 1428, 429, 1399, 1235, 1091, 393, 1893, 1440, 784, 1104, 1569, 715, 418, 600, 1286, 798, 876, 900, 1569, 1228, 1665, 1428, 722, 1046, 1685, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(745, 757), (758, 766), (767, 768), (769, 771), (772, 777), (777, 778), (779, 782), (783, 789), (790, 798), (798, 799), (800, 809), (810, 813), (814, 824), (825, 827), (828, 834), (835, 842), (843, 863), (865, 872), (874, 888), (889, 890), (891, 892), (893, 897), (898, 903), (904, 908), (909, 925), (926, 932), (933, 940), (941, 942), (943, 944), (945, 950), (950, 951), (952, 957), (958, 961), (962, 965), (965, 966)]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 11, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[959, 1313, 410, 440, 1699, 773, 477, 738, 1118, 773, 989, 690, 1585, 1497, 743, 1209, 1687, 1905, 1334, 410, 612, 1582, 1608, 1350, 275, 592, 1143, 410, 1324, 215, 773, 292, 138, 1719, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 21, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1774,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[675, 127, 1936, 58, 127, 1569, 378, 1126, 131, 1399, 1731, 1193, 1428, 196, 208, 313, 1008]</t>
+          <t>[596, 1378, 848, 311, 1378, 410, 1187, 1295, 1563, 690, 1461, 75, 773, 886, 1573, 364, 1538]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1629,17 +1784,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 8, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 25, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[675, 127, 1936, 58, 127, 1569, 378, 1126, 131, 1399, 1731, 1193, 1428, 196, 208, 313, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(967, 969), (970, 976), (977, 986), (987, 999), (1000, 1006), (1007, 1008), (1009, 1017), (1018, 1026), (1027, 1031), (1032, 1035), (1036, 1044), (1045, 1051), (1051, 1052), (1053, 1055), (1056, 1058), (1059, 1063), (1063, 1064)]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 8, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[596, 1378, 848, 311, 1378, 410, 1187, 1295, 1563, 690, 1461, 75, 773, 886, 1573, 364, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 25, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1819,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[1812, 354, 602, 642, 1060, 966, 1929, 451, 1691, 76, 389, 669, 132, 141, 1569, 109, 1018, 1399, 1764, 1091, 1362, 1008]</t>
+          <t>[730, 1603, 453, 1186, 609, 1637, 91, 1041, 1577, 1353, 710, 631, 766, 377, 410, 1074, 46, 690, 1930, 1497, 31, 1538]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1669,17 +1829,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[1812, 354, 602, 642, 1060, 966, 1929, 451, 1691, 76, 389, 669, 132, 141, 1569, 109, 1018, 1399, 1764, 1091, 1362, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1065, 1070), (1071, 1077), (1078, 1085), (1086, 1088), (1089, 1091), (1092, 1100), (1101, 1109), (1110, 1117), (1118, 1119), (1120, 1130), (1132, 1141), (1142, 1143), (1144, 1152), (1153, 1160), (1161, 1162), (1163, 1166), (1167, 1173), (1174, 1177), (1178, 1184), (1185, 1187), (1188, 1192), (1192, 1193)]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[730, 1603, 453, 1186, 609, 1637, 91, 1041, 1577, 1353, 710, 631, 766, 377, 410, 1074, 46, 690, 1930, 1497, 31, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1864,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[1534, 733, 1362, 1399, 1805, 1008]</t>
+          <t>[1025, 1474, 31, 690, 1274, 1538]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1709,17 +1874,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[1, 1, 8, 1, 8, 1]</t>
+          <t>[1, 1, 25, 1, 25, 1]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[1534, 733, 1362, 1399, 1805, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1194, 1198), (1199, 1202), (1203, 1207), (1208, 1211), (1212, 1216), (1216, 1217)]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[1, 1, 8, 1, 8, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1025, 1474, 31, 690, 1274, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[1, 1, 25, 1, 25, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1909,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[809, 242, 1569, 259, 1091, 505, 1433, 1091, 1362, 755, 806, 1420, 622, 503, 845, 1676, 1420, 1332, 528, 845, 880, 1403, 1420, 880, 1403, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 214, 325, 1403, 1420, 1796, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 1939, 783, 1574, 451, 1691, 1420, 1881, 845, 1575, 1427, 1189, 1340, 79, 1005, 1721, 1420, 1899, 845, 1728, 1810, 425, 1420, 1810, 1681, 1806, 285, 1575, 845, 1189, 248, 1228, 613, 1891, 79, 1848, 1915, 1420, 1899, 845, 1368, 903, 1403, 1420, 903, 1403, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 560, 1785, 1403, 1420, 1785, 1403, 508, 285, 1575, 845, 1189, 1340, 1228, 761, 1891, 79, 1005, 1721, 1420, 1899, 845, 969, 1420, 550, 845, 359, 1403, 1420, 1632, 508, 285, 1575, 845, 1189, 77, 332, 1117, 1428, 285, 1905, 721, 1228, 787, 1891, 79, 913, 1721, 1420, 1899, 845, 1700, 347, 364, 1189, 194, 883, 79, 1575, 957, 1420, 1899, 845, 1041, 1483, 1403, 1420, 1767, 508, 285, 1575, 845, 1189, 77, 332, 1117, 1428, 1117, 605, 1268, 1060, 369, 1032, 1359, 1403, 1420, 1359, 1403, 508, 285, 1575, 845, 1189, 400, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 8, 1420, 1909, 845, 1483, 1403, 1420, 1767, 508, 285, 1575, 845, 1189, 308, 1428, 285, 1575, 1152, 869, 840, 1240, 1074, 394, 1069, 41, 1740, 638, 1415, 87, 404, 915, 1905, 1539, 1828, 1274, 1008]</t>
+          <t>[1311, 646, 410, 440, 1497, 1076, 247, 1497, 31, 134, 1610, 1282, 226, 1589, 1431, 439, 1282, 1249, 971, 1431, 1472, 951, 1282, 1472, 951, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 450, 1103, 951, 1282, 943, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 1357, 972, 855, 1041, 1577, 1282, 960, 1431, 1084, 762, 257, 725, 1138, 649, 1829, 1282, 654, 1431, 775, 1088, 861, 1282, 1088, 207, 1696, 386, 1084, 1431, 257, 28, 1324, 894, 202, 1138, 135, 1458, 1282, 654, 1431, 1081, 874, 951, 1282, 874, 951, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 581, 56, 951, 1282, 56, 951, 672, 386, 1084, 1431, 257, 725, 1324, 1053, 202, 1138, 649, 1829, 1282, 654, 1431, 1702, 1282, 1764, 1431, 353, 951, 1282, 909, 672, 386, 1084, 1431, 257, 967, 218, 965, 773, 386, 1597, 1860, 1324, 580, 202, 1138, 878, 1829, 1282, 654, 1431, 397, 1232, 457, 257, 1523, 787, 1138, 1084, 502, 1282, 654, 1431, 1668, 1058, 951, 1282, 704, 672, 386, 1084, 1431, 257, 967, 218, 965, 773, 965, 1519, 529, 609, 1606, 1727, 579, 951, 1282, 579, 951, 672, 386, 1084, 1431, 257, 1296, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 1818, 1282, 1147, 1431, 1058, 951, 1282, 704, 672, 386, 1084, 1431, 257, 1200, 773, 386, 1084, 354, 1407, 471, 1455, 408, 424, 805, 1099, 357, 1089, 1928, 1506, 1199, 1221, 1597, 1154, 505, 582, 1538]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1749,17 +1919,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 5, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 13, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[809, 242, 1569, 259, 1091, 505, 1433, 1091, 1362, 755, 806, 1420, 622, 503, 845, 1676, 1420, 1332, 528, 845, 880, 1403, 1420, 880, 1403, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 214, 325, 1403, 1420, 1796, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 1939, 783, 1574, 451, 1691, 1420, 1881, 845, 1575, 1427, 1189, 1340, 79, 1005, 1721, 1420, 1899, 845, 1728, 1810, 425, 1420, 1810, 1681, 1806, 285, 1575, 845, 1189, 248, 1228, 613, 1891, 79, 1848, 1915, 1420, 1899, 845, 1368, 903, 1403, 1420, 903, 1403, 508, 285, 1575, 845, 1189, 225, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 560, 1785, 1403, 1420, 1785, 1403, 508, 285, 1575, 845, 1189, 1340, 1228, 761, 1891, 79, 1005, 1721, 1420, 1899, 845, 969, 1420, 550, 845, 359, 1403, 1420, 1632, 508, 285, 1575, 845, 1189, 77, 332, 1117, 1428, 285, 1905, 721, 1228, 787, 1891, 79, 913, 1721, 1420, 1899, 845, 1700, 347, 364, 1189, 194, 883, 79, 1575, 957, 1420, 1899, 845, 1041, 1483, 1403, 1420, 1767, 508, 285, 1575, 845, 1189, 77, 332, 1117, 1428, 1117, 605, 1268, 1060, 369, 1032, 1359, 1403, 1420, 1359, 1403, 508, 285, 1575, 845, 1189, 400, 1228, 761, 1891, 79, 761, 1721, 1420, 1899, 845, 8, 1420, 1909, 845, 1483, 1403, 1420, 1767, 508, 285, 1575, 845, 1189, 308, 1428, 285, 1575, 1152, 869, 840, 1240, 1074, 394, 1069, 41, 1740, 638, 1415, 87, 404, 915, 1905, 1539, 1828, 1274, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1218, 1226), (1227, 1230), (1231, 1232), (1233, 1235), (1236, 1238), (1239, 1250), (1251, 1261), (1262, 1264), (1265, 1269), (1270, 1282), (1286, 1297), (1298, 1299), (1299, 1302), (1303, 1306), (1306, 1307), (1308, 1315), (1316, 1317), (1317, 1332), (1333, 1337), (1337, 1338), (1339, 1341), (1342, 1344), (1345, 1346), (1346, 1348), (1349, 1351), (1352, 1358), (1359, 1363), (1364, 1365), (1365, 1366), (1367, 1369), (1370, 1372), (1373, 1374), (1375, 1377), (1378, 1382), (1383, 1384), (1384, 1386), (1387, 1393), (1393, 1394), (1394, 1395), (1395, 1396), (1397, 1405), (1406, 1408), (1409, 1411), (1412, 1413), (1413, 1417), (1418, 1424), (1425, 1429), (1430, 1431), (1431, 1432), (1433, 1435), (1436, 1438), (1439, 1440), (1441, 1443), (1444, 1448), (1449, 1450), (1450, 1452), (1453, 1459), (1459, 1460), (1460, 1461), (1461, 1462), (1463, 1470), (1471, 1476), (1477, 1478), (1479, 1486), (1487, 1488), (1488, 1489), (1489, 1494), (1494, 1495), (1496, 1497), (1498, 1501), (1502, 1504), (1505, 1508), (1509, 1510), (1510, 1512), (1513, 1519), (1519, 1520), (1520, 1521), (1521, 1522), (1523, 1537), (1538, 1543), (1544, 1549), (1550, 1551), (1551, 1556), (1557, 1561), (1562, 1569), (1570, 1574), (1575, 1576), (1576, 1577), (1578, 1580), (1581, 1586), (1587, 1588), (1589, 1591), (1592, 1596), (1597, 1598), (1598, 1599), (1600, 1607), (1607, 1608), (1608, 1609), (1609, 1610), (1611, 1621), (1622, 1624), (1625, 1627), (1628, 1629), (1629, 1631), (1632, 1634), (1635, 1641), (1642, 1646), (1647, 1648), (1648, 1649), (1650, 1652), (1653, 1655), (1656, 1657), (1658, 1660), (1661, 1665), (1666, 1667), (1667, 1669), (1670, 1676), (1676, 1677), (1677, 1678), (1678, 1679), (1680, 1689), (1690, 1693), (1694, 1696), (1697, 1698), (1698, 1701), (1702, 1704), (1705, 1711), (1712, 1716), (1717, 1718), (1718, 1719), (1720, 1722), (1723, 1726), (1727, 1728), (1729, 1731), (1732, 1736), (1737, 1738), (1738, 1740), (1741, 1747), (1747, 1748), (1748, 1749), (1749, 1750), (1751, 1757), (1758, 1759), (1759, 1768), (1768, 1769), (1770, 1773), (1774, 1776), (1777, 1778), (1778, 1783), (1784, 1790), (1791, 1795), (1796, 1797), (1797, 1798), (1799, 1801), (1802, 1805), (1806, 1809), (1810, 1814), (1814, 1815), (1816, 1820), (1821, 1825), (1826, 1830), (1831, 1832), (1833, 1834), (1835, 1839), (1840, 1841), (1841, 1843), (1844, 1850), (1850, 1851), (1851, 1852), (1852, 1853), (1854, 1862), (1863, 1867), (1868, 1870), (1871, 1873), (1874, 1876), (1877, 1885), (1886, 1887), (1887, 1888), (1889, 1895), (1895, 1896), (1896, 1897), (1897, 1898), (1899, 1908), (1909, 1910), (1911, 1913), (1914, 1915), (1915, 1918), (1919, 1925), (1926, 1930), (1931, 1932), (1932, 1933), (1934, 1936), (1937, 1940), (1941, 1944), (1945, 1949), (1949, 1950), (1951, 1955), (1956, 1959), (1960, 1968), (1969, 1971), (1972, 1981), (1982, 1993), (1994, 1996), (1997, 1999), (2000, 2001), (2001, 2003), (2004, 2006), (2007, 2013), (2014, 2018), (2019, 2020), (2020, 2021), (2022, 2024), (2025, 2028), (2029, 2030), (2031, 2033), (2034, 2038), (2039, 2040), (2040, 2042), (2043, 2049), (2049, 2050), (2050, 2051), (2051, 2052), (2053, 2059), (2060, 2061), (2061, 2069), (2069, 2070), (2071, 2072), (2073, 2075), (2076, 2077), (2077, 2080), (2081, 2087), (2088, 2092), (2093, 2094), (2094, 2095), (2096, 2098), (2099, 2102), (2102, 2103), (2104, 2108), (2109, 2110), (2111, 2117), (2118, 2123), (2124, 2125), (2126, 2131), (2132, 2135), (2136, 2142), (2143, 2153), (2154, 2156), (2157, 2176), (2179, 2188), (2189, 2192), (2196, 2202), (2203, 2210), (2212, 2216), (2217, 2221), (2222, 2229), (2230, 2236), (2237, 2244), (2244, 2245)]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 5, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1311, 646, 410, 440, 1497, 1076, 247, 1497, 31, 134, 1610, 1282, 226, 1589, 1431, 439, 1282, 1249, 971, 1431, 1472, 951, 1282, 1472, 951, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 450, 1103, 951, 1282, 943, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 1357, 972, 855, 1041, 1577, 1282, 960, 1431, 1084, 762, 257, 725, 1138, 649, 1829, 1282, 654, 1431, 775, 1088, 861, 1282, 1088, 207, 1696, 386, 1084, 1431, 257, 28, 1324, 894, 202, 1138, 135, 1458, 1282, 654, 1431, 1081, 874, 951, 1282, 874, 951, 672, 386, 1084, 1431, 257, 556, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 581, 56, 951, 1282, 56, 951, 672, 386, 1084, 1431, 257, 725, 1324, 1053, 202, 1138, 649, 1829, 1282, 654, 1431, 1702, 1282, 1764, 1431, 353, 951, 1282, 909, 672, 386, 1084, 1431, 257, 967, 218, 965, 773, 386, 1597, 1860, 1324, 580, 202, 1138, 878, 1829, 1282, 654, 1431, 397, 1232, 457, 257, 1523, 787, 1138, 1084, 502, 1282, 654, 1431, 1668, 1058, 951, 1282, 704, 672, 386, 1084, 1431, 257, 967, 218, 965, 773, 965, 1519, 529, 609, 1606, 1727, 579, 951, 1282, 579, 951, 672, 386, 1084, 1431, 257, 1296, 1324, 1053, 202, 1138, 1053, 1829, 1282, 654, 1431, 1818, 1282, 1147, 1431, 1058, 951, 1282, 704, 672, 386, 1084, 1431, 257, 1200, 773, 386, 1084, 354, 1407, 471, 1455, 408, 424, 805, 1099, 357, 1089, 1928, 1506, 1199, 1221, 1597, 1154, 505, 582, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 13, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1954,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[892, 556, 1348, 1428, 1011, 605, 343, 698, 1008]</t>
+          <t>[786, 290, 1322, 773, 1259, 1519, 358, 1810, 1538]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1789,17 +1964,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[1, 1, 9, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 21, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[892, 556, 1348, 1428, 1011, 605, 343, 698, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2246, 2256), (2257, 2261), (2262, 2267), (2267, 2268), (2269, 2273), (2274, 2277), (2278, 2283), (2284, 2291), (2291, 2292)]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[1, 1, 9, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[786, 290, 1322, 773, 1259, 1519, 358, 1810, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[1, 1, 21, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1999,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[1932, 1213, 1794, 1428, 1703, 1598, 1428, 987, 903, 1428, 1312, 1916, 358, 620, 1258, 1399, 1192, 1486, 439, 911, 1623, 1091, 1388, 167, 439, 1184, 439, 1077, 346, 439, 336, 1253, 842, 1428, 196, 405, 401, 439, 1582, 1428, 1371, 1428, 741, 770, 1900, 387, 1883, 1705, 1111, 759, 439, 196, 971, 1428, 196, 1086, 1428, 692, 2, 983, 712, 1428, 1029, 1202, 1428, 1299, 849, 1008]</t>
+          <t>[1761, 1469, 939, 773, 1007, 767, 773, 559, 874, 773, 1643, 726, 1652, 302, 1677, 690, 834, 976, 1823, 1451, 389, 1497, 73, 714, 1823, 1494, 1823, 1819, 414, 1823, 1826, 1456, 482, 773, 886, 1816, 594, 1823, 1100, 773, 1375, 773, 78, 1570, 797, 1822, 285, 736, 648, 1129, 1823, 886, 1560, 773, 886, 187, 773, 847, 280, 1622, 336, 773, 1177, 1883, 773, 586, 306, 1538]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1834,10 +2014,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[1932, 1213, 1794, 1428, 1703, 1598, 1428, 987, 903, 1428, 1312, 1916, 358, 620, 1258, 1399, 1192, 1486, 439, 911, 1623, 1091, 1388, 167, 439, 1184, 439, 1077, 346, 439, 336, 1253, 842, 1428, 196, 405, 401, 439, 1582, 1428, 1371, 1428, 741, 770, 1900, 387, 1883, 1705, 1111, 759, 439, 196, 971, 1428, 196, 1086, 1428, 692, 2, 983, 712, 1428, 1029, 1202, 1428, 1299, 849, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2295, 2303), (2304, 2308), (2309, 2314), (2314, 2315), (2316, 2318), (2319, 2322), (2322, 2323), (2324, 2326), (2327, 2329), (2329, 2330), (2331, 2333), (2333, 2334), (2335, 2337), (2338, 2340), (2341, 2347), (2348, 2351), (2352, 2358), (2360, 2367), (2368, 2369), (2370, 2374), (2375, 2388), (2389, 2391), (2392, 2395), (2396, 2401), (2402, 2403), (2404, 2412), (2413, 2414), (2415, 2420), (2421, 2423), (2424, 2425), (2426, 2431), (2432, 2435), (2436, 2443), (2443, 2444), (2445, 2447), (2448, 2455), (2456, 2463), (2464, 2465), (2466, 2470), (2470, 2471), (2472, 2485), (2485, 2486), (2487, 2494), (2495, 2499), (2500, 2510), (2511, 2513), (2514, 2523), (2524, 2526), (2527, 2530), (2531, 2534), (2535, 2536), (2537, 2539), (2540, 2545), (2545, 2546), (2547, 2549), (2550, 2554), (2554, 2555), (2556, 2561), (2564, 2567), (2568, 2572), (2573, 2576), (2576, 2577), (2578, 2583), (2584, 2590), (2590, 2591), (2592, 2598), (2599, 2603), (2603, 2604)]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>[1761, 1469, 939, 773, 1007, 767, 773, 559, 874, 773, 1643, 726, 1652, 302, 1677, 690, 834, 976, 1823, 1451, 389, 1497, 73, 714, 1823, 1494, 1823, 1819, 414, 1823, 1826, 1456, 482, 773, 886, 1816, 594, 1823, 1100, 773, 1375, 773, 78, 1570, 797, 1822, 285, 736, 648, 1129, 1823, 886, 1560, 773, 886, 187, 773, 847, 280, 1622, 336, 773, 1177, 1883, 773, 586, 306, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1859,7 +2044,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[932, 73, 639, 274, 1428, 1337, 749, 1389, 942, 1745, 1543, 1008]</t>
+          <t>[1476, 1390, 1273, 1304, 773, 1840, 34, 274, 519, 1298, 390, 1538]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1874,10 +2059,15 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[932, 73, 639, 274, 1428, 1337, 749, 1389, 942, 1745, 1543, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2605, 2607), (2608, 2613), (2614, 2616), (2617, 2624), (2624, 2625), (2626, 2627), (2628, 2633), (2634, 2636), (2637, 2638), (2639, 2643), (2644, 2653), (2653, 2654)]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>[1476, 1390, 1273, 1304, 773, 1840, 34, 274, 519, 1298, 390, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1899,7 +2089,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[942, 1745, 1647, 1091, 1747, 1678, 1008]</t>
+          <t>[519, 1298, 826, 1497, 448, 494, 1538]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1914,10 +2104,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[942, 1745, 1647, 1091, 1747, 1678, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2655, 2656), (2657, 2661), (2662, 2672), (2669, 2671), (2676, 2680), (2681, 2683), (2683, 2684)]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t>[519, 1298, 826, 1497, 448, 494, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -1939,7 +2134,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[932, 42, 1129, 518, 387, 799, 1420, 1193, 845, 1008]</t>
+          <t>[1476, 1364, 759, 1406, 1822, 1227, 1282, 75, 1431, 1538]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1949,17 +2144,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 8, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 25, 1, 1]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[932, 42, 1129, 518, 387, 799, 1420, 1193, 845, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2685, 2687), (2688, 2699), (2700, 2706), (2707, 2715), (2716, 2718), (2719, 2724), (2725, 2726), (2726, 2732), (2732, 2733), (2733, 2734)]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1476, 1364, 759, 1406, 1822, 1227, 1282, 75, 1431, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -1979,7 +2179,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[768, 928, 439, 458, 1680, 1428, 458, 98, 1642, 810, 969, 955, 592, 1328, 1429, 30, 1707, 1516, 1905, 597, 1742, 1428, 1860, 1428, 711, 576, 1600, 1119, 1059, 1310, 387, 563, 204, 218, 1777, 1420, 694, 158, 845, 1074, 626, 1117, 1372, 1905, 1221, 711, 1270, 1008]</t>
+          <t>[1255, 17, 1823, 1066, 144, 773, 1066, 1626, 1831, 1880, 1702, 1492, 1849, 236, 69, 1636, 1697, 611, 1597, 1566, 906, 773, 1553, 773, 388, 368, 1247, 477, 702, 1442, 1822, 1904, 1112, 599, 1941, 1282, 335, 1852, 1431, 408, 469, 965, 838, 1597, 152, 388, 286, 1538]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1989,17 +2189,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 20, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 12, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[768, 928, 439, 458, 1680, 1428, 458, 98, 1642, 810, 969, 955, 592, 1328, 1429, 30, 1707, 1516, 1905, 597, 1742, 1428, 1860, 1428, 711, 576, 1600, 1119, 1059, 1310, 387, 563, 204, 218, 1777, 1420, 694, 158, 845, 1074, 626, 1117, 1372, 1905, 1221, 711, 1270, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2735, 2740), (2741, 2749), (2750, 2751), (2752, 2757), (2758, 2762), (2762, 2763), (2764, 2769), (2770, 2774), (2775, 2779), (2780, 2783), (2786, 2792), (2793, 2795), (2796, 2798), (2799, 2805), (2808, 2811), (2812, 2814), (2815, 2818), (2819, 2824), (2825, 2829), (2830, 2833), (2834, 2836), (2836, 2837), (2838, 2841), (2841, 2842), (2843, 2847), (2848, 2859), (2860, 2863), (2864, 2867), (2868, 2876), (2877, 2885), (2886, 2888), (2889, 2892), (2893, 2895), (2896, 2899), (2900, 2904), (2905, 2906), (2906, 2910), (2911, 2915), (2915, 2916), (2917, 2920), (2921, 2925), (2926, 2930), (2931, 2934), (2935, 2939), (2940, 2950), (2951, 2955), (2956, 2962), (2962, 2963)]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 20, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 12, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1255, 17, 1823, 1066, 144, 773, 1066, 1626, 1831, 1880, 1702, 1492, 1849, 236, 69, 1636, 1697, 611, 1597, 1566, 906, 773, 1553, 773, 388, 368, 1247, 477, 702, 1442, 1822, 1904, 1112, 599, 1941, 1282, 335, 1852, 1431, 408, 469, 965, 838, 1597, 152, 388, 286, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2224,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[34, 679, 1420, 1304, 1170, 845, 1905, 1540, 38, 1428, 239, 124, 1194, 1855, 1662, 206, 250, 387, 563, 510, 1074, 954, 434, 1428, 1856, 1619, 844, 1320, 752, 387, 204, 251, 1749, 69, 142, 1428, 1395, 1428, 1644, 1774, 1569, 1873, 750, 731, 12, 1052, 579, 1399, 24, 893, 1905, 1134, 1008]</t>
+          <t>[1655, 154, 1282, 770, 1189, 1431, 1597, 173, 1836, 773, 361, 1361, 510, 18, 987, 1867, 261, 1822, 1904, 411, 408, 404, 742, 773, 1467, 1005, 566, 994, 1897, 1822, 1112, 283, 326, 456, 107, 773, 1596, 773, 950, 1379, 410, 719, 912, 359, 1048, 300, 429, 690, 979, 277, 1597, 949, 1538]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2029,17 +2234,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 12, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 13, 1, 1, 1, 1, 1, 1, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 16, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[34, 679, 1420, 1304, 1170, 845, 1905, 1540, 38, 1428, 239, 124, 1194, 1855, 1662, 206, 250, 387, 563, 510, 1074, 954, 434, 1428, 1856, 1619, 844, 1320, 752, 387, 204, 251, 1749, 69, 142, 1428, 1395, 1428, 1644, 1774, 1569, 1873, 750, 731, 12, 1052, 579, 1399, 24, 893, 1905, 1134, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2966, 2972), (2973, 2981), (2982, 2983), (2983, 2986), (2987, 2990), (2990, 2991), (2992, 2996), (2997, 2999), (3000, 3005), (3005, 3006), (3007, 3012), (3013, 3015), (3016, 3021), (3022, 3028), (3029, 3036), (3037, 3041), (3042, 3051), (3052, 3054), (3055, 3058), (3059, 3061), (3062, 3065), (3066, 3073), (3074, 3081), (3081, 3082), (3083, 3089), (3090, 3099), (3099, 3100), (3101, 3109), (3110, 3116), (3117, 3119), (3120, 3122), (3123, 3129), (3130, 3135), (3138, 3147), (3148, 3153), (3153, 3154), (3155, 3157), (3157, 3158), (3159, 3163), (3165, 3167), (3167, 3168), (3169, 3172), (3173, 3176), (3180, 3190), (3191, 3200), (3201, 3213), (3214, 3223), (3224, 3227), (3228, 3237), (3238, 3242), (3243, 3247), (3248, 3255), (3255, 3256)]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 12, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 13, 1, 1, 1, 1, 1, 1, 1, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1655, 154, 1282, 770, 1189, 1431, 1597, 173, 1836, 773, 361, 1361, 510, 18, 987, 1867, 261, 1822, 1904, 411, 408, 404, 742, 773, 1467, 1005, 566, 994, 1897, 1822, 1112, 283, 326, 456, 107, 773, 1596, 773, 950, 1379, 410, 719, 912, 359, 1048, 300, 429, 690, 979, 277, 1597, 949, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 9, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 16, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2269,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[1089, 486, 1399, 1901, 1605, 1056, 1705, 1062, 226, 125, 1008]</t>
+          <t>[1647, 919, 690, 1336, 809, 598, 736, 1718, 1006, 1680, 1538]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2074,10 +2284,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[1089, 486, 1399, 1901, 1605, 1056, 1705, 1062, 226, 125, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3258, 3260), (3261, 3267), (3268, 3271), (3272, 3284), (3285, 3289), (3290, 3303), (3304, 3306), (3307, 3322), (3323, 3329), (3330, 3339), (3339, 3340)]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>[1647, 919, 690, 1336, 809, 598, 736, 1718, 1006, 1680, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2099,7 +2314,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[887, 270, 1569, 558]</t>
+          <t>[1256, 209, 410, 1146]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2114,10 +2329,15 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[887, 270, 1569, 558, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3348, 3357), (3358, 3362), (3362, 3363), (3364, 3370)]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>[1256, 209, 410, 1146, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2139,7 +2359,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 311, 818, 427, 1927, 1650, 112, 1776, 1065, 1074, 1398, 621, 1008]</t>
+          <t>[330, 871, 410, 835, 720, 708, 1032, 108, 552, 1734, 1907, 408, 1900, 123, 1538]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2149,17 +2369,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 12, 7, 7, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 25, 1, 1, 1, 9, 23, 23, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 311, 818, 427, 1927, 1650, 112, 1776, 1065, 1074, 1398, 621, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3, 9), (10, 14), (14, 15), (16, 26), (30, 40), (41, 48), (49, 59), (60, 66), (67, 74), (75, 81), (83, 89), (90, 93), (94, 99), (102, 113), (113, 114)]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 12, 7, 7, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[330, 871, 410, 835, 720, 708, 1032, 108, 552, 1734, 1907, 408, 1900, 123, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 1, 1, 9, 23, 23, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2404,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[404, 1705, 141, 150, 1542, 1028, 1285, 1743, 981, 1081, 1381, 1597, 444, 125, 556, 1863, 1595, 1008]</t>
+          <t>[1199, 736, 377, 1743, 455, 400, 1576, 1790, 341, 1759, 355, 1160, 1028, 1680, 290, 1516, 1101, 1538]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2189,17 +2414,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 10, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 15, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[404, 1705, 141, 150, 1542, 1028, 1285, 1743, 981, 1081, 1381, 1597, 444, 125, 556, 1863, 1595, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(116, 123), (124, 126), (127, 134), (135, 142), (145, 148), (149, 153), (154, 156), (157, 161), (162, 166), (167, 170), (171, 176), (177, 182), (183, 186), (187, 196), (197, 201), (202, 205), (206, 214), (214, 215)]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 10, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1199, 736, 377, 1743, 455, 400, 1576, 1790, 341, 1759, 355, 1160, 1028, 1680, 290, 1516, 1101, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 15, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2449,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[153, 730, 11, 691, 1074, 499, 386, 1905, 1448, 1705, 1596, 900, 203, 444, 1841, 626, 1117, 1008]</t>
+          <t>[295, 1459, 595, 1106, 408, 1692, 93, 1597, 1318, 736, 1281, 1143, 1565, 1028, 1168, 469, 965, 1538]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2234,10 +2464,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[153, 730, 11, 691, 1074, 499, 386, 1905, 1448, 1705, 1596, 900, 203, 444, 1841, 626, 1117, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(217, 220), (221, 224), (225, 229), (230, 237), (238, 241), (242, 250), (251, 262), (263, 267), (268, 277), (278, 280), (281, 295), (296, 303), (304, 309), (310, 313), (314, 317), (318, 322), (323, 327), (327, 328)]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>[295, 1459, 595, 1106, 408, 1692, 93, 1597, 1318, 736, 1281, 1143, 1565, 1028, 1168, 469, 965, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2259,7 +2494,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[153, 1285, 1692, 1133, 1428, 1198, 1399, 730, 11, 691, 1905, 1857, 1008]</t>
+          <t>[295, 1576, 738, 947, 773, 351, 690, 1459, 595, 1106, 1597, 884, 1538]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2274,10 +2509,15 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[153, 1285, 1692, 1133, 1428, 1198, 1399, 730, 11, 691, 1905, 1857, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(330, 333), (334, 336), (337, 343), (344, 352), (352, 353), (354, 365), (366, 369), (370, 373), (374, 378), (379, 386), (387, 391), (392, 404), (404, 405)]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
+        <is>
+          <t>[295, 1576, 738, 947, 773, 351, 690, 1459, 595, 1106, 1597, 884, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2299,7 +2539,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[153, 1845, 199, 670, 1922, 831, 1399, 730, 1046, 143, 1705, 444, 1270, 1399, 863, 1008]</t>
+          <t>[295, 70, 1806, 49, 1754, 1054, 690, 1459, 138, 1644, 736, 1028, 286, 690, 407, 1538]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2314,10 +2554,15 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[153, 1845, 199, 670, 1922, 831, 1399, 730, 1046, 143, 1705, 444, 1270, 1399, 863, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(407, 410), (411, 416), (417, 422), (423, 424), (425, 428), (429, 435), (436, 439), (440, 443), (444, 447), (448, 458), (459, 461), (462, 465), (466, 472), (473, 476), (477, 483), (483, 484)]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>[295, 70, 1806, 49, 1754, 1054, 690, 1459, 138, 1644, 736, 1028, 286, 690, 407, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2339,7 +2584,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[153, 730, 655, 1117, 1399, 1285, 1614, 387, 546, 1445, 1399, 1513, 387, 1863, 91, 1943, 1607, 1008]</t>
+          <t>[295, 1459, 517, 965, 690, 1576, 811, 1822, 1501, 1525, 690, 23, 1822, 1516, 405, 1779, 650, 1538]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2354,10 +2599,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[153, 730, 655, 1117, 1399, 1285, 1614, 387, 546, 1445, 1399, 1513, 387, 1863, 91, 1943, 1607, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(486, 489), (490, 493), (494, 504), (505, 509), (510, 513), (514, 516), (517, 521), (522, 524), (525, 533), (534, 542), (543, 546), (547, 551), (552, 554), (555, 558), (559, 567), (568, 572), (573, 584), (584, 585)]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>[295, 1459, 517, 965, 690, 1576, 811, 1822, 1501, 1525, 690, 23, 1822, 1516, 405, 1779, 650, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2379,7 +2629,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[153, 1463, 730, 205, 1399, 670, 1704, 1247, 1008]</t>
+          <t>[295, 192, 1459, 1454, 690, 49, 977, 1109, 1538]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2394,10 +2644,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[153, 1463, 730, 205, 1399, 670, 1704, 1247, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(587, 590), (591, 596), (597, 600), (601, 609), (610, 613), (614, 615), (616, 620), (621, 629), (629, 630)]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>[295, 192, 1459, 1454, 690, 49, 977, 1109, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2419,7 +2674,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[1800, 371, 11, 196, 1129, 1091, 444, 101, 1308, 1399, 196, 1270, 1428, 863, 1389, 1086, 1008]</t>
+          <t>[1741, 1926, 595, 886, 759, 1497, 1028, 37, 1116, 690, 886, 286, 773, 407, 274, 187, 1538]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2434,10 +2689,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[1800, 371, 11, 196, 1129, 1091, 444, 101, 1308, 1399, 196, 1270, 1428, 863, 1389, 1086, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(632, 637), (638, 642), (643, 647), (648, 650), (651, 657), (658, 660), (661, 664), (665, 670), (671, 677), (678, 681), (682, 684), (685, 691), (691, 692), (693, 699), (700, 702), (703, 707), (707, 708)]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
+        <is>
+          <t>[1741, 1926, 595, 886, 759, 1497, 1028, 37, 1116, 690, 886, 286, 773, 407, 274, 187, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2459,7 +2719,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1391, 1099, 1125, 1315, 1420, 259, 701, 1938, 1428, 694, 1096, 1666, 173, 1091, 1264, 845, 754, 318, 13, 669, 1585, 1428, 1573, 1428, 1399, 164, 1249, 1091, 1362, 844, 1372, 1190, 1428, 1585, 1428, 1399, 164, 192, 1420, 1574, 845, 1091, 1193, 1420, 654, 845, 1890, 675, 127, 1420, 1574, 845, 131, 1399, 1805, 1331, 354, 602, 436, 1261, 1890, 758, 1691, 76, 1890, 1625, 1835, 1420, 276, 10, 794, 1835, 845, 1919, 242, 1420, 1091, 505, 1091, 1362, 845, 1890, 1350, 782, 806, 1716, 1319, 844, 1438, 1569, 344, 1179, 561, 1064, 1762, 1785, 1403, 1189, 1340, 606, 903, 1403, 1189, 561, 507, 325, 1403, 1189, 561, 148, 185, 1403, 1189, 308, 1216, 880, 1403, 1189, 561, 1360, 28, 1687, 1024, 1189, 1603, 332, 1165, 1087, 1189, 1263, 1025, 1359, 1403, 1189, 400, 1322, 1705, 15, 868, 29, 1428, 996, 1428, 88, 881, 1428, 1309, 1428, 747, 1428, 452, 1428, 1075, 1428, 1259, 1428, 1112, 1428, 1457, 1428, 1390, 1117, 1428, 1139, 1428, 1389, 1086, 1008]</t>
+          <t>[161, 625, 1337, 937, 1282, 440, 1771, 159, 773, 335, 801, 1023, 1868, 1497, 718, 1431, 837, 1223, 191, 631, 509, 773, 484, 773, 690, 880, 1850, 1497, 31, 566, 838, 378, 773, 509, 773, 690, 880, 1328, 1282, 855, 1431, 1497, 75, 1282, 600, 1431, 531, 596, 1378, 1282, 855, 1431, 1563, 690, 1274, 99, 1603, 453, 11, 122, 531, 1363, 1577, 1353, 531, 1169, 1769, 1282, 43, 885, 913, 1769, 1431, 1502, 646, 1282, 1497, 1076, 1497, 31, 1431, 531, 81, 1787, 1610, 1419, 492, 566, 910, 410, 1609, 1864, 270, 1179, 941, 56, 951, 257, 725, 1057, 874, 951, 257, 270, 1118, 1103, 951, 257, 270, 1294, 1013, 951, 257, 1200, 1398, 1472, 951, 257, 270, 189, 95, 807, 1586, 257, 1661, 218, 50, 167, 257, 1428, 1132, 579, 951, 257, 1296, 1464, 736, 258, 349, 1592, 773, 1891, 773, 1292, 973, 773, 540, 773, 1845, 773, 675, 773, 539, 773, 1694, 773, 1165, 773, 662, 773, 636, 965, 773, 851, 773, 274, 187, 1538]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2469,17 +2729,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 13, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[1391, 1099, 1125, 1315, 1420, 259, 701, 1938, 1428, 694, 1096, 1666, 173, 1091, 1264, 845, 754, 318, 13, 669, 1585, 1428, 1573, 1428, 1399, 164, 1249, 1091, 1362, 844, 1372, 1190, 1428, 1585, 1428, 1399, 164, 192, 1420, 1574, 845, 1091, 1193, 1420, 654, 845, 1890, 675, 127, 1420, 1574, 845, 131, 1399, 1805, 1331, 354, 602, 436, 1261, 1890, 758, 1691, 76, 1890, 1625, 1835, 1420, 276, 10, 794, 1835, 845, 1919, 242, 1420, 1091, 505, 1091, 1362, 845, 1890, 1350, 782, 806, 1716, 1319, 844, 1438, 1569, 344, 1179, 561, 1064, 1762, 1785, 1403, 1189, 1340, 606, 903, 1403, 1189, 561, 507, 325, 1403, 1189, 561, 148, 185, 1403, 1189, 308, 1216, 880, 1403, 1189, 561, 1360, 28, 1687, 1024, 1189, 1603, 332, 1165, 1087, 1189, 1263, 1025, 1359, 1403, 1189, 400, 1322, 1705, 15, 868, 29, 1428, 996, 1428, 88, 881, 1428, 1309, 1428, 747, 1428, 452, 1428, 1075, 1428, 1259, 1428, 1112, 1428, 1457, 1428, 1390, 1117, 1428, 1139, 1428, 1389, 1086, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(710, 714), (715, 722), (723, 730), (733, 738), (739, 740), (740, 742), (743, 747), (748, 751), (751, 752), (753, 757), (758, 761), (762, 763), (764, 767), (768, 770), (771, 775), (775, 776), (778, 782), (784, 799), (801, 805), (806, 807), (808, 812), (812, 813), (814, 818), (818, 819), (820, 823), (824, 828), (829, 832), (833, 835), (836, 840), (840, 841), (842, 845), (846, 850), (850, 851), (852, 856), (856, 857), (858, 861), (862, 866), (867, 869), (870, 871), (871, 872), (872, 873), (874, 876), (877, 883), (884, 885), (886, 894), (895, 896), (898, 902), (903, 905), (906, 912), (913, 914), (914, 915), (915, 916), (917, 921), (922, 925), (926, 930), (931, 934), (935, 941), (942, 949), (951, 956), (958, 961), (963, 967), (968, 975), (976, 977), (978, 988), (990, 994), (995, 1002), (1003, 1006), (1007, 1008), (1008, 1017), (1018, 1021), (1022, 1029), (1030, 1033), (1033, 1034), (1036, 1038), (1039, 1042), (1043, 1044), (1044, 1046), (1047, 1058), (1059, 1061), (1062, 1066), (1066, 1067), (1069, 1073), (1074, 1081), (1083, 1089), (1090, 1101), (1103, 1116), (1117, 1123), (1123, 1124), (1125, 1128), (1128, 1129), (1130, 1133), (1134, 1142), (1143, 1148), (1150, 1159), (1160, 1173), (1174, 1177), (1178, 1180), (1181, 1183), (1184, 1187), (1189, 1199), (1200, 1202), (1203, 1205), (1206, 1208), (1209, 1214), (1216, 1224), (1225, 1227), (1228, 1230), (1231, 1233), (1234, 1239), (1241, 1247), (1248, 1249), (1250, 1252), (1253, 1255), (1256, 1259), (1261, 1268), (1269, 1271), (1272, 1274), (1275, 1277), (1278, 1283), (1285, 1293), (1294, 1301), (1302, 1311), (1312, 1319), (1320, 1322), (1323, 1326), (1327, 1330), (1332, 1334), (1335, 1341), (1342, 1344), (1345, 1349), (1351, 1362), (1363, 1365), (1366, 1368), (1369, 1371), (1372, 1375), (1377, 1383), (1384, 1386), (1387, 1394), (1397, 1403), (1404, 1409), (1409, 1410), (1411, 1416), (1416, 1417), (1418, 1423), (1424, 1430), (1430, 1431), (1432, 1440), (1440, 1441), (1442, 1445), (1445, 1446), (1447, 1452), (1452, 1453), (1454, 1462), (1462, 1463), (1464, 1470), (1470, 1471), (1472, 1480), (1480, 1481), (1482, 1490), (1490, 1491), (1492, 1501), (1502, 1506), (1506, 1507), (1508, 1520), (1520, 1521), (1522, 1524), (1525, 1529), (1529, 1530)]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 8, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 5, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[161, 625, 1337, 937, 1282, 440, 1771, 159, 773, 335, 801, 1023, 1868, 1497, 718, 1431, 837, 1223, 191, 631, 509, 773, 484, 773, 690, 880, 1850, 1497, 31, 566, 838, 378, 773, 509, 773, 690, 880, 1328, 1282, 855, 1431, 1497, 75, 1282, 600, 1431, 531, 596, 1378, 1282, 855, 1431, 1563, 690, 1274, 99, 1603, 453, 11, 122, 531, 1363, 1577, 1353, 531, 1169, 1769, 1282, 43, 885, 913, 1769, 1431, 1502, 646, 1282, 1497, 1076, 1497, 31, 1431, 531, 81, 1787, 1610, 1419, 492, 566, 910, 410, 1609, 1864, 270, 1179, 941, 56, 951, 257, 725, 1057, 874, 951, 257, 270, 1118, 1103, 951, 257, 270, 1294, 1013, 951, 257, 1200, 1398, 1472, 951, 257, 270, 189, 95, 807, 1586, 257, 1661, 218, 50, 167, 257, 1428, 1132, 579, 951, 257, 1296, 1464, 736, 258, 349, 1592, 773, 1891, 773, 1292, 973, 773, 540, 773, 1845, 773, 675, 773, 539, 773, 1694, 773, 1165, 773, 662, 773, 636, 965, 773, 851, 773, 274, 187, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 25, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 13, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2764,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[1932, 1213, 1818, 1790, 814, 623, 536, 235, 1469, 891, 791, 684, 826, 1428, 1621, 660, 1008]</t>
+          <t>[1761, 1469, 1889, 1061, 242, 1503, 534, 1416, 401, 19, 1317, 1707, 98, 773, 63, 1299, 1538]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2514,10 +2779,15 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[1932, 1213, 1818, 1790, 814, 623, 536, 235, 1469, 891, 791, 684, 826, 1428, 1621, 660, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1532, 1540), (1541, 1545), (1546, 1551), (1554, 1557), (1558, 1563), (1564, 1572), (1573, 1579), (1582, 1593), (1594, 1598), (1601, 1603), (1604, 1610), (1613, 1616), (1617, 1621), (1621, 1622), (1623, 1634), (1635, 1639), (1637, 1638)]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>[1761, 1469, 1889, 1061, 242, 1503, 534, 1416, 401, 19, 1317, 1707, 98, 773, 63, 1299, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2539,7 +2809,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[1486, 666, 256, 773, 1008]</t>
+          <t>[976, 820, 1082, 1202, 1538]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2554,10 +2824,15 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[1486, 666, 256, 773, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1641, 1648), (1649, 1659), (1662, 1666), (1667, 1676), (1676, 1677)]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
+        <is>
+          <t>[976, 820, 1082, 1202, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2579,7 +2854,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[727, 932, 1086, 1389, 1576, 1008]</t>
+          <t>[1722, 1476, 187, 274, 1251, 1538]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2594,10 +2869,15 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[727, 932, 1086, 1389, 1576, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1678, 1682), (1685, 1687), (1688, 1692), (1693, 1695), (1696, 1704), (1704, 1705)]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>[1722, 1476, 187, 274, 1251, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2619,7 +2899,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[167, 932, 498, 1008]</t>
+          <t>[714, 1476, 1319, 1538]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2634,10 +2914,15 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[167, 932, 498, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1706, 1711), (1714, 1716), (1717, 1723), (1723, 1724)]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
+        <is>
+          <t>[714, 1476, 1319, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2659,7 +2944,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1778, 1897, 1008]</t>
+          <t>[1240, 995, 1538]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2674,10 +2959,15 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[1778, 1897, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1725, 1730), (1733, 1737), (1737, 1738)]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
+        <is>
+          <t>[1240, 995, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2699,7 +2989,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[252, 1477, 1008]</t>
+          <t>[1932, 392, 1538]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2714,10 +3004,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[252, 1477, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1739, 1744), (1747, 1752), (1752, 1753)]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>[1932, 392, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2739,7 +3034,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[464, 247, 1168, 1008]</t>
+          <t>[1663, 175, 1712, 1538]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2754,10 +3049,15 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[464, 247, 1168, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1754, 1757), (1760, 1766), (1767, 1770), (1770, 1771)]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>[1663, 175, 1712, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2779,7 +3079,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1239, 1469, 1399, 1202, 1428, 1908, 341, 514, 1225, 1285, 1583, 1008]</t>
+          <t>[438, 401, 690, 1883, 773, 1144, 1279, 1807, 1518, 1576, 864, 1538]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2794,10 +3094,15 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[1239, 1469, 1399, 1202, 1428, 1908, 341, 514, 1225, 1285, 1583, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1773, 1780), (1781, 1785), (1786, 1789), (1790, 1796), (1796, 1797), (1798, 1801), (1802, 1810), (1811, 1819), (1820, 1826), (1827, 1829), (1830, 1839), (1839, 1840)]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>[438, 401, 690, 1883, 773, 1144, 1279, 1807, 1518, 1576, 864, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2819,7 +3124,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[932, 859, 1428, 1188, 1389, 353, 1008]</t>
+          <t>[1476, 739, 773, 1335, 274, 942, 1538]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2834,10 +3139,15 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[932, 859, 1428, 1188, 1389, 353, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1842, 1844), (1845, 1848), (1848, 1849), (1850, 1856), (1857, 1859), (1860, 1865), (1865, 1866)]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
+        <is>
+          <t>[1476, 739, 773, 1335, 274, 942, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2859,7 +3169,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[401, 1283, 1471, 1504, 1428, 1298, 1389, 729, 1008]</t>
+          <t>[594, 522, 1708, 1666, 773, 328, 274, 705, 1538]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2874,10 +3184,15 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[401, 1283, 1471, 1504, 1428, 1298, 1389, 729, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1867, 1874), (1877, 1881), (1882, 1889), (1890, 1908), (1908, 1909), (1910, 1914), (1915, 1917), (1918, 1925), (1925, 1926)]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>[594, 522, 1708, 1666, 773, 328, 274, 705, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2899,7 +3214,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[32, 1717, 1800, 1285, 770, 1526, 1900, 1091, 1863, 254, 720, 1485, 1091, 444, 1222, 626, 1008]</t>
+          <t>[246, 178, 1741, 1576, 1570, 1021, 797, 1497, 1516, 210, 1473, 227, 1497, 1028, 569, 469, 1538]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2914,10 +3229,15 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[32, 1717, 1800, 1285, 770, 1526, 1900, 1091, 1863, 254, 720, 1485, 1091, 444, 1222, 626, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1927, 1931), (1932, 1936), (1939, 1944), (1945, 1947), (1948, 1952), (1953, 1963), (1964, 1974), (1975, 1977), (1978, 1981), (1982, 1986), (1987, 1997), (1998, 2004), (2005, 2007), (2008, 2011), (2012, 2017), (2018, 2022), (2022, 2023)]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>[246, 178, 1741, 1576, 1570, 1021, 797, 1497, 1516, 210, 1473, 227, 1497, 1028, 569, 469, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2939,7 +3259,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[1779, 1066, 1586, 1476, 1428, 678, 960, 1428, 1443, 121, 1428, 795, 1226, 1428, 1738, 1733, 1008]</t>
+          <t>[1261, 1557, 428, 1262, 773, 145, 376, 773, 1222, 668, 773, 1156, 711, 773, 1738, 998, 1538]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2954,10 +3274,15 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[1779, 1066, 1586, 1476, 1428, 678, 960, 1428, 1443, 121, 1428, 795, 1226, 1428, 1738, 1733, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2025, 2033), (2034, 2040), (2041, 2045), (2048, 2055), (2055, 2056), (2057, 2063), (2064, 2067), (2067, 2068), (2069, 2079), (2080, 2083), (2083, 2084), (2085, 2092), (2093, 2096), (2096, 2097), (2098, 2105), (2106, 2109), (2107, 2108)]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>[1261, 1557, 428, 1262, 773, 145, 376, 773, 1222, 668, 773, 1156, 711, 773, 1738, 998, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -2979,7 +3304,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[362, 1422, 1428, 1783, 1536, 1399, 1832, 1560, 1793, 1222, 937, 1091, 1863, 1595, 1008]</t>
+          <t>[111, 812, 773, 1756, 543, 690, 1301, 1645, 139, 569, 419, 1497, 1516, 1101, 1538]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2994,10 +3319,15 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[362, 1422, 1428, 1783, 1536, 1399, 1832, 1560, 1793, 1222, 937, 1091, 1863, 1595, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2111, 2115), (2116, 2118), (2118, 2119), (2120, 2124), (2125, 2127), (2128, 2131), (2132, 2137), (2138, 2141), (2142, 2146), (2147, 2152), (2153, 2157), (2158, 2160), (2161, 2164), (2165, 2173), (2173, 2174)]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>[111, 812, 773, 1756, 543, 690, 1301, 1645, 139, 569, 419, 1497, 1516, 1101, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3019,7 +3349,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[568, 1730, 1428, 1494, 1085, 1008]</t>
+          <t>[271, 119, 773, 1659, 367, 1538]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3034,10 +3364,15 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[568, 1730, 1428, 1494, 1085, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2175, 2179), (2180, 2182), (2182, 2183), (2184, 2188), (2189, 2192), (2192, 2193)]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
+        <is>
+          <t>[271, 119, 773, 1659, 367, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3059,7 +3394,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[965, 1209, 1428, 630, 1425, 862, 3, 185, 1428, 19, 1660, 1008]</t>
+          <t>[1618, 1449, 773, 252, 1369, 777, 1614, 1013, 773, 974, 1033, 1538]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3074,10 +3409,15 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[965, 1209, 1428, 630, 1425, 862, 3, 185, 1428, 19, 1660, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2194, 2204), (2205, 2207), (2207, 2208), (2209, 2214), (2215, 2220), (2221, 2225), (2226, 2231), (2232, 2233), (2233, 2234), (2235, 2244), (2245, 2252), (2252, 2253)]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
+        <is>
+          <t>[1618, 1449, 773, 252, 1369, 777, 1614, 1013, 773, 974, 1033, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3099,7 +3439,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1022, 1425, 679, 1581, 1091, 1863, 1595, 1428, 534, 230, 602, 1008]</t>
+          <t>[904, 1369, 154, 1662, 1497, 1516, 1101, 773, 852, 126, 453, 1538]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3114,10 +3454,15 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[1022, 1425, 679, 1581, 1091, 1863, 1595, 1428, 534, 230, 602, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2254, 2262), (2263, 2268), (2269, 2277), (2278, 2283), (2284, 2286), (2287, 2290), (2291, 2299), (2299, 2300), (2301, 2311), (2312, 2314), (2315, 2322), (2322, 2323)]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
+        <is>
+          <t>[904, 1369, 154, 1662, 1497, 1516, 1101, 773, 852, 126, 453, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3139,7 +3484,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[284, 1399, 893, 1008]</t>
+          <t>[323, 690, 277, 1538]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3154,10 +3499,15 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[284, 1399, 893, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2325, 2335), (2336, 2339), (2340, 2344), (2347, 2348)]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
+        <is>
+          <t>[323, 690, 277, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3179,7 +3529,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1602, 1905, 1198, 1399, 1133, 1074, 386, 1008]</t>
+          <t>[891, 1597, 351, 690, 947, 408, 93, 1538]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3194,10 +3544,15 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[1602, 1905, 1198, 1399, 1133, 1074, 386, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2350, 2358), (2359, 2363), (2364, 2375), (2376, 2379), (2380, 2388), (2389, 2392), (2393, 2404), (2404, 2405)]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
+        <is>
+          <t>[891, 1597, 351, 690, 947, 408, 93, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3219,7 +3574,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[585, 1206, 1905, 1873, 909, 360, 1091, 1304, 578, 1008]</t>
+          <t>[927, 926, 1597, 719, 1366, 1258, 1497, 770, 523, 1538]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3229,17 +3584,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 4, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 2, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[585, 1206, 1905, 1873, 909, 360, 1091, 1304, 578, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2407, 2413), (2414, 2416), (2417, 2421), (2422, 2425), (2426, 2433), (2434, 2438), (2436, 2438), (2442, 2445), (2446, 2451), (2451, 2452)]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 4, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[927, 926, 1597, 719, 1366, 1258, 1497, 770, 523, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3619,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[255, 681, 1409, 1399, 1931, 1581, 1431, 1008]</t>
+          <t>[572, 907, 1017, 690, 788, 1662, 1834, 1538]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3274,10 +3634,15 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[255, 681, 1409, 1399, 1931, 1581, 1431, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2454, 2459), (2460, 2468), (2469, 2473), (2474, 2477), (2478, 2481), (2482, 2487), (2488, 2493), (2493, 2494)]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>[572, 907, 1017, 690, 788, 1662, 1834, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3299,7 +3664,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[850, 1448, 1705, 652, 1008]</t>
+          <t>[1711, 1318, 736, 313, 1538]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3314,10 +3679,15 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[850, 1448, 1705, 652, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2496, 2499), (2500, 2509), (2510, 2512), (2513, 2525), (2525, 2526)]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
+        <is>
+          <t>[1711, 1318, 736, 313, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3339,7 +3709,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[1280, 1458, 602, 387, 1079, 982, 917, 1008]</t>
+          <t>[944, 238, 453, 1822, 727, 233, 1396, 1538]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3354,10 +3724,15 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[1280, 1458, 602, 387, 1079, 982, 917, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2528, 2530), (2531, 2541), (2542, 2549), (2550, 2552), (2553, 2555), (2556, 2559), (2560, 2566), (2566, 2567)]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>[944, 238, 453, 1822, 727, 233, 1396, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3379,7 +3754,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[217, 1569, 344, 578, 1008]</t>
+          <t>[822, 410, 1609, 523, 1538]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3394,10 +3769,15 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[217, 1569, 344, 578, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2569, 2577), (2577, 2578), (2580, 2583), (2584, 2589), (2589, 2590)]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>[822, 410, 1609, 523, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3419,7 +3799,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[802, 1185, 1428, 1395, 471, 1914, 1060, 802, 1185, 1428, 1395, 59, 797, 1569, 532]</t>
+          <t>[486, 698, 773, 1596, 1139, 1830, 609, 486, 698, 773, 1596, 1190, 577, 410, 1803]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3429,17 +3809,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[4, 13, 1, 1, 1, 1, 1, 4, 13, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 16, 1, 1, 1, 1, 1, 2, 16, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[802, 1185, 1428, 1395, 471, 1914, 1060, 802, 1185, 1428, 1395, 59, 797, 1569, 532, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2592, 2596), (2597, 2602), (2602, 2603), (2604, 2606), (2608, 2614), (2615, 2629), (2630, 2632), (2634, 2638), (2639, 2644), (2644, 2645), (2646, 2648), (2649, 2657), (2658, 2664), (2664, 2665), (2666, 2671)]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[4, 13, 1, 1, 1, 1, 1, 4, 13, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[486, 698, 773, 1596, 1139, 1830, 609, 486, 698, 773, 1596, 1190, 577, 410, 1803, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[2, 16, 1, 1, 1, 1, 1, 2, 16, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3844,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 533, 818, 427, 1927, 1650, 112, 1776, 1065, 1074, 1398, 621, 404, 1705, 141, 150, 1354, 1511, 1600, 511, 1091, 701, 1037, 1905, 561, 29, 1228, 1712, 917, 1905, 1841, 626, 1117, 1228, 105, 1381, 1428, 1310, 1037, 761, 1399, 857, 387, 371, 1545, 1797, 1224, 1610, 725, 1854, 1905, 621, 1428, 1708, 1833, 1905, 444, 1019, 1766, 387, 1672, 777, 4, 1399, 444, 1808, 29, 1008]</t>
+          <t>[330, 871, 410, 1611, 720, 708, 1032, 108, 552, 1734, 1907, 408, 1900, 123, 1199, 736, 377, 1743, 562, 1605, 1247, 1604, 1497, 1771, 1770, 1597, 270, 1592, 1324, 1136, 1396, 1597, 1168, 469, 965, 1324, 118, 355, 773, 1442, 1770, 1053, 690, 1330, 1822, 1926, 1425, 1188, 1087, 1911, 1933, 1535, 1597, 123, 773, 193, 602, 1597, 1028, 832, 1716, 1822, 643, 94, 970, 690, 1028, 217, 1592, 1538]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3469,17 +3854,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 12, 7, 7, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 25, 1, 1, 1, 9, 23, 23, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 533, 818, 427, 1927, 1650, 112, 1776, 1065, 1074, 1398, 621, 404, 1705, 141, 150, 1354, 1511, 1600, 511, 1091, 701, 1037, 1905, 561, 29, 1228, 1712, 917, 1905, 1841, 626, 1117, 1228, 105, 1381, 1428, 1310, 1037, 761, 1399, 857, 387, 371, 1545, 1797, 1224, 1610, 725, 1854, 1905, 621, 1428, 1708, 1833, 1905, 444, 1019, 1766, 387, 1672, 777, 4, 1399, 444, 1808, 29, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3, 9), (10, 14), (14, 15), (16, 26), (30, 40), (41, 48), (49, 59), (60, 66), (67, 74), (75, 81), (83, 89), (90, 93), (94, 99), (102, 113), (115, 122), (123, 125), (126, 133), (134, 141), (144, 149), (150, 151), (152, 155), (156, 165), (166, 168), (169, 173), (174, 177), (178, 182), (183, 188), (189, 194), (195, 196), (197, 200), (201, 207), (208, 212), (213, 216), (217, 221), (222, 226), (227, 228), (229, 230), (231, 236), (236, 237), (238, 246), (247, 250), (251, 253), (254, 257), (258, 263), (264, 266), (267, 271), (272, 277), (278, 282), (283, 291), (292, 295), (296, 306), (307, 317), (318, 322), (323, 334), (334, 335), (336, 341), (342, 346), (347, 351), (352, 355), (356, 369), (370, 378), (379, 381), (382, 395), (396, 402), (403, 407), (408, 411), (412, 415), (416, 425), (426, 431), (431, 432)]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 12, 7, 7, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[330, 871, 410, 1611, 720, 708, 1032, 108, 552, 1734, 1907, 408, 1900, 123, 1199, 736, 377, 1743, 562, 1605, 1247, 1604, 1497, 1771, 1770, 1597, 270, 1592, 1324, 1136, 1396, 1597, 1168, 469, 965, 1324, 118, 355, 773, 1442, 1770, 1053, 690, 1330, 1822, 1926, 1425, 1188, 1087, 1911, 1933, 1535, 1597, 123, 773, 193, 602, 1597, 1028, 832, 1716, 1822, 643, 94, 970, 690, 1028, 217, 1592, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 1, 1, 9, 23, 23, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3889,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[1800, 1119, 1753, 1780, 1074, 1811, 1428, 1253, 282, 1822, 1173, 1074, 555, 1344, 1905, 466, 1224, 1027, 1008]</t>
+          <t>[1741, 477, 1550, 817, 408, 1135, 773, 1456, 1485, 716, 204, 408, 1613, 1153, 1597, 495, 1087, 695, 1538]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3514,10 +3904,15 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[1800, 1119, 1753, 1780, 1074, 1811, 1428, 1253, 282, 1822, 1173, 1074, 555, 1344, 1905, 466, 1224, 1027, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(433, 438), (439, 442), (443, 450), (451, 458), (459, 462), (463, 465), (465, 466), (467, 470), (471, 474), (475, 480), (481, 484), (485, 488), (489, 498), (499, 501), (502, 506), (507, 508), (509, 517), (518, 524), (524, 525)]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
+        <is>
+          <t>[1741, 477, 1550, 817, 408, 1135, 773, 1456, 1485, 716, 204, 408, 1613, 1153, 1597, 495, 1087, 695, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3539,7 +3934,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[242, 1126, 1008]</t>
+          <t>[646, 1295, 1538]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3554,10 +3949,15 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[242, 1126, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(526, 529), (530, 538), (538, 539)]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>[646, 1295, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3579,7 +3979,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[153, 1046, 1050, 136, 1705, 444, 47, 1706, 1119, 897, 237, 194, 1593, 1649, 1905, 333, 367, 1636, 1008]</t>
+          <t>[295, 138, 1108, 1483, 736, 1028, 1231, 1176, 477, 445, 1044, 1523, 338, 221, 1597, 754, 749, 802, 1538]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3594,10 +3994,15 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[153, 1046, 1050, 136, 1705, 444, 47, 1706, 1119, 897, 237, 194, 1593, 1649, 1905, 333, 367, 1636, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(542, 545), (546, 549), (550, 552), (553, 556), (557, 559), (560, 563), (564, 569), (570, 574), (575, 578), (579, 588), (589, 593), (594, 596), (597, 602), (603, 625), (626, 630), (631, 636), (637, 647), (648, 656), (657, 658)]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>[295, 138, 1108, 1483, 736, 1028, 1231, 1176, 477, 445, 1044, 1523, 338, 221, 1597, 754, 749, 802, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3619,7 +4024,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[1498, 1558, 637, 1706, 128, 744, 1157, 582, 1129, 1905, 196, 380, 1705, 182, 1428, 1905, 268, 1706, 670, 458, 48, 1887, 1285, 732, 50, 1008]</t>
+          <t>[1879, 866, 914, 1176, 25, 700, 1828, 781, 759, 1597, 886, 857, 736, 1630, 773, 1597, 356, 1176, 49, 1066, 194, 1141, 1576, 1306, 839, 1538]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3634,10 +4039,15 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[1498, 1558, 637, 1706, 128, 744, 1157, 582, 1129, 1905, 196, 380, 1705, 182, 1428, 1905, 268, 1706, 670, 458, 48, 1887, 1285, 732, 50, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(659, 662), (663, 675), (676, 680), (681, 685), (686, 690), (691, 699), (700, 711), (712, 724), (725, 731), (732, 736), (737, 739), (740, 748), (749, 751), (752, 761), (761, 762), (763, 767), (768, 779), (780, 784), (782, 783), (787, 792), (793, 804), (805, 815), (816, 818), (819, 826), (827, 837), (837, 838)]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
+        <is>
+          <t>[1879, 866, 914, 1176, 25, 700, 1828, 781, 759, 1597, 886, 857, 736, 1630, 773, 1597, 356, 1176, 49, 1066, 194, 1141, 1576, 1306, 839, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3659,7 +4069,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[547, 1028, 1571, 670, 690, 230, 1367, 444, 1619, 1008]</t>
+          <t>[100, 400, 4, 49, 1238, 126, 350, 1028, 1005, 1538]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3674,10 +4084,15 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[547, 1028, 1571, 670, 690, 230, 1367, 444, 1619, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(841, 845), (846, 850), (851, 859), (860, 861), (862, 865), (866, 868), (869, 875), (876, 879), (880, 889), (889, 890)]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>[100, 400, 4, 49, 1238, 126, 350, 1028, 1005, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3699,7 +4114,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[153, 1119, 691, 1905, 1857, 1497, 5, 561, 1228, 105, 1381, 1428, 1399, 923, 1198, 712, 403, 1546, 1572, 222, 1133, 315, 403, 1546, 703, 1008]</t>
+          <t>[295, 477, 1106, 1597, 884, 940, 1935, 270, 1324, 118, 355, 773, 690, 551, 351, 336, 846, 810, 460, 1486, 947, 248, 846, 810, 888, 1538]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3714,10 +4129,15 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[153, 1119, 691, 1905, 1857, 1497, 5, 561, 1228, 105, 1381, 1428, 1399, 923, 1198, 712, 403, 1546, 1572, 222, 1133, 315, 403, 1546, 703, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(893, 896), (897, 900), (901, 908), (909, 913), (914, 926), (927, 929), (930, 931), (932, 937), (938, 939), (940, 941), (942, 947), (947, 948), (948, 951), (952, 962), (963, 974), (975, 978), (979, 981), (982, 984), (985, 988), (989, 993), (994, 1002), (1003, 1006), (1007, 1009), (1010, 1012), (1013, 1016), (1016, 1017)]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
+        <is>
+          <t>[295, 477, 1106, 1597, 884, 940, 1935, 270, 1324, 118, 355, 773, 690, 551, 351, 336, 846, 810, 460, 1486, 947, 248, 846, 810, 888, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3739,7 +4159,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[153, 1119, 1743, 1091, 1071, 349, 230, 370, 1428, 521, 1428, 1375, 1428, 1399, 1431, 1420, 1402, 845, 1008]</t>
+          <t>[295, 477, 1790, 1497, 696, 524, 126, 79, 773, 317, 773, 1714, 773, 690, 1834, 1282, 7, 1431, 1538]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3754,10 +4174,15 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[153, 1119, 1743, 1091, 1071, 349, 230, 370, 1428, 521, 1428, 1375, 1428, 1399, 1431, 1420, 1402, 845, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1020, 1023), (1024, 1027), (1028, 1032), (1033, 1035), (1036, 1038), (1039, 1045), (1046, 1048), (1049, 1053), (1053, 1054), (1055, 1058), (1058, 1059), (1060, 1064), (1064, 1065), (1066, 1069), (1070, 1075), (1076, 1077), (1077, 1083), (1083, 1084), (1084, 1085)]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
+        <is>
+          <t>[295, 477, 1790, 1497, 696, 524, 126, 79, 773, 317, 773, 1714, 773, 690, 1834, 1282, 7, 1431, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3779,7 +4204,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[153, 730, 96, 1771, 1428, 1399, 1285, 1614, 387, 884, 590, 1471, 1117, 1008]</t>
+          <t>[295, 1459, 1381, 279, 773, 690, 1576, 811, 1822, 1332, 1715, 1708, 965, 1538]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3794,10 +4219,15 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[153, 730, 96, 1771, 1428, 1399, 1285, 1614, 387, 884, 590, 1471, 1117, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1086, 1089), (1090, 1093), (1094, 1102), (1103, 1115), (1115, 1116), (1117, 1120), (1121, 1123), (1124, 1128), (1129, 1131), (1132, 1136), (1137, 1150), (1151, 1158), (1159, 1163), (1163, 1164)]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
+        <is>
+          <t>[295, 1459, 1381, 279, 773, 690, 1576, 811, 1822, 1332, 1715, 1708, 965, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3819,7 +4249,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[153, 730, 196, 1270, 1428, 88, 881, 1428, 791, 771, 1428, 1259, 1428, 1389, 1112, 1008]</t>
+          <t>[295, 1459, 886, 286, 773, 1292, 973, 773, 1317, 432, 773, 1694, 773, 274, 1165, 1538]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3834,10 +4264,15 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[153, 730, 196, 1270, 1428, 88, 881, 1428, 791, 771, 1428, 1259, 1428, 1389, 1112, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1165, 1168), (1169, 1172), (1173, 1175), (1176, 1182), (1182, 1183), (1184, 1189), (1190, 1196), (1196, 1197), (1198, 1204), (1205, 1209), (1209, 1210), (1211, 1217), (1217, 1218), (1219, 1221), (1222, 1230), (1230, 1231)]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>[295, 1459, 886, 286, 773, 1292, 973, 773, 1317, 432, 773, 1694, 773, 274, 1165, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3859,7 +4294,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[658, 1117, 1285, 391, 243, 1554, 169, 1008]</t>
+          <t>[988, 965, 1576, 1514, 633, 1426, 340, 1538]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3874,10 +4309,15 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[658, 1117, 1285, 391, 243, 1554, 169, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1232, 1235), (1236, 1240), (1241, 1243), (1244, 1248), (1249, 1259), (1260, 1267), (1268, 1279), (1279, 1280)]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
+        <is>
+          <t>[988, 965, 1576, 1514, 633, 1426, 340, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3899,7 +4339,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[1391, 1099, 1125, 1315, 1420, 259, 701, 1938, 1428, 694, 1096, 1666, 173, 1091, 1264, 845, 754, 318, 13, 669, 1585, 1428, 1573, 1428, 1399, 164, 1249, 1091, 1362, 844, 1372, 1190, 1428, 1585, 1428, 1399, 164, 192, 1420, 1574, 845, 1091, 1193, 1420, 654, 845, 1890, 675, 127, 1420, 1574, 845, 131, 1399, 1805, 1331, 354, 602, 436, 1261, 1890, 758, 1691, 76, 1890, 1625, 1835, 1420, 276, 10, 794, 1835, 845, 1919, 242, 1420, 1091, 505, 1091, 1362, 845, 1890, 1350, 87, 1125, 932, 246, 1428, 890, 1428, 286, 1008]</t>
+          <t>[161, 625, 1337, 937, 1282, 440, 1771, 159, 773, 335, 801, 1023, 1868, 1497, 718, 1431, 837, 1223, 191, 631, 509, 773, 484, 773, 690, 880, 1850, 1497, 31, 566, 838, 378, 773, 509, 773, 690, 880, 1328, 1282, 855, 1431, 1497, 75, 1282, 600, 1431, 531, 596, 1378, 1282, 855, 1431, 1563, 690, 1274, 99, 1603, 453, 11, 122, 531, 1363, 1577, 1353, 531, 1169, 1769, 1282, 43, 885, 913, 1769, 1431, 1502, 646, 1282, 1497, 1076, 1497, 31, 1431, 531, 81, 1506, 1337, 1476, 1871, 773, 842, 773, 782, 1538]</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3914,10 +4354,15 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[1391, 1099, 1125, 1315, 1420, 259, 701, 1938, 1428, 694, 1096, 1666, 173, 1091, 1264, 845, 754, 318, 13, 669, 1585, 1428, 1573, 1428, 1399, 164, 1249, 1091, 1362, 844, 1372, 1190, 1428, 1585, 1428, 1399, 164, 192, 1420, 1574, 845, 1091, 1193, 1420, 654, 845, 1890, 675, 127, 1420, 1574, 845, 131, 1399, 1805, 1331, 354, 602, 436, 1261, 1890, 758, 1691, 76, 1890, 1625, 1835, 1420, 276, 10, 794, 1835, 845, 1919, 242, 1420, 1091, 505, 1091, 1362, 845, 1890, 1350, 87, 1125, 932, 246, 1428, 890, 1428, 286, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1282, 1286), (1287, 1294), (1295, 1302), (1305, 1310), (1311, 1312), (1312, 1314), (1315, 1319), (1320, 1323), (1323, 1324), (1325, 1329), (1330, 1333), (1334, 1335), (1336, 1339), (1340, 1342), (1343, 1347), (1347, 1348), (1350, 1354), (1356, 1371), (1373, 1377), (1378, 1379), (1380, 1384), (1384, 1385), (1386, 1390), (1390, 1391), (1392, 1395), (1396, 1400), (1401, 1404), (1405, 1407), (1408, 1412), (1412, 1413), (1414, 1417), (1418, 1422), (1422, 1423), (1424, 1428), (1428, 1429), (1430, 1433), (1434, 1438), (1439, 1441), (1442, 1443), (1443, 1444), (1444, 1445), (1446, 1448), (1449, 1455), (1456, 1457), (1458, 1466), (1467, 1468), (1470, 1474), (1475, 1477), (1478, 1484), (1485, 1486), (1486, 1487), (1487, 1488), (1489, 1493), (1494, 1497), (1498, 1502), (1503, 1506), (1507, 1513), (1514, 1521), (1523, 1528), (1530, 1533), (1535, 1539), (1540, 1547), (1548, 1549), (1550, 1560), (1562, 1566), (1567, 1574), (1575, 1578), (1579, 1580), (1580, 1589), (1590, 1593), (1594, 1601), (1602, 1605), (1605, 1606), (1608, 1610), (1611, 1614), (1615, 1616), (1616, 1618), (1619, 1630), (1631, 1633), (1634, 1638), (1638, 1639), (1641, 1645), (1646, 1653), (1655, 1661), (1662, 1669), (1672, 1674), (1675, 1682), (1682, 1683), (1684, 1688), (1688, 1689), (1690, 1698), (1698, 1699)]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
+        <is>
+          <t>[161, 625, 1337, 937, 1282, 440, 1771, 159, 773, 335, 801, 1023, 1868, 1497, 718, 1431, 837, 1223, 191, 631, 509, 773, 484, 773, 690, 880, 1850, 1497, 31, 566, 838, 378, 773, 509, 773, 690, 880, 1328, 1282, 855, 1431, 1497, 75, 1282, 600, 1431, 531, 596, 1378, 1282, 855, 1431, 1563, 690, 1274, 99, 1603, 453, 11, 122, 531, 1363, 1577, 1353, 531, 1169, 1769, 1282, 43, 885, 913, 1769, 1431, 1502, 646, 1282, 1497, 1076, 1497, 31, 1431, 531, 81, 1506, 1337, 1476, 1871, 773, 842, 773, 782, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3939,7 +4384,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[668, 984, 1905, 1363, 1091, 1316, 1775, 1008]</t>
+          <t>[1658, 1062, 1597, 1587, 1497, 859, 1213, 1538]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3954,10 +4399,15 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[668, 984, 1905, 1363, 1091, 1316, 1775, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1700, 1709), (1710, 1716), (1717, 1721), (1722, 1730), (1731, 1733), (1734, 1739), (1740, 1746), (1746, 1747)]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
+        <is>
+          <t>[1658, 1062, 1597, 1587, 1497, 859, 1213, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -3979,7 +4429,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[932, 1166, 1008]</t>
+          <t>[1476, 68, 1538]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3994,10 +4444,15 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[932, 1166, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1748, 1750), (1751, 1755), (1755, 1756)]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
+        <is>
+          <t>[1476, 68, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4019,7 +4474,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[932, 1176, 629, 411, 1008]</t>
+          <t>[1476, 1285, 553, 1204, 1538]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4034,10 +4489,15 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[932, 1176, 629, 411, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1757, 1759), (1760, 1765), (1766, 1770), (1771, 1779), (1779, 1780)]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
+        <is>
+          <t>[1476, 1285, 553, 1204, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4059,7 +4519,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[236, 387, 638, 1415, 1569, 932, 469, 638, 439, 1563, 1569, 1338, 1447, 260, 1322, 1705, 15, 868, 29, 1428, 996, 1428, 88, 881, 1428, 1309, 1428, 747, 1428, 452, 1428, 1075, 1428, 1259, 1428, 1112, 1428, 1457, 1428, 1390, 1117, 1428, 1139, 1428, 1389, 1086, 1008]</t>
+          <t>[140, 1822, 1089, 1928, 410, 1476, 148, 1089, 1823, 785, 410, 1327, 1736, 606, 1464, 736, 258, 349, 1592, 773, 1891, 773, 1292, 973, 773, 540, 773, 1845, 773, 675, 773, 539, 773, 1694, 773, 1165, 773, 662, 773, 636, 965, 773, 851, 773, 274, 187, 1538]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4074,10 +4534,15 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[236, 387, 638, 1415, 1569, 932, 469, 638, 439, 1563, 1569, 1338, 1447, 260, 1322, 1705, 15, 868, 29, 1428, 996, 1428, 88, 881, 1428, 1309, 1428, 747, 1428, 452, 1428, 1075, 1428, 1259, 1428, 1112, 1428, 1457, 1428, 1390, 1117, 1428, 1139, 1428, 1389, 1086, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1783, 1790), (1791, 1793), (1794, 1803), (1804, 1807), (1807, 1808), (1809, 1811), (1812, 1817), (1818, 1827), (1828, 1829), (1830, 1838), (1838, 1839), (1840, 1841), (1841, 1849), (1849, 1850), (1852, 1858), (1859, 1861), (1862, 1869), (1872, 1878), (1879, 1884), (1884, 1885), (1886, 1891), (1891, 1892), (1893, 1898), (1899, 1905), (1905, 1906), (1907, 1915), (1915, 1916), (1917, 1920), (1920, 1921), (1922, 1927), (1927, 1928), (1929, 1937), (1937, 1938), (1939, 1945), (1945, 1946), (1947, 1955), (1955, 1956), (1957, 1965), (1965, 1966), (1967, 1976), (1977, 1981), (1981, 1982), (1983, 1995), (1995, 1996), (1997, 1999), (2000, 2004), (2004, 2005)]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
+        <is>
+          <t>[140, 1822, 1089, 1928, 410, 1476, 148, 1089, 1823, 785, 410, 1327, 1736, 606, 1464, 736, 258, 349, 1592, 773, 1891, 773, 1292, 973, 773, 540, 773, 1845, 773, 675, 773, 539, 773, 1694, 773, 1165, 773, 662, 773, 636, 965, 773, 851, 773, 274, 187, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4099,7 +4564,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[1932, 1213, 1486, 666, 408, 727, 932, 1098, 167, 932, 108, 139, 1428, 196, 1520, 107, 464, 1876, 541, 1428, 196, 405, 1428, 196, 1252, 805, 1705, 652, 401, 384, 102, 1428, 700, 1428, 932, 108, 819, 1894, 932, 496, 1428, 571, 971, 592, 1863, 991, 32, 1717, 932, 1900, 230, 1863, 1222, 626, 95, 1008]</t>
+          <t>[1761, 1469, 976, 820, 1211, 1722, 1476, 169, 714, 1476, 489, 1447, 773, 886, 1612, 132, 1663, 964, 1657, 773, 886, 1816, 773, 886, 1265, 282, 736, 313, 594, 1524, 684, 773, 291, 773, 1476, 489, 1405, 1045, 1476, 97, 773, 24, 1560, 1849, 1516, 321, 246, 178, 1476, 797, 126, 1516, 569, 469, 1011, 1538]</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4114,10 +4579,15 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[1932, 1213, 1486, 666, 408, 727, 932, 1098, 167, 932, 108, 139, 1428, 196, 1520, 107, 464, 1876, 541, 1428, 196, 405, 1428, 196, 1252, 805, 1705, 652, 401, 384, 102, 1428, 700, 1428, 932, 108, 819, 1894, 932, 496, 1428, 571, 971, 592, 1863, 991, 32, 1717, 932, 1900, 230, 1863, 1222, 626, 95, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2007, 2015), (2016, 2020), (2021, 2028), (2029, 2039), (2042, 2045), (2046, 2050), (2053, 2055), (2056, 2062), (2063, 2068), (2071, 2073), (2074, 2082), (2083, 2085), (2085, 2086), (2087, 2089), (2090, 2094), (2095, 2102), (2103, 2106), (2109, 2111), (2112, 2114), (2114, 2115), (2116, 2118), (2119, 2126), (2126, 2127), (2128, 2130), (2131, 2141), (2142, 2150), (2151, 2153), (2154, 2166), (2167, 2174), (2177, 2180), (2181, 2187), (2187, 2188), (2189, 2192), (2192, 2193), (2194, 2196), (2197, 2205), (2206, 2218), (2219, 2225), (2228, 2230), (2231, 2239), (2239, 2240), (2241, 2245), (2246, 2251), (2252, 2254), (2255, 2258), (2259, 2265), (2266, 2270), (2271, 2275), (2278, 2280), (2281, 2291), (2292, 2294), (2295, 2298), (2299, 2304), (2305, 2309), (2310, 2320), (2320, 2321)]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
+        <is>
+          <t>[1761, 1469, 976, 820, 1211, 1722, 1476, 169, 714, 1476, 489, 1447, 773, 886, 1612, 132, 1663, 964, 1657, 773, 886, 1816, 773, 886, 1265, 282, 736, 313, 594, 1524, 684, 773, 291, 773, 1476, 489, 1405, 1045, 1476, 97, 773, 24, 1560, 1849, 1516, 321, 246, 178, 1476, 797, 126, 1516, 569, 469, 1011, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4139,7 +4609,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[247, 1207, 1008]</t>
+          <t>[175, 436, 1538]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4154,10 +4624,15 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[247, 1207, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2322, 2328), (2329, 2333), (2333, 2334)]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
+        <is>
+          <t>[175, 436, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4179,7 +4654,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[284, 1399, 893, 30, 1333, 1511, 1905, 1232, 1063, 725, 556, 1037, 804, 1805, 1399, 614, 1063, 1649, 592, 1863, 1593, 1437, 1008]</t>
+          <t>[323, 690, 277, 1636, 58, 1605, 1597, 688, 1384, 1933, 290, 1770, 1627, 1274, 690, 1205, 1384, 221, 1849, 1516, 338, 1119, 1538]</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4189,17 +4664,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 20, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 4, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[284, 1399, 893, 30, 1333, 1511, 1905, 1232, 1063, 725, 556, 1037, 804, 1805, 1399, 614, 1063, 1649, 592, 1863, 1593, 1437, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2336, 2346), (2347, 2350), (2351, 2355), (2358, 2360), (2361, 2363), (2364, 2365), (2366, 2370), (2371, 2380), (2381, 2389), (2390, 2400), (2401, 2405), (2406, 2409), (2410, 2415), (2416, 2420), (2421, 2424), (2425, 2433), (2434, 2442), (2443, 2465), (2466, 2468), (2469, 2472), (2473, 2478), (2479, 2484), (2484, 2485)]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 20, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[323, 690, 277, 1636, 58, 1605, 1597, 688, 1384, 1933, 290, 1770, 1627, 1274, 690, 1205, 1384, 221, 1849, 1516, 338, 1119, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 4, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4699,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[153, 511, 1905, 670, 1884, 1705, 1386, 63, 1399, 626, 1117, 1705, 466, 917, 714, 1428, 1399, 730, 96, 1771, 1597, 105, 1381, 1705, 1857, 1497, 1420, 1615, 845, 1428, 1133, 315, 403, 1546, 703, 1428, 1399, 1198, 712, 403, 1546, 1572, 1008]</t>
+          <t>[295, 1604, 1597, 49, 875, 736, 1346, 1124, 690, 469, 965, 736, 495, 1396, 1651, 773, 690, 1459, 1381, 279, 1160, 118, 355, 736, 884, 940, 1282, 425, 1431, 773, 947, 248, 846, 810, 888, 773, 690, 351, 336, 846, 810, 460, 1538]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4234,10 +4714,15 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[153, 511, 1905, 670, 1884, 1705, 1386, 63, 1399, 626, 1117, 1705, 466, 917, 714, 1428, 1399, 730, 96, 1771, 1597, 105, 1381, 1705, 1857, 1497, 1420, 1615, 845, 1428, 1133, 315, 403, 1546, 703, 1428, 1399, 1198, 712, 403, 1546, 1572, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2486, 2489), (2490, 2499), (2500, 2504), (2505, 2506), (2507, 2515), (2516, 2518), (2519, 2533), (2534, 2542), (2543, 2546), (2547, 2551), (2552, 2556), (2557, 2559), (2560, 2561), (2562, 2568), (2569, 2577), (2577, 2578), (2579, 2582), (2583, 2586), (2587, 2595), (2596, 2608), (2609, 2614), (2615, 2616), (2617, 2622), (2623, 2625), (2626, 2638), (2639, 2641), (2642, 2643), (2643, 2652), (2652, 2653), (2653, 2654), (2655, 2663), (2664, 2667), (2668, 2670), (2671, 2673), (2674, 2677), (2677, 2678), (2679, 2682), (2683, 2694), (2695, 2698), (2699, 2701), (2702, 2704), (2705, 2708), (2708, 2709)]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
+        <is>
+          <t>[295, 1604, 1597, 49, 875, 736, 1346, 1124, 690, 469, 965, 736, 495, 1396, 1651, 773, 690, 1459, 1381, 279, 1160, 118, 355, 736, 884, 940, 1282, 425, 1431, 773, 947, 248, 846, 810, 888, 773, 690, 351, 336, 846, 810, 460, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4259,7 +4744,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[658, 554, 78, 230, 951, 1399, 1158, 1079, 265, 1431, 1402, 1597, 1848, 917, 1705, 602, 1008]</t>
+          <t>[988, 1178, 304, 126, 435, 690, 932, 727, 1781, 1834, 7, 1160, 135, 1396, 736, 453, 1538]</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4274,10 +4759,15 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[658, 554, 78, 230, 951, 1399, 1158, 1079, 265, 1431, 1402, 1597, 1848, 917, 1705, 602, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2710, 2713), (2714, 2725), (2726, 2733), (2734, 2736), (2737, 2743), (2744, 2747), (2748, 2752), (2753, 2755), (2756, 2768), (2769, 2774), (2775, 2781), (2782, 2787), (2788, 2789), (2790, 2796), (2797, 2799), (2800, 2807), (2807, 2808)]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
+        <is>
+          <t>[988, 1178, 304, 126, 435, 690, 932, 727, 1781, 1834, 7, 1160, 135, 1396, 736, 453, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4299,7 +4789,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[153, 1119, 484, 1431, 1706, 282, 1285, 387, 180, 1173, 1074, 1387, 1705, 182, 1428, 1708, 459, 1242, 29, 1428, 88, 881, 1428, 791, 771, 1428, 1075, 1428, 1219, 626, 1117, 1428, 1399, 1255, 1008]</t>
+          <t>[295, 477, 575, 1834, 1176, 1485, 1576, 1822, 1215, 204, 408, 1811, 736, 1630, 773, 193, 403, 879, 1592, 773, 1292, 973, 773, 1317, 432, 773, 539, 773, 1404, 469, 965, 773, 690, 1922, 1538]</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4314,10 +4804,15 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[153, 1119, 484, 1431, 1706, 282, 1285, 387, 180, 1173, 1074, 1387, 1705, 182, 1428, 1708, 459, 1242, 29, 1428, 88, 881, 1428, 791, 771, 1428, 1075, 1428, 1219, 626, 1117, 1428, 1399, 1255, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2811, 2814), (2815, 2818), (2819, 2828), (2829, 2834), (2835, 2839), (2840, 2843), (2844, 2846), (2847, 2849), (2850, 2855), (2856, 2859), (2860, 2863), (2864, 2874), (2875, 2877), (2878, 2887), (2887, 2888), (2889, 2894), (2895, 2898), (2899, 2906), (2907, 2912), (2912, 2913), (2914, 2919), (2920, 2926), (2926, 2927), (2928, 2934), (2935, 2939), (2939, 2940), (2941, 2949), (2949, 2950), (2951, 2960), (2961, 2965), (2966, 2970), (2970, 2971), (2972, 2975), (2976, 2983), (2983, 2984)]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
+        <is>
+          <t>[295, 477, 575, 1834, 1176, 1485, 1576, 1822, 1215, 204, 408, 1811, 736, 1630, 773, 193, 403, 879, 1592, 773, 1292, 973, 773, 1317, 432, 773, 539, 773, 1404, 469, 965, 773, 690, 1922, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4339,7 +4834,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[153, 1852, 387, 293, 696, 1925, 128, 846, 1008]</t>
+          <t>[295, 240, 1822, 1673, 564, 608, 25, 1450, 1538]</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4354,10 +4849,15 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[153, 1852, 387, 293, 696, 1925, 128, 846, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2985, 2988), (2989, 2994), (2995, 2997), (2998, 3005), (3006, 3008), (3009, 3015), (3016, 3020), (3021, 3026), (3026, 3027)]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
+        <is>
+          <t>[295, 240, 1822, 1673, 564, 608, 25, 1450, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4379,7 +4879,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[153, 1119, 484, 387, 605, 1492, 1672, 1555, 4, 1008]</t>
+          <t>[295, 477, 575, 1822, 1519, 1009, 643, 1893, 970, 1538]</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4394,10 +4894,15 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[153, 1119, 484, 387, 605, 1492, 1672, 1555, 4, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3030, 3033), (3034, 3037), (3038, 3047), (3048, 3050), (3051, 3054), (3055, 3060), (3061, 3074), (3075, 3080), (3081, 3085), (3085, 3086)]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
+        <is>
+          <t>[295, 477, 575, 1822, 1519, 1009, 643, 1893, 970, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4419,7 +4924,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[1406, 873, 1428, 310, 1028, 1285, 242, 1126, 1569, 282, 730, 1615, 1863, 1048, 185, 917, 1705, 602, 1074, 640, 1811, 1420, 282, 1046, 1848, 917, 845, 194, 1369, 1705, 1863, 24, 1705, 444, 1063, 182, 1008]</t>
+          <t>[260, 1536, 773, 1713, 400, 1576, 646, 1295, 410, 1485, 1459, 425, 1516, 109, 1013, 1396, 736, 453, 408, 1123, 1135, 1282, 1485, 138, 135, 1396, 1431, 1523, 828, 736, 1516, 979, 736, 1028, 1384, 1630, 1538]</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4434,10 +4939,15 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[1406, 873, 1428, 310, 1028, 1285, 242, 1126, 1569, 282, 730, 1615, 1863, 1048, 185, 917, 1705, 602, 1074, 640, 1811, 1420, 282, 1046, 1848, 917, 845, 194, 1369, 1705, 1863, 24, 1705, 444, 1063, 182, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3088, 3090), (3091, 3099), (3099, 3100), (3101, 3104), (3105, 3109), (3110, 3112), (3113, 3116), (3117, 3125), (3125, 3126), (3127, 3130), (3131, 3134), (3135, 3144), (3145, 3148), (3149, 3157), (3158, 3159), (3160, 3166), (3167, 3169), (3170, 3177), (3178, 3181), (3182, 3188), (3189, 3191), (3192, 3193), (3193, 3196), (3197, 3200), (3201, 3202), (3203, 3209), (3209, 3210), (3211, 3213), (3214, 3218), (3219, 3221), (3222, 3225), (3226, 3235), (3236, 3238), (3239, 3242), (3243, 3251), (3252, 3261), (3261, 3262)]</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
+        <is>
+          <t>[260, 1536, 773, 1713, 400, 1576, 646, 1295, 410, 1485, 1459, 425, 1516, 109, 1013, 1396, 736, 453, 408, 1123, 1135, 1282, 1485, 138, 135, 1396, 1431, 1523, 828, 736, 1516, 979, 736, 1028, 1384, 1630, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4459,7 +4969,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[320, 638, 905, 1542, 1028, 1119, 1743, 1399, 1725, 1905, 1873, 909, 1008]</t>
+          <t>[920, 1089, 305, 455, 400, 477, 1790, 690, 1735, 1597, 719, 1366, 1538]</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4474,10 +4984,15 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[320, 638, 905, 1542, 1028, 1119, 1743, 1399, 1725, 1905, 1873, 909, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3265, 3268), (3269, 3278), (3279, 3287), (3291, 3294), (3295, 3299), (3300, 3303), (3304, 3308), (3309, 3312), (3313, 3321), (3322, 3326), (3327, 3330), (3331, 3338), (3338, 3339)]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
+        <is>
+          <t>[920, 1089, 305, 455, 400, 477, 1790, 690, 1735, 1597, 719, 1366, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4499,7 +5014,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[658, 626, 1117, 1428, 1270, 1428, 1399, 791, 771, 371, 1376, 1502, 1008]</t>
+          <t>[988, 469, 965, 773, 286, 773, 690, 1317, 432, 1926, 800, 640, 1538]</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4514,10 +5029,15 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[658, 626, 1117, 1428, 1270, 1428, 1399, 791, 771, 371, 1376, 1502, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3340, 3343), (3344, 3348), (3349, 3353), (3353, 3354), (3355, 3361), (3361, 3362), (3363, 3366), (3367, 3373), (3374, 3378), (3379, 3383), (3384, 3392), (3393, 3401), (3401, 3402)]</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
+        <is>
+          <t>[988, 469, 965, 773, 286, 773, 690, 1317, 432, 1926, 800, 640, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4539,7 +5059,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[153, 730, 52, 982, 917, 1705, 1503, 1399, 1925, 687, 1832, 169, 1008]</t>
+          <t>[295, 1459, 5, 233, 1396, 736, 1531, 690, 608, 645, 1301, 340, 1538]</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4554,10 +5074,15 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[153, 730, 52, 982, 917, 1705, 1503, 1399, 1925, 687, 1832, 169, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3403, 3406), (3407, 3410), (3411, 3419), (3420, 3423), (3424, 3430), (3431, 3433), (3434, 3442), (3443, 3446), (3447, 3453), (3454, 3458), (3459, 3464), (3465, 3476), (3476, 3477)]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
+        <is>
+          <t>[295, 1459, 5, 233, 1396, 736, 1531, 690, 608, 645, 1301, 340, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4579,7 +5104,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[1280, 924, 444, 387, 36, 1074, 1759, 1918, 626, 1117, 1428, 1270, 1428, 1389, 791, 771, 1008]</t>
+          <t>[944, 296, 1028, 1822, 1552, 408, 902, 2, 469, 965, 773, 286, 773, 274, 1317, 432, 1538]</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4594,10 +5119,15 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[1280, 924, 444, 387, 36, 1074, 1759, 1918, 626, 1117, 1428, 1270, 1428, 1389, 791, 771, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3478, 3480), (3481, 3486), (3487, 3490), (3491, 3493), (3494, 3500), (3501, 3504), (3505, 3508), (3509, 3512), (3513, 3517), (3518, 3522), (3522, 3523), (3524, 3530), (3530, 3531), (3532, 3534), (3535, 3541), (3542, 3546), (3546, 3547)]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
+        <is>
+          <t>[944, 296, 1028, 1822, 1552, 408, 902, 2, 469, 965, 773, 286, 773, 274, 1317, 432, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4619,7 +5149,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[802, 1185, 1428, 1395, 1414, 79, 673, 1055, 1569, 625, 751, 1428, 563, 966, 1929, 471, 1914, 1060, 802, 1185, 1428, 1395, 59, 797, 1569, 532]</t>
+          <t>[486, 698, 773, 1596, 26, 1138, 431, 1435, 410, 1924, 682, 773, 1904, 1637, 91, 1139, 1830, 609, 486, 698, 773, 1596, 1190, 577, 410, 1803]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4634,10 +5164,15 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[802, 1185, 1428, 1395, 1414, 79, 673, 1055, 1569, 625, 751, 1428, 563, 966, 1929, 471, 1914, 1060, 802, 1185, 1428, 1395, 59, 797, 1569, 532, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3549, 3553), (3554, 3559), (3559, 3560), (3561, 3563), (3564, 3569), (3570, 3571), (3571, 3576), (3578, 3580), (3580, 3581), (3582, 3590), (3591, 3599), (3599, 3600), (3601, 3604), (3605, 3613), (3614, 3622), (3624, 3630), (3631, 3645), (3646, 3648), (3650, 3654), (3655, 3660), (3660, 3661), (3662, 3664), (3665, 3673), (3674, 3680), (3680, 3681), (3682, 3687)]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
+        <is>
+          <t>[486, 698, 773, 1596, 26, 1138, 431, 1435, 410, 1924, 682, 773, 1904, 1637, 91, 1139, 1830, 609, 486, 698, 773, 1596, 1190, 577, 410, 1803, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4659,7 +5194,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 948, 1693, 481, 1569, 1669, 1428, 1278, 1338, 1677, 1569, 803, 260, 1750, 1705, 1941, 1569, 21, 915, 1074, 377, 1941, 1008]</t>
+          <t>[330, 871, 410, 593, 329, 1278, 410, 1380, 773, 1499, 1327, 1923, 410, 514, 606, 379, 736, 1859, 410, 818, 1221, 408, 993, 1859, 1538]</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4669,17 +5204,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 10, 16, 16, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 25, 1, 1, 1, 15, 19, 19, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 948, 1693, 481, 1569, 1669, 1428, 1278, 1338, 1677, 1569, 803, 260, 1750, 1705, 1941, 1569, 21, 915, 1074, 377, 1941, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3, 9), (10, 14), (14, 15), (16, 26), (83, 90), (91, 95), (95, 96), (97, 103), (103, 104), (104, 111), (112, 113), (114, 117), (117, 118), (119, 130), (131, 132), (191, 195), (196, 198), (199, 204), (204, 205), (206, 215), (218, 222), (223, 226), (227, 233), (234, 239), (239, 240)]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 10, 16, 16, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[330, 871, 410, 593, 329, 1278, 410, 1380, 773, 1499, 1327, 1923, 410, 514, 606, 379, 736, 1859, 410, 818, 1221, 408, 993, 1859, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 1, 1, 15, 19, 19, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -4699,7 +5239,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[153, 637, 391, 1419, 1493, 551, 1008]</t>
+          <t>[295, 914, 1514, 746, 721, 1638, 1538]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4714,10 +5254,15 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[153, 637, 391, 1419, 1493, 551, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(241, 244), (245, 249), (250, 254), (255, 260), (261, 269), (270, 277), (277, 278)]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
+        <is>
+          <t>[295, 914, 1514, 746, 721, 1638, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4739,7 +5284,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[1807, 1706, 444, 1068, 516, 1119, 1751, 1399, 637, 430, 1008]</t>
+          <t>[1732, 1176, 1028, 1214, 858, 477, 905, 690, 914, 567, 1538]</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4754,10 +5299,15 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[1807, 1706, 444, 1068, 516, 1119, 1751, 1399, 637, 430, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(279, 284), (285, 289), (290, 293), (294, 295), (296, 299), (300, 303), (304, 311), (312, 315), (316, 320), (321, 330), (330, 331)]</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
+        <is>
+          <t>[1732, 1176, 1028, 1214, 858, 477, 905, 690, 914, 567, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4779,7 +5329,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[932, 1117, 1389, 29, 1008]</t>
+          <t>[1476, 965, 274, 1592, 1538]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4794,10 +5344,15 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[932, 1117, 1389, 29, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(332, 334), (335, 339), (340, 342), (343, 348), (348, 349)]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
+        <is>
+          <t>[1476, 965, 274, 1592, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4819,7 +5374,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[1792, 387, 1388, 492, 1682, 391, 1253, 788, 592, 1009, 466, 1441, 263, 1399, 825, 1008]</t>
+          <t>[1216, 1822, 73, 1166, 1091, 1514, 1456, 224, 1849, 1220, 495, 86, 729, 690, 1241, 1538]</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4834,10 +5389,15 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[1792, 387, 1388, 492, 1682, 391, 1253, 788, 592, 1009, 466, 1441, 263, 1399, 825, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(350, 354), (355, 357), (358, 361), (362, 369), (370, 380), (381, 385), (386, 389), (390, 395), (396, 398), (399, 404), (405, 406), (407, 409), (410, 415), (416, 419), (420, 429), (429, 430)]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
+        <is>
+          <t>[1216, 1822, 73, 1166, 1091, 1514, 1456, 224, 1849, 1220, 495, 86, 729, 690, 1241, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4859,7 +5419,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1442, 956, 1253, 282, 1866, 825, 1074, 1009, 1050, 146, 1399, 1151, 630, 1823, 1008]</t>
+          <t>[1275, 1115, 1456, 1485, 794, 1241, 408, 1220, 1108, 1672, 690, 1192, 252, 463, 1538]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4874,10 +5434,15 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[1442, 956, 1253, 282, 1866, 825, 1074, 1009, 1050, 146, 1399, 1151, 630, 1823, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(431, 440), (441, 447), (448, 451), (452, 455), (456, 464), (465, 474), (475, 478), (479, 484), (485, 487), (488, 492), (493, 496), (497, 504), (505, 510), (511, 518), (518, 519)]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
+        <is>
+          <t>[1275, 1115, 1456, 1485, 794, 1241, 408, 1220, 1108, 1672, 690, 1192, 252, 463, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4899,7 +5464,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[153, 788, 128, 973, 1463, 1159, 1905, 1545, 1594, 1705, 1112, 1823, 1008]</t>
+          <t>[295, 224, 25, 12, 192, 928, 1597, 1425, 1621, 736, 1165, 463, 1538]</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4914,10 +5479,15 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[153, 788, 128, 973, 1463, 1159, 1905, 1545, 1594, 1705, 1112, 1823, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(520, 523), (524, 529), (530, 534), (535, 537), (538, 543), (544, 550), (551, 555), (556, 561), (562, 569), (570, 572), (573, 581), (582, 589), (589, 590)]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
+        <is>
+          <t>[295, 224, 25, 12, 192, 928, 1597, 1425, 1621, 736, 1165, 463, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4939,7 +5509,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[658, 1748, 128, 973, 1119, 601, 1008]</t>
+          <t>[988, 1225, 25, 12, 477, 1488, 1538]</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4954,10 +5524,15 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[658, 1748, 128, 973, 1119, 601, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(591, 594), (595, 599), (600, 604), (605, 607), (608, 611), (612, 616), (614, 615)]</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
+        <is>
+          <t>[988, 1225, 25, 12, 477, 1488, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -4979,7 +5554,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[1792, 626, 387, 1388, 1009, 240, 973, 1399, 788, 592, 1304, 500, 1463, 1529, 1008]</t>
+          <t>[1216, 469, 1822, 73, 1220, 585, 12, 690, 224, 1849, 770, 1162, 192, 731, 1538]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4994,10 +5569,15 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[1792, 626, 387, 1388, 1009, 240, 973, 1399, 788, 592, 1304, 500, 1463, 1529, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(618, 622), (623, 627), (628, 630), (631, 634), (635, 640), (641, 643), (644, 646), (647, 650), (651, 656), (657, 659), (660, 663), (664, 671), (672, 677), (678, 686), (686, 687)]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
+        <is>
+          <t>[1216, 469, 1822, 73, 1220, 585, 12, 690, 224, 1849, 770, 1162, 192, 731, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5019,7 +5599,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[932, 452, 1428, 927, 1008]</t>
+          <t>[1476, 675, 773, 923, 1538]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5034,10 +5614,15 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[932, 452, 1428, 927, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(688, 690), (691, 696), (696, 697), (698, 705), (705, 706)]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
+        <is>
+          <t>[1476, 675, 773, 923, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5059,7 +5644,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[443, 1688, 1285, 1506, 1905, 196, 118, 1008]</t>
+          <t>[1635, 917, 1576, 1628, 1597, 886, 1347, 1538]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5074,10 +5659,15 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[443, 1688, 1285, 1506, 1905, 196, 118, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(707, 711), (712, 716), (717, 719), (720, 724), (725, 729), (730, 732), (733, 739), (739, 740)]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
+        <is>
+          <t>[1635, 917, 1576, 1628, 1597, 886, 1347, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5099,7 +5689,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[373, 387, 501, 1259, 1091, 166, 1905, 834, 371, 605, 11, 574, 1008]</t>
+          <t>[840, 1822, 1414, 1694, 1497, 744, 1597, 647, 1926, 1519, 595, 1206, 1538]</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5114,10 +5704,15 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[373, 387, 501, 1259, 1091, 166, 1905, 834, 371, 605, 11, 574, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(742, 749), (750, 752), (753, 760), (761, 767), (768, 770), (771, 775), (776, 780), (781, 790), (791, 795), (796, 799), (800, 804), (805, 815), (815, 816)]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
+        <is>
+          <t>[840, 1822, 1414, 1694, 1497, 744, 1597, 647, 1926, 1519, 595, 1206, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5139,7 +5734,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[153, 661, 110, 1329, 423, 994, 1008]</t>
+          <t>[295, 1495, 180, 829, 1686, 512, 1538]</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5154,10 +5749,15 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[153, 661, 110, 1329, 423, 994, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(821, 824), (825, 829), (830, 834), (835, 844), (845, 848), (849, 852), (852, 853)]</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
+        <is>
+          <t>[295, 1495, 180, 829, 1686, 512, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5179,7 +5779,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[658, 697, 128, 973, 1119, 1007, 1708, 1285, 711, 1074, 444, 1008]</t>
+          <t>[988, 990, 25, 12, 477, 1263, 193, 1576, 388, 408, 1028, 1538]</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5194,10 +5794,15 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[658, 697, 128, 973, 1119, 1007, 1708, 1285, 711, 1074, 444, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(854, 857), (858, 860), (861, 865), (866, 868), (869, 872), (873, 877), (878, 883), (884, 886), (887, 891), (892, 895), (896, 899), (899, 900)]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
+        <is>
+          <t>[988, 990, 25, 12, 477, 1263, 193, 1576, 388, 408, 1028, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5219,7 +5824,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[153, 730, 11, 1161, 387, 1568, 1136, 549, 53, 387, 1568, 817, 1008]</t>
+          <t>[295, 1459, 595, 1866, 1822, 1083, 1134, 59, 1307, 1822, 1083, 1203, 1538]</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5234,10 +5839,15 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[153, 730, 11, 1161, 387, 1568, 1136, 549, 53, 387, 1568, 817, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(901, 904), (905, 908), (909, 913), (914, 920), (921, 923), (924, 927), (928, 936), (937, 944), (945, 951), (952, 954), (955, 958), (959, 967), (967, 968)]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
+        <is>
+          <t>[295, 1459, 595, 1866, 1822, 1083, 1134, 59, 1307, 1822, 1083, 1203, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5259,7 +5869,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[1693, 78, 387, 1016, 592, 1863, 717, 1705, 526, 1008]</t>
+          <t>[329, 304, 1822, 520, 1849, 1516, 953, 736, 1300, 1538]</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5274,10 +5884,15 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[1693, 78, 387, 1016, 592, 1863, 717, 1705, 526, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(972, 979), (980, 987), (988, 990), (991, 996), (997, 999), (1000, 1003), (1004, 1007), (1008, 1010), (1011, 1015), (1015, 1016)]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
+        <is>
+          <t>[329, 304, 1822, 520, 1849, 1516, 953, 736, 1300, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5299,7 +5914,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[407, 958, 632, 1755, 307, 1091, 478, 1012, 282, 511, 1905, 1068, 115, 115, 1034, 1091, 571, 1015, 1008]</t>
+          <t>[1873, 681, 212, 1388, 1744, 1497, 867, 518, 1485, 1604, 1597, 1214, 1833, 1833, 868, 1497, 24, 768, 1538]</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5314,10 +5929,15 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[407, 958, 632, 1755, 307, 1091, 478, 1012, 282, 511, 1905, 1068, 115, 115, 1034, 1091, 571, 1015, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1020, 1024), (1025, 1029), (1030, 1032), (1033, 1038), (1039, 1044), (1045, 1047), (1048, 1053), (1054, 1058), (1059, 1062), (1063, 1072), (1073, 1077), (1078, 1079), (1080, 1084), (1085, 1089), (1090, 1095), (1096, 1098), (1099, 1103), (1104, 1107), (1107, 1108)]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
+        <is>
+          <t>[1873, 681, 212, 1388, 1744, 1497, 867, 518, 1485, 1604, 1597, 1214, 1833, 1833, 868, 1497, 24, 768, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5339,7 +5959,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[153, 1934, 1206, 1905, 670, 740, 1399, 1285, 944, 1372, 1060, 1873, 627, 1819, 1399, 1060, 475, 1008]</t>
+          <t>[295, 784, 926, 1597, 49, 1755, 690, 1576, 589, 838, 609, 719, 1768, 1037, 690, 609, 1145, 1538]</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5354,10 +5974,15 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[153, 1934, 1206, 1905, 670, 740, 1399, 1285, 944, 1372, 1060, 1873, 627, 1819, 1399, 1060, 475, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1109, 1112), (1113, 1118), (1119, 1121), (1122, 1126), (1127, 1128), (1129, 1132), (1133, 1136), (1137, 1139), (1140, 1148), (1149, 1152), (1153, 1155), (1156, 1159), (1160, 1164), (1165, 1174), (1175, 1178), (1179, 1181), (1182, 1184), (1184, 1185)]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
+        <is>
+          <t>[295, 784, 926, 1597, 49, 1755, 690, 1576, 589, 838, 609, 719, 1768, 1037, 690, 609, 1145, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5379,7 +6004,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[1911, 1177, 1705, 1658, 1008]</t>
+          <t>[1912, 1791, 736, 507, 1538]</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5394,10 +6019,15 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[1911, 1177, 1705, 1658, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1186, 1192), (1193, 1199), (1200, 1202), (1203, 1210), (1210, 1211)]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
+        <is>
+          <t>[1912, 1791, 736, 507, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5419,7 +6049,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[662, 861, 94, 1106, 1008]</t>
+          <t>[1323, 615, 1354, 728, 1538]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5434,10 +6064,15 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[662, 861, 94, 1106, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1213, 1217), (1218, 1224), (1225, 1228), (1229, 1237), (1237, 1238)]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
+        <is>
+          <t>[1323, 615, 1354, 728, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5459,7 +6094,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[266, 868, 1237, 1428, 747, 1428, 932, 1269, 1389, 1933, 1608, 1400, 60, 1400, 134, 134, 119, 1131, 1524, 1524, 1480, 1627, 1213, 1920, 137, 495, 155, 65, 643, 1756, 1569, 134, 567, 1171, 335, 138, 296, 1920, 1051, 339, 978, 1848, 1510, 1213, 1920, 495, 1379, 1873, 1013, 1156, 704, 990, 1480, 495, 55, 526, 421, 1873, 1346, 1158, 271, 5, 466, 917, 306, 526, 1480, 753, 1553, 1920, 1374, 1905, 1134, 1008]</t>
+          <t>[1548, 349, 1234, 773, 1845, 773, 1476, 1175, 274, 1010, 1342, 1423, 1885, 1423, 264, 264, 1229, 1763, 433, 433, 1773, 516, 1469, 399, 80, 1775, 1463, 8, 1507, 1197, 410, 264, 1370, 536, 1533, 479, 427, 399, 1107, 1892, 876, 135, 1534, 1469, 399, 1775, 793, 719, 563, 1399, 324, 1312, 1773, 1775, 1163, 1300, 1411, 719, 44, 932, 71, 1935, 495, 1396, 525, 1300, 1773, 197, 1855, 399, 758, 1597, 949, 1538]</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5474,10 +6109,15 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[266, 868, 1237, 1428, 747, 1428, 932, 1269, 1389, 1933, 1608, 1400, 60, 1400, 134, 134, 119, 1131, 1524, 1524, 1480, 1627, 1213, 1920, 137, 495, 155, 65, 643, 1756, 1569, 134, 567, 1171, 335, 138, 296, 1920, 1051, 339, 978, 1848, 1510, 1213, 1920, 495, 1379, 1873, 1013, 1156, 704, 990, 1480, 495, 55, 526, 421, 1873, 1346, 1158, 271, 5, 466, 917, 306, 526, 1480, 753, 1553, 1920, 1374, 1905, 1134, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1242, 1245), (1246, 1252), (1253, 1254), (1254, 1255), (1256, 1259), (1259, 1260), (1261, 1263), (1264, 1266), (1267, 1269), (1270, 1272), (1273, 1275), (1279, 1295), (1296, 1313), (1314, 1330), (1332, 1333), (1333, 1334), (1335, 1338), (1339, 1343), (1344, 1345), (1345, 1346), (1347, 1357), (1362, 1368), (1369, 1373), (1374, 1384), (1385, 1387), (1388, 1392), (1395, 1406), (1407, 1417), (1418, 1421), (1423, 1432), (1432, 1433), (1434, 1435), (1435, 1438), (1440, 1445), (1446, 1456), (1457, 1461), (1465, 1474), (1475, 1485), (1487, 1501), (1504, 1516), (1517, 1527), (1525, 1526), (1533, 1540), (1541, 1545), (1546, 1556), (1558, 1562), (1563, 1572), (1573, 1576), (1577, 1578), (1579, 1585), (1587, 1590), (1591, 1596), (1597, 1607), (1609, 1613), (1616, 1624), (1625, 1629), (1630, 1640), (1643, 1646), (1647, 1654), (1656, 1660), (1661, 1664), (1665, 1666), (1667, 1668), (1669, 1675), (1677, 1683), (1684, 1688), (1689, 1699), (1700, 1703), (1707, 1720), (1721, 1731), (1734, 1743), (1744, 1748), (1749, 1756), (1756, 1757)]</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
+        <is>
+          <t>[1548, 349, 1234, 773, 1845, 773, 1476, 1175, 274, 1010, 1342, 1423, 1885, 1423, 264, 264, 1229, 1763, 433, 433, 1773, 516, 1469, 399, 80, 1775, 1463, 8, 1507, 1197, 410, 264, 1370, 536, 1533, 479, 427, 399, 1107, 1892, 876, 135, 1534, 1469, 399, 1775, 793, 719, 563, 1399, 324, 1312, 1773, 1775, 1163, 1300, 1411, 719, 44, 932, 71, 1935, 495, 1396, 525, 1300, 1773, 197, 1855, 399, 758, 1597, 949, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5499,7 +6139,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[153, 1501, 1008]</t>
+          <t>[295, 478, 1538]</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5514,10 +6154,15 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[153, 1501, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1758, 1761), (1762, 1769), (1769, 1770)]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
+        <is>
+          <t>[295, 478, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5539,7 +6184,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[482, 975, 1480, 1083, 670, 801, 1885, 456, 1480, 495, 439, 1224, 1195, 792, 1638, 1439, 592, 1849, 1398, 1434, 460, 433, 962, 1213, 292, 196, 1129, 1873, 1156, 1428, 1158, 271, 1091, 1304, 129, 1400, 649, 1400, 443, 1904, 1352, 1400, 638, 1400, 163, 1400, 806, 1400, 1640, 1420, 1128, 1769, 845, 1114, 1189, 1340, 432, 994, 874, 726, 220, 233, 793, 1420, 1332, 1230, 845, 871, 1575, 1721, 1420, 1899, 845, 1189, 225, 1474, 1796, 1189, 1340, 262, 1324, 1618, 1189, 225, 409, 1420, 330, 845, 1114, 1575, 1721, 1420, 1899, 845, 1189, 677, 262, 232, 432, 1120, 976, 1318, 827, 364, 853, 1340, 1102, 1569, 641, 1091, 408, 167, 439, 137, 785, 715, 516, 1509, 244, 1060, 1105, 1778, 439, 836, 197, 439, 196, 67, 476, 439, 1077, 387, 61, 375, 1314, 464, 439, 816, 836, 1444, 1389, 368, 1514, 439, 1218, 759, 439, 196, 971, 870, 1161, 387, 1709, 670, 272, 1465, 653, 439, 1197, 357, 1916, 363, 387, 97, 387, 872, 1759, 1842, 1399, 721, 1798, 1399, 1863, 57, 1706, 282, 730, 1430, 1175, 444, 1535, 1325, 1158, 1937, 1074, 465, 1399, 1540, 919, 1008]</t>
+          <t>[1003, 1530, 1773, 96, 49, 1748, 629, 1438, 1773, 1775, 1823, 1087, 1478, 571, 1284, 1155, 1849, 677, 1900, 1422, 1078, 136, 110, 1469, 146, 886, 759, 719, 1399, 773, 932, 71, 1497, 770, 856, 1423, 1767, 1423, 1635, 1140, 15, 1423, 1089, 1423, 827, 1423, 1610, 1423, 1310, 1282, 1465, 1800, 1431, 1511, 257, 725, 683, 512, 195, 76, 1581, 557, 133, 1282, 1249, 1303, 1431, 1681, 1084, 1829, 1282, 654, 1431, 257, 556, 881, 943, 257, 725, 712, 1671, 1927, 257, 556, 1929, 1282, 723, 1431, 1511, 1084, 1829, 1282, 654, 1431, 257, 992, 712, 1620, 683, 1095, 1720, 659, 52, 457, 790, 725, 1410, 410, 27, 1497, 1211, 714, 1823, 80, 1315, 612, 858, 60, 597, 609, 616, 1240, 1823, 1063, 673, 1823, 886, 935, 1857, 1823, 1819, 1822, 1268, 1149, 887, 1663, 1823, 1875, 1063, 570, 274, 755, 1320, 1823, 1901, 1129, 1823, 886, 1560, 1607, 1866, 1822, 1286, 49, 1355, 297, 895, 1823, 416, 1237, 726, 573, 1822, 1427, 1822, 975, 902, 653, 690, 1860, 1629, 690, 1516, 186, 1176, 1485, 1459, 1540, 1832, 1028, 1739, 1445, 932, 765, 408, 1578, 690, 173, 1710, 1538]</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5554,10 +6199,15 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[482, 975, 1480, 1083, 670, 801, 1885, 456, 1480, 495, 439, 1224, 1195, 792, 1638, 1439, 592, 1849, 1398, 1434, 460, 433, 962, 1213, 292, 196, 1129, 1873, 1156, 1428, 1158, 271, 1091, 1304, 129, 1400, 649, 1400, 443, 1904, 1352, 1400, 638, 1400, 163, 1400, 806, 1400, 1640, 1420, 1128, 1769, 845, 1114, 1189, 1340, 432, 994, 874, 726, 220, 233, 793, 1420, 1332, 1230, 845, 871, 1575, 1721, 1420, 1899, 845, 1189, 225, 1474, 1796, 1189, 1340, 262, 1324, 1618, 1189, 225, 409, 1420, 330, 845, 1114, 1575, 1721, 1420, 1899, 845, 1189, 677, 262, 232, 432, 1120, 976, 1318, 827, 364, 853, 1340, 1102, 1569, 641, 1091, 408, 167, 439, 137, 785, 715, 516, 1509, 244, 1060, 1105, 1778, 439, 836, 197, 439, 196, 67, 476, 439, 1077, 387, 61, 375, 1314, 464, 439, 816, 836, 1444, 1389, 368, 1514, 439, 1218, 759, 439, 196, 971, 870, 1161, 387, 1709, 670, 272, 1465, 653, 439, 1197, 357, 1916, 363, 387, 97, 387, 872, 1759, 1842, 1399, 721, 1798, 1399, 1863, 57, 1706, 282, 730, 1430, 1175, 444, 1535, 1325, 1158, 1937, 1074, 465, 1399, 1540, 919, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1772, 1779), (1780, 1786), (1787, 1797), (1799, 1804), (1805, 1806), (1807, 1813), (1816, 1821), (1822, 1828), (1829, 1839), (1841, 1845), (1846, 1847), (1848, 1856), (1859, 1866), (1867, 1877), (1880, 1884), (1885, 1887), (1888, 1890), (1891, 1895), (1896, 1901), (1903, 1913), (1914, 1924), (1925, 1933), (1937, 1943), (1944, 1948), (1949, 1959), (1960, 1962), (1963, 1969), (1971, 1974), (1975, 1981), (1981, 1982), (1983, 1987), (1988, 1991), (1992, 1994), (1995, 1998), (1999, 2003), (2009, 2025), (2026, 2034), (2035, 2051), (2053, 2057), (2058, 2063), (2075, 2083), (2085, 2101), (2102, 2111), (2112, 2128), (2130, 2134), (2137, 2153), (2154, 2165), (2166, 2182), (2184, 2190), (2191, 2192), (2192, 2206), (2207, 2210), (2210, 2211), (2213, 2217), (2218, 2220), (2221, 2224), (2226, 2233), (2234, 2237), (2238, 2243), (2245, 2252), (2253, 2255), (2256, 2259), (2261, 2264), (2265, 2266), (2266, 2281), (2282, 2286), (2286, 2287), (2288, 2293), (2294, 2295), (2296, 2302), (2302, 2303), (2303, 2304), (2304, 2305), (2306, 2308), (2309, 2311), (2313, 2322), (2324, 2328), (2329, 2331), (2332, 2335), (2337, 2338), (2341, 2346), (2348, 2352), (2353, 2355), (2356, 2358), (2360, 2367), (2368, 2369), (2369, 2381), (2381, 2382), (2383, 2387), (2388, 2389), (2390, 2396), (2396, 2397), (2397, 2398), (2398, 2399), (2400, 2402), (2403, 2406), (2408, 2409), (2412, 2415), (2416, 2423), (2424, 2432), (2433, 2437), (2438, 2441), (2442, 2445), (2446, 2448), (2450, 2458), (2460, 2463), (2467, 2469), (2469, 2470), (2471, 2476), (2477, 2479), (2480, 2483), (2485, 2490), (2491, 2492), (2493, 2495), (2496, 2502), (2503, 2504), (2505, 2508), (2509, 2518), (2519, 2526), (2527, 2529), (2530, 2537), (2539, 2544), (2545, 2546), (2547, 2550), (2552, 2560), (2561, 2562), (2563, 2565), (2566, 2572), (2574, 2579), (2580, 2581), (2582, 2587), (2588, 2590), (2591, 2592), (2592, 2593), (2593, 2594), (2596, 2599), (2600, 2601), (2602, 2605), (2606, 2609), (2610, 2611), (2612, 2614), (2615, 2616), (2618, 2621), (2622, 2623), (2624, 2630), (2632, 2635), (2636, 2637), (2638, 2640), (2641, 2646), (2650, 2653), (2655, 2661), (2662, 2664), (2665, 2669), (2670, 2671), (2672, 2678), (2680, 2682), (2683, 2685), (2686, 2687), (2688, 2691), (2692, 2695), (2696, 2697), (2702, 2705), (2706, 2708), (2709, 2718), (2719, 2721), (2722, 2726), (2727, 2730), (2731, 2737), (2738, 2741), (2742, 2746), (2747, 2751), (2752, 2755), (2756, 2759), (2760, 2764), (2765, 2769), (2770, 2773), (2774, 2777), (2778, 2785), (2786, 2791), (2792, 2795), (2796, 2802), (2803, 2805), (2806, 2810), (2811, 2816), (2817, 2820), (2821, 2832), (2833, 2836), (2837, 2839), (2840, 2849), (2849, 2850)]</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
+        <is>
+          <t>[1003, 1530, 1773, 96, 49, 1748, 629, 1438, 1773, 1775, 1823, 1087, 1478, 571, 1284, 1155, 1849, 677, 1900, 1422, 1078, 136, 110, 1469, 146, 886, 759, 719, 1399, 773, 932, 71, 1497, 770, 856, 1423, 1767, 1423, 1635, 1140, 15, 1423, 1089, 1423, 827, 1423, 1610, 1423, 1310, 1282, 1465, 1800, 1431, 1511, 257, 725, 683, 512, 195, 76, 1581, 557, 133, 1282, 1249, 1303, 1431, 1681, 1084, 1829, 1282, 654, 1431, 257, 556, 881, 943, 257, 725, 712, 1671, 1927, 257, 556, 1929, 1282, 723, 1431, 1511, 1084, 1829, 1282, 654, 1431, 257, 992, 712, 1620, 683, 1095, 1720, 659, 52, 457, 790, 725, 1410, 410, 27, 1497, 1211, 714, 1823, 80, 1315, 612, 858, 60, 597, 609, 616, 1240, 1823, 1063, 673, 1823, 886, 935, 1857, 1823, 1819, 1822, 1268, 1149, 887, 1663, 1823, 1875, 1063, 570, 274, 755, 1320, 1823, 1901, 1129, 1823, 886, 1560, 1607, 1866, 1822, 1286, 49, 1355, 297, 895, 1823, 416, 1237, 726, 573, 1822, 1427, 1822, 975, 902, 653, 690, 1860, 1629, 690, 1516, 186, 1176, 1485, 1459, 1540, 1832, 1028, 1739, 1445, 932, 765, 408, 1578, 690, 173, 1710, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5579,7 +6229,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[147, 371, 1527, 1873, 1819, 1008]</t>
+          <t>[1583, 1926, 1207, 719, 1037, 1538]</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5594,10 +6244,15 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[147, 371, 1527, 1873, 1819, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2854, 2855), (2856, 2860), (2861, 2869), (2870, 2873), (2874, 2883), (2883, 2884)]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
+        <is>
+          <t>[1583, 1926, 1207, 719, 1037, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5619,7 +6274,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[1719, 424, 1714, 612, 1428, 1395]</t>
+          <t>[35, 934, 533, 1338, 773, 1596]</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5634,10 +6289,15 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[1719, 424, 1714, 612, 1428, 1395, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2925, 2955), (2989, 2992), (2993, 2995), (2996, 3000), (3000, 3001), (3002, 3004)]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
+        <is>
+          <t>[35, 934, 533, 1338, 773, 1596, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5659,7 +6319,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 1924, 1068, 115, 1904, 439, 523, 1074, 1539, 917, 1008]</t>
+          <t>[330, 871, 410, 1500, 1214, 1833, 1140, 1823, 1616, 408, 1154, 1396, 1538]</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5669,17 +6329,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 1924, 1068, 115, 1904, 439, 523, 1074, 1539, 917, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3, 9), (10, 14), (14, 15), (16, 26), (28, 29), (30, 34), (35, 40), (41, 42), (43, 50), (51, 54), (55, 62), (63, 69), (69, 70)]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[330, 871, 410, 1500, 1214, 1833, 1140, 1823, 1616, 408, 1154, 1396, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -5699,7 +6364,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[775, 944, 1060, 1873, 618, 1008]</t>
+          <t>[622, 589, 609, 719, 661, 1538]</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5709,17 +6374,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 4, 1]</t>
+          <t>[1, 1, 1, 1, 2, 1]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[775, 944, 1060, 1873, 618, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(71, 76), (77, 85), (86, 88), (89, 92), (93, 99), (99, 100)]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 4, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[622, 589, 609, 719, 661, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 2, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -5739,7 +6409,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[775, 1160, 1905, 1074, 1844, 899, 1335, 1008]</t>
+          <t>[622, 183, 1597, 408, 1208, 737, 176, 1538]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5754,10 +6424,15 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[775, 1160, 1905, 1074, 1844, 899, 1335, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(101, 106), (107, 113), (114, 118), (119, 122), (123, 130), (131, 136), (137, 145), (145, 146)]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
+        <is>
+          <t>[622, 183, 1597, 408, 1208, 737, 176, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5779,7 +6454,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[407, 439, 680, 1447, 1008]</t>
+          <t>[1873, 1823, 780, 1736, 1538]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5794,10 +6469,15 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[407, 439, 680, 1447, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(150, 154), (155, 156), (157, 161), (162, 170), (170, 171)]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
+        <is>
+          <t>[1873, 1823, 780, 1736, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5819,7 +6499,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[1638, 766, 861, 1431, 1008]</t>
+          <t>[1284, 1097, 615, 1834, 1538]</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5834,10 +6514,15 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[1638, 766, 861, 1431, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(172, 176), (177, 182), (183, 189), (190, 195), (195, 196)]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
+        <is>
+          <t>[1284, 1097, 615, 1834, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5859,7 +6544,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[662, 26, 526, 154, 1008]</t>
+          <t>[1323, 1180, 1300, 968, 1538]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5869,17 +6554,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1]</t>
+          <t>[1, 1, 1, 25, 1]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[662, 26, 526, 154, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(197, 201), (202, 205), (206, 210), (211, 219), (219, 220)]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1323, 1180, 1300, 968, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -5899,7 +6589,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[1528, 1205, 1060, 1873, 1156, 1008]</t>
+          <t>[216, 208, 609, 719, 1399, 1538]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5909,17 +6599,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 4, 1]</t>
+          <t>[1, 1, 1, 1, 2, 1]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[1528, 1205, 1060, 1873, 1156, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(221, 230), (231, 236), (237, 239), (240, 243), (244, 250), (250, 251)]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 4, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[216, 208, 609, 719, 1399, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 2, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -5939,7 +6634,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[1851, 439, 1233, 711, 1008]</t>
+          <t>[1567, 1823, 363, 388, 1538]</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5954,10 +6649,15 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[1851, 439, 1233, 711, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(255, 258), (259, 260), (261, 271), (272, 276), (276, 277)]</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
+        <is>
+          <t>[1567, 1823, 363, 388, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -5979,7 +6679,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[1638, 1643, 214, 387, 325, 403, 832, 1008]</t>
+          <t>[1284, 1737, 450, 1822, 1103, 846, 1077, 1538]</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5994,10 +6694,15 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[1638, 1643, 214, 387, 325, 403, 832, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(278, 282), (283, 291), (292, 300), (301, 303), (304, 306), (307, 309), (310, 312), (312, 313)]</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
+        <is>
+          <t>[1284, 1737, 450, 1822, 1103, 846, 1077, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6019,7 +6724,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[932, 888, 1297, 1026, 1008]</t>
+          <t>[1476, 1938, 991, 1881, 1538]</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6034,10 +6739,15 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[932, 888, 1297, 1026, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(314, 316), (317, 329), (330, 333), (333, 335), (335, 336)]</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
+        <is>
+          <t>[1476, 1938, 991, 1881, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6059,7 +6769,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[649, 443, 1904, 1352, 348, 1495, 1569, 615, 1102, 1569, 641, 1091, 408, 1436, 620, 1306, 535, 100, 61, 1799, 1239, 513, 1757, 1091, 1008]</t>
+          <t>[1767, 1635, 1140, 15, 1092, 1675, 410, 1598, 1410, 410, 27, 1497, 1211, 1389, 302, 1688, 421, 1851, 1268, 245, 438, 308, 1701, 1497, 1538]</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6074,10 +6784,15 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[649, 443, 1904, 1352, 348, 1495, 1569, 615, 1102, 1569, 641, 1091, 408, 1436, 620, 1306, 535, 100, 61, 1799, 1239, 513, 1757, 1091, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(342, 350), (352, 356), (357, 362), (365, 373), (376, 383), (384, 394), (395, 396), (397, 399), (404, 406), (406, 407), (408, 413), (414, 416), (417, 420), (424, 434), (436, 438), (439, 445), (446, 450), (451, 454), (456, 457), (458, 460), (461, 468), (470, 472), (473, 475), (476, 478), (478, 479)]</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
+        <is>
+          <t>[1767, 1635, 1140, 15, 1092, 1675, 410, 1598, 1410, 410, 27, 1497, 1211, 1389, 302, 1688, 421, 1851, 1268, 245, 438, 308, 1701, 1497, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6099,7 +6814,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[493, 174, 920, 1068, 115, 439, 416, 230, 765, 1705, 715, 115, 619, 1399, 1515, 885, 1569, 1423, 507, 387, 325, 403, 832, 1393, 466, 917, 761, 1039, 1323, 1905, 620, 1795, 1262, 861, 25, 424, 1714, 612, 1428, 1395]</t>
+          <t>[610, 623, 1683, 1214, 1833, 1823, 1517, 126, 763, 736, 612, 1833, 1453, 690, 996, 320, 410, 706, 1118, 1822, 1103, 846, 1077, 1433, 495, 1396, 1053, 1117, 315, 1597, 302, 366, 1287, 615, 272, 934, 533, 1338, 773, 1596]</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6109,17 +6824,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 13, 13, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 16, 16, 1, 1]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[493, 174, 920, 1068, 115, 439, 416, 230, 765, 1705, 715, 115, 619, 1399, 1515, 885, 1569, 1423, 507, 387, 325, 403, 832, 1393, 466, 917, 761, 1039, 1323, 1905, 620, 1795, 1262, 861, 25, 424, 1714, 612, 1428, 1395, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(481, 483), (484, 487), (488, 490), (495, 496), (497, 501), (502, 503), (504, 509), (510, 512), (513, 517), (518, 520), (521, 522), (523, 527), (528, 533), (534, 537), (538, 549), (553, 557), (557, 558), (559, 567), (568, 576), (577, 579), (580, 582), (583, 585), (586, 588), (599, 602), (603, 604), (605, 611), (612, 614), (615, 618), (629, 633), (634, 638), (639, 641), (642, 650), (661, 666), (667, 673), (679, 724), (726, 729), (730, 732), (733, 737), (737, 738), (739, 741)]</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 13, 13, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[610, 623, 1683, 1214, 1833, 1823, 1517, 126, 763, 736, 612, 1833, 1453, 690, 996, 320, 410, 706, 1118, 1822, 1103, 846, 1077, 1433, 495, 1396, 1053, 1117, 315, 1597, 302, 366, 1287, 615, 272, 934, 533, 1338, 773, 1596, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 16, 16, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6859,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 193, 1693, 481, 1569, 1669, 1428, 1278, 1338, 1677, 1569, 803, 260, 1693, 1285, 1410, 1074, 1050, 412, 1253, 468, 1091, 1074, 1045, 1206, 1431, 1008]</t>
+          <t>[330, 871, 410, 1601, 329, 1278, 410, 1380, 773, 1499, 1327, 1923, 410, 514, 606, 329, 1576, 892, 408, 1108, 1288, 1456, 1385, 1497, 408, 1544, 926, 1834, 1538]</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6149,17 +6869,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 10, 16, 16, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 25, 1, 1, 1, 15, 19, 19, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 193, 1693, 481, 1569, 1669, 1428, 1278, 1338, 1677, 1569, 803, 260, 1693, 1285, 1410, 1074, 1050, 412, 1253, 468, 1091, 1074, 1045, 1206, 1431, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3, 9), (10, 14), (14, 15), (16, 26), (83, 90), (91, 95), (95, 96), (97, 103), (103, 104), (104, 111), (112, 113), (114, 117), (117, 118), (119, 130), (131, 132), (135, 142), (143, 145), (146, 153), (154, 157), (158, 160), (161, 167), (168, 171), (172, 177), (178, 180), (181, 184), (185, 191), (192, 194), (195, 200), (200, 201)]</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 1, 1, 10, 16, 16, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[330, 871, 410, 1601, 329, 1278, 410, 1380, 773, 1499, 1327, 1923, 410, 514, 606, 329, 1576, 892, 408, 1108, 1288, 1456, 1385, 1497, 408, 1544, 926, 1834, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 1, 1, 15, 19, 19, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6904,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[1068, 115, 1904, 439, 290, 730, 11, 141, 230, 1399, 1484, 1074, 280, 105, 1665, 1008]</t>
+          <t>[1214, 1833, 1140, 1823, 1040, 1459, 595, 377, 126, 690, 1595, 408, 77, 118, 215, 1538]</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6194,10 +6919,15 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[1068, 115, 1904, 439, 290, 730, 11, 141, 230, 1399, 1484, 1074, 280, 105, 1665, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(205, 206), (207, 211), (212, 217), (218, 219), (220, 222), (223, 226), (227, 231), (232, 239), (240, 242), (243, 246), (247, 250), (251, 254), (255, 261), (262, 263), (264, 269), (269, 270)]</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
+        <is>
+          <t>[1214, 1833, 1140, 1823, 1040, 1459, 595, 377, 126, 690, 1595, 408, 77, 118, 215, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6219,7 +6949,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[290, 730, 1059, 1428, 1853, 1863, 166, 105, 917, 1428, 847, 1008]</t>
+          <t>[1040, 1459, 702, 773, 1886, 1516, 744, 118, 1396, 773, 141, 1538]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6234,10 +6964,15 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[290, 730, 1059, 1428, 1853, 1863, 166, 105, 917, 1428, 847, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(271, 273), (274, 277), (278, 286), (286, 287), (288, 292), (293, 296), (297, 301), (302, 303), (304, 310), (310, 311), (312, 320), (320, 321)]</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
+        <is>
+          <t>[1040, 1459, 702, 773, 1886, 1516, 744, 118, 1396, 773, 141, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6259,7 +6994,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[153, 1285, 933, 387, 271, 1873, 618, 1849, 158, 1008]</t>
+          <t>[295, 1576, 1257, 1822, 71, 719, 661, 677, 1852, 1538]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6274,10 +7009,15 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[153, 1285, 933, 387, 271, 1873, 618, 1849, 158, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(322, 325), (326, 328), (329, 338), (339, 341), (342, 345), (346, 349), (350, 356), (357, 361), (362, 366), (366, 367)]</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
+        <is>
+          <t>[295, 1576, 1257, 1822, 71, 719, 661, 677, 1852, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6299,7 +7039,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[715, 1006, 524, 439, 1729, 1008]</t>
+          <t>[612, 899, 621, 1823, 475, 1538]</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6314,10 +7054,15 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[715, 1006, 524, 439, 1729, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(372, 373), (374, 379), (380, 383), (384, 385), (386, 392), (392, 393)]</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
+        <is>
+          <t>[612, 899, 621, 1823, 475, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6339,7 +7084,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[323, 1873, 1450, 1091, 1214, 1008]</t>
+          <t>[259, 719, 127, 1497, 1439, 1538]</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6354,10 +7099,15 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[323, 1873, 1450, 1091, 1214, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(394, 397), (398, 401), (402, 412), (413, 415), (416, 424), (424, 425)]</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
+        <is>
+          <t>[259, 719, 127, 1497, 1439, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6379,7 +7129,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[407, 439, 116, 1873, 1819, 230, 670, 842, 520, 1008]</t>
+          <t>[1873, 1823, 1034, 719, 1037, 126, 49, 482, 1700, 1538]</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6394,10 +7144,15 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[407, 439, 116, 1873, 1819, 230, 670, 842, 520, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(429, 433), (434, 435), (436, 440), (441, 444), (445, 454), (455, 457), (458, 459), (460, 467), (468, 473), (473, 474)]</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
+        <is>
+          <t>[1873, 1823, 1034, 719, 1037, 126, 49, 482, 1700, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6419,7 +7174,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[932, 1066, 861, 1008]</t>
+          <t>[1476, 1557, 615, 1538]</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6434,10 +7189,15 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[932, 1066, 861, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(475, 477), (478, 484), (485, 491), (491, 492)]</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
+        <is>
+          <t>[1476, 1557, 615, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6459,7 +7219,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[974, 387, 229, 1905, 1584, 1428, 1559, 1705, 9, 1420, 379, 845, 1428, 1696, 1873, 618, 1074, 115, 1688, 5, 466, 917, 1428, 1763, 1873, 1156, 1074, 26, 1688, 379, 1428, 282, 1285, 985, 387, 1377, 670, 1556, 230, 75, 1420, 452, 230, 1626, 845, 1399, 1538, 1008]</t>
+          <t>[1915, 1822, 871, 1597, 1554, 773, 982, 736, 560, 1282, 269, 1431, 773, 1678, 719, 661, 408, 1833, 917, 1935, 495, 1396, 773, 1372, 719, 1399, 408, 1180, 917, 269, 773, 1485, 1576, 485, 1822, 420, 49, 1895, 126, 371, 1282, 675, 126, 1838, 1431, 690, 1815, 1538]</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6474,10 +7234,15 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[974, 387, 229, 1905, 1584, 1428, 1559, 1705, 9, 1420, 379, 845, 1428, 1696, 1873, 618, 1074, 115, 1688, 5, 466, 917, 1428, 1763, 1873, 1156, 1074, 26, 1688, 379, 1428, 282, 1285, 985, 387, 1377, 670, 1556, 230, 75, 1420, 452, 230, 1626, 845, 1399, 1538, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(493, 495), (496, 498), (499, 503), (504, 508), (509, 521), (521, 522), (523, 526), (527, 529), (530, 532), (533, 534), (534, 542), (542, 543), (543, 544), (545, 549), (550, 553), (554, 560), (561, 564), (565, 569), (570, 574), (575, 576), (577, 578), (579, 585), (585, 586), (587, 590), (591, 594), (595, 601), (602, 605), (606, 609), (610, 614), (615, 623), (623, 624), (625, 628), (629, 631), (632, 637), (638, 640), (641, 649), (650, 651), (652, 657), (658, 660), (661, 667), (668, 669), (669, 674), (675, 677), (678, 682), (682, 683), (684, 687), (688, 695), (695, 696)]</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
+        <is>
+          <t>[1915, 1822, 871, 1597, 1554, 773, 982, 736, 560, 1282, 269, 1431, 773, 1678, 719, 661, 408, 1833, 917, 1935, 495, 1396, 773, 1372, 719, 1399, 408, 1180, 917, 269, 773, 1485, 1576, 485, 1822, 420, 49, 1895, 126, 371, 1282, 675, 126, 1838, 1431, 690, 1815, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6499,7 +7264,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[620, 1839, 177, 592, 299, 1008]</t>
+          <t>[302, 470, 1233, 1849, 815, 1538]</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6514,10 +7279,15 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[620, 1839, 177, 592, 299, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(697, 699), (700, 708), (709, 717), (713, 715), (721, 727), (727, 728)]</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
+        <is>
+          <t>[302, 470, 1233, 1849, 815, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6539,7 +7309,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[348, 80, 439, 1210, 1839, 1127, 230, 1068, 1181, 1008]</t>
+          <t>[1092, 174, 1823, 966, 470, 346, 126, 1214, 1532, 1538]</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6554,10 +7324,15 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[348, 80, 439, 1210, 1839, 1127, 230, 1068, 1181, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(734, 741), (742, 748), (749, 750), (751, 756), (757, 765), (766, 775), (776, 778), (779, 780), (781, 785), (785, 786)]</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
+        <is>
+          <t>[1092, 174, 1823, 966, 470, 346, 126, 1214, 1532, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6579,7 +7354,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[1514, 1608, 439, 1122, 1118, 1008]</t>
+          <t>[1320, 1342, 1823, 1184, 249, 1538]</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6594,10 +7369,15 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[1514, 1608, 439, 1122, 1118, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(791, 794), (795, 797), (798, 799), (800, 802), (803, 809), (809, 810)]</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
+        <is>
+          <t>[1320, 1342, 1823, 1184, 249, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6619,7 +7399,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[932, 1608, 1008]</t>
+          <t>[1476, 1342, 1538]</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6634,10 +7414,15 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[932, 1608, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(811, 813), (814, 816), (816, 817)]</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
+        <is>
+          <t>[1476, 1342, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6659,7 +7444,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[414, 1035, 439, 634, 592, 179, 72, 312, 194, 670, 151, 1428, 230, 670, 455, 92, 387, 1006, 524, 1008]</t>
+          <t>[1551, 674, 1823, 394, 1849, 619, 1345, 984, 1523, 49, 1884, 773, 126, 49, 352, 1321, 1822, 899, 621, 1538]</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6674,10 +7459,15 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[414, 1035, 439, 634, 592, 179, 72, 312, 194, 670, 151, 1428, 230, 670, 455, 92, 387, 1006, 524, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(821, 824), (825, 827), (828, 829), (830, 837), (838, 840), (841, 857), (858, 865), (866, 877), (878, 880), (881, 882), (883, 893), (893, 894), (895, 897), (898, 899), (900, 905), (906, 909), (910, 912), (913, 918), (919, 922), (922, 923)]</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
+        <is>
+          <t>[1551, 674, 1823, 394, 1849, 619, 1345, 984, 1523, 49, 1884, 773, 126, 49, 352, 1321, 1822, 899, 621, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6699,7 +7489,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[43, 1428, 1624, 1905, 444, 1317, 1008]</t>
+          <t>[808, 773, 813, 1597, 1028, 1590, 1538]</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6714,10 +7504,15 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[43, 1428, 1624, 1905, 444, 1317, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(924, 930), (930, 931), (932, 937), (938, 942), (943, 946), (947, 953), (953, 954)]</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
+        <is>
+          <t>[808, 773, 813, 1597, 1028, 1590, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6739,7 +7534,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[856, 1035, 439, 1511, 1525, 1030, 20, 556, 1180, 1705, 1863, 47, 1008]</t>
+          <t>[1825, 674, 1823, 1605, 635, 415, 542, 290, 497, 736, 1516, 1231, 1538]</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6754,10 +7549,15 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[856, 1035, 439, 1511, 1525, 1030, 20, 556, 1180, 1705, 1863, 47, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(959, 962), (963, 965), (966, 967), (968, 969), (970, 978), (979, 982), (983, 985), (986, 990), (991, 993), (994, 996), (997, 1000), (1001, 1006), (1006, 1007)]</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
+        <is>
+          <t>[1825, 674, 1823, 1605, 635, 415, 542, 290, 497, 736, 1516, 1231, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6779,7 +7579,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[1815, 1525, 1030, 1651, 1026, 1905, 647, 1008]</t>
+          <t>[318, 635, 415, 1914, 1881, 1597, 1906, 1538]</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6794,10 +7594,15 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[1815, 1525, 1030, 1651, 1026, 1905, 647, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1008, 1009), (1010, 1018), (1019, 1022), (1023, 1025), (1025, 1027), (1028, 1032), (1033, 1036), (1036, 1037)]</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
+        <is>
+          <t>[318, 635, 415, 1914, 1881, 1597, 1906, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6819,7 +7624,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[1575, 1317, 1428, 1345, 1008]</t>
+          <t>[1084, 1590, 773, 1542, 1538]</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6834,10 +7639,15 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[1575, 1317, 1428, 1345, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1038, 1039), (1040, 1046), (1046, 1047), (1048, 1055), (1055, 1056)]</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
+        <is>
+          <t>[1084, 1590, 773, 1542, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6859,7 +7669,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[266, 439, 932, 843, 1389, 747, 1008]</t>
+          <t>[1548, 1823, 1476, 459, 274, 1845, 1538]</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6874,10 +7684,15 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[266, 439, 932, 843, 1389, 747, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1060, 1063), (1064, 1065), (1066, 1068), (1069, 1071), (1072, 1074), (1075, 1078), (1078, 1079)]</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
+        <is>
+          <t>[1548, 1823, 1476, 459, 274, 1845, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6899,7 +7714,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[932, 1933, 1389, 1269, 1608, 1008]</t>
+          <t>[1476, 1010, 274, 1175, 1342, 1538]</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6914,10 +7729,15 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[932, 1933, 1389, 1269, 1608, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1080, 1082), (1083, 1085), (1086, 1088), (1089, 1091), (1092, 1094), (1094, 1095)]</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
+        <is>
+          <t>[1476, 1010, 274, 1175, 1342, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6939,7 +7759,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[320, 157, 15, 1447, 1399, 1560, 137, 1008]</t>
+          <t>[920, 890, 258, 1736, 690, 1645, 80, 1538]</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6954,10 +7774,15 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[320, 157, 15, 1447, 1399, 1560, 137, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1096, 1099), (1100, 1105), (1106, 1113), (1114, 1122), (1123, 1126), (1127, 1130), (1131, 1133), (1133, 1134)]</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
+        <is>
+          <t>[920, 890, 258, 1736, 690, 1645, 80, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -6979,7 +7804,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[649, 443, 1904, 1352, 348, 1495, 1569, 615, 83, 963, 1311, 529, 62, 936, 592, 1044, 1627, 1213, 1547, 137, 495, 155, 1014, 643, 1756, 1569, 134, 567, 306, 526, 1480, 753, 648, 113, 926, 723, 296, 1547, 1051, 704, 990, 1547, 495, 1885, 456, 1480, 495, 439, 1224, 482, 975, 1480, 1083, 670, 801, 962, 1213, 292, 196, 1129, 1873, 1156, 1428, 1158, 271, 1091, 1304, 129, 1553, 1567, 12, 1905, 1134, 1008]</t>
+          <t>[1767, 1635, 1140, 15, 1092, 1675, 410, 1598, 665, 568, 980, 273, 157, 1640, 1849, 538, 516, 1469, 1778, 80, 1775, 1463, 488, 1507, 1197, 410, 264, 1370, 525, 1300, 1773, 197, 1835, 465, 1728, 1943, 427, 1778, 1107, 324, 1312, 1778, 1775, 629, 1438, 1773, 1775, 1823, 1087, 1003, 1530, 1773, 96, 49, 1748, 110, 1469, 146, 886, 759, 719, 1399, 773, 932, 71, 1497, 770, 856, 1855, 1639, 1048, 1597, 949, 1538]</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6994,10 +7819,15 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[649, 443, 1904, 1352, 348, 1495, 1569, 615, 83, 963, 1311, 529, 62, 936, 592, 1044, 1627, 1213, 1547, 137, 495, 155, 1014, 643, 1756, 1569, 134, 567, 306, 526, 1480, 753, 648, 113, 926, 723, 296, 1547, 1051, 704, 990, 1547, 495, 1885, 456, 1480, 495, 439, 1224, 482, 975, 1480, 1083, 670, 801, 962, 1213, 292, 196, 1129, 1873, 1156, 1428, 1158, 271, 1091, 1304, 129, 1553, 1567, 12, 1905, 1134, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1138, 1146), (1148, 1152), (1153, 1158), (1161, 1169), (1172, 1179), (1180, 1190), (1191, 1192), (1193, 1195), (1197, 1209), (1215, 1221), (1222, 1233), (1235, 1244), (1245, 1252), (1253, 1263), (1264, 1266), (1267, 1271), (1274, 1280), (1281, 1285), (1286, 1296), (1297, 1299), (1300, 1304), (1307, 1318), (1319, 1329), (1330, 1333), (1334, 1343), (1343, 1344), (1345, 1346), (1346, 1349), (1351, 1357), (1358, 1362), (1363, 1373), (1374, 1377), (1380, 1391), (1392, 1397), (1398, 1408), (1409, 1414), (1417, 1426), (1427, 1437), (1438, 1452), (1455, 1458), (1459, 1464), (1465, 1475), (1476, 1480), (1483, 1488), (1489, 1495), (1496, 1506), (1507, 1511), (1512, 1513), (1514, 1522), (1525, 1532), (1533, 1539), (1540, 1550), (1551, 1556), (1557, 1558), (1559, 1565), (1568, 1574), (1575, 1579), (1580, 1590), (1591, 1593), (1594, 1600), (1601, 1604), (1605, 1611), (1611, 1612), (1613, 1617), (1618, 1621), (1622, 1624), (1625, 1628), (1629, 1633), (1635, 1648), (1649, 1659), (1660, 1669), (1670, 1674), (1675, 1682), (1682, 1683)]</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
+        <is>
+          <t>[1767, 1635, 1140, 15, 1092, 1675, 410, 1598, 665, 568, 980, 273, 157, 1640, 1849, 538, 516, 1469, 1778, 80, 1775, 1463, 488, 1507, 1197, 410, 264, 1370, 525, 1300, 1773, 197, 1835, 465, 1728, 1943, 427, 1778, 1107, 324, 1312, 1778, 1775, 629, 1438, 1773, 1775, 1823, 1087, 1003, 1530, 1773, 96, 49, 1748, 110, 1469, 146, 886, 759, 719, 1399, 773, 932, 71, 1497, 770, 856, 1855, 1639, 1048, 1597, 949, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7019,7 +7849,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[153, 1463, 1501, 1434, 159, 1824, 1295, 390, 1548, 1801, 879, 135, 1143, 68, 1547, 724, 1510, 1213, 1014, 748, 1060, 1873, 1156, 495, 1379, 55, 526, 1567, 323, 1873, 618, 128, 1441, 1428, 869, 1489, 917, 768, 1871, 616, 271, 472, 1091, 866, 1872, 186, 792, 1758, 1014, 1757, 234, 1014, 9, 1756, 1569, 134, 864, 339, 926, 1566, 934, 1868, 1547, 934, 1868, 933, 1431, 594, 1420, 965, 845, 926, 1040, 1097, 1932, 1213, 1547, 495, 7, 1014, 835, 283, 1420, 1499, 845, 926, 297, 1229, 1659, 1140, 1896, 1460, 1655, 134, 134, 119, 1131, 1524, 1524, 1480, 806, 75, 1420, 172, 845, 1879, 1428, 1189, 225, 1118, 1420, 1128, 1519, 845, 279, 1403, 1189, 225, 688, 1394, 756, 1921, 425, 220, 233, 938, 528, 321, 1428, 105, 1189, 225, 85, 314, 403, 1189, 225, 1538, 1420, 330, 845, 1114, 508, 281, 1575, 1721, 1420, 1899, 845, 1189, 677, 851, 1420, 415, 845, 470, 1806, 281, 1575, 1915, 1420, 1899, 845, 1189, 225, 1752, 1420, 1332, 1230, 845, 1145, 508, 281, 1575, 1721, 1420, 1899, 845, 1189, 225, 512, 1420, 221, 845, 1767, 508, 281, 1575, 1721, 1420, 1899, 845, 1189, 225, 569, 432, 1120, 976, 1318, 827, 364, 1575, 1334, 1340, 1428, 303, 1572, 1074, 1588, 1557, 1008]</t>
+          <t>[295, 192, 478, 1422, 901, 1709, 1193, 530, 915, 1556, 833, 423, 1575, 319, 1778, 1730, 1534, 1469, 488, 1690, 609, 719, 1399, 1775, 793, 1163, 1300, 1639, 259, 719, 661, 25, 86, 773, 1407, 1809, 1396, 1255, 687, 1679, 71, 228, 1497, 590, 316, 1520, 571, 203, 488, 1701, 1174, 488, 560, 1197, 410, 264, 10, 1892, 1728, 442, 836, 584, 1778, 836, 584, 1257, 1834, 1014, 1282, 1618, 1431, 1728, 325, 830, 1761, 1469, 1778, 1775, 149, 488, 1127, 125, 1282, 1917, 1431, 1728, 1685, 1181, 1114, 1243, 918, 164, 171, 264, 264, 1229, 1763, 433, 433, 1773, 1610, 371, 1282, 426, 1431, 1226, 773, 257, 556, 249, 1282, 1465, 1858, 1431, 883, 951, 257, 556, 381, 382, 1373, 1252, 861, 1581, 557, 130, 971, 1055, 773, 118, 257, 556, 1785, 114, 846, 257, 556, 1815, 1282, 723, 1431, 1511, 672, 151, 1084, 1829, 1282, 654, 1431, 257, 992, 1512, 1282, 1039, 1431, 1195, 1696, 151, 1084, 1458, 1282, 654, 1431, 257, 556, 978, 1282, 1249, 1303, 1431, 166, 672, 151, 1084, 1829, 1282, 654, 1431, 257, 556, 184, 1282, 1436, 1431, 704, 672, 151, 1084, 1829, 1282, 654, 1431, 257, 556, 963, 683, 1095, 1720, 659, 52, 457, 1084, 229, 725, 773, 750, 460, 408, 42, 1568, 1538]</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7034,10 +7864,15 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>[153, 1463, 1501, 1434, 159, 1824, 1295, 390, 1548, 1801, 879, 135, 1143, 68, 1547, 724, 1510, 1213, 1014, 748, 1060, 1873, 1156, 495, 1379, 55, 526, 1567, 323, 1873, 618, 128, 1441, 1428, 869, 1489, 917, 768, 1871, 616, 271, 472, 1091, 866, 1872, 186, 792, 1758, 1014, 1757, 234, 1014, 9, 1756, 1569, 134, 864, 339, 926, 1566, 934, 1868, 1547, 934, 1868, 933, 1431, 594, 1420, 965, 845, 926, 1040, 1097, 1932, 1213, 1547, 495, 7, 1014, 835, 283, 1420, 1499, 845, 926, 297, 1229, 1659, 1140, 1896, 1460, 1655, 134, 134, 119, 1131, 1524, 1524, 1480, 806, 75, 1420, 172, 845, 1879, 1428, 1189, 225, 1118, 1420, 1128, 1519, 845, 279, 1403, 1189, 225, 688, 1394, 756, 1921, 425, 220, 233, 938, 528, 321, 1428, 105, 1189, 225, 85, 314, 403, 1189, 225, 1538, 1420, 330, 845, 1114, 508, 281, 1575, 1721, 1420, 1899, 845, 1189, 677, 851, 1420, 415, 845, 470, 1806, 281, 1575, 1915, 1420, 1899, 845, 1189, 225, 1752, 1420, 1332, 1230, 845, 1145, 508, 281, 1575, 1721, 1420, 1899, 845, 1189, 225, 512, 1420, 221, 845, 1767, 508, 281, 1575, 1721, 1420, 1899, 845, 1189, 225, 569, 432, 1120, 976, 1318, 827, 364, 1575, 1334, 1340, 1428, 303, 1572, 1074, 1588, 1557, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1684, 1687), (1688, 1693), (1694, 1701), (1704, 1714), (1715, 1725), (1726, 1734), (1735, 1739), (1740, 1742), (1743, 1747), (1748, 1751), (1752, 1755), (1756, 1766), (1767, 1774), (1776, 1787), (1788, 1798), (1799, 1806), (1809, 1816), (1817, 1821), (1822, 1832), (1833, 1837), (1838, 1840), (1841, 1844), (1845, 1851), (1852, 1856), (1857, 1866), (1869, 1877), (1878, 1882), (1883, 1893), (1894, 1897), (1898, 1901), (1902, 1908), (1909, 1913), (1914, 1916), (1916, 1917), (1918, 1923), (1924, 1929), (1930, 1936), (1939, 1944), (1945, 1952), (1953, 1963), (1964, 1967), (1968, 1974), (1975, 1977), (1978, 1985), (1988, 1990), (1991, 1998), (1999, 2009), (2012, 2025), (2026, 2036), (2037, 2039), (2042, 2057), (2058, 2068), (2069, 2071), (2072, 2081), (2081, 2082), (2083, 2084), (2084, 2087), (2089, 2101), (2102, 2112), (2113, 2117), (2120, 2124), (2125, 2132), (2133, 2143), (2144, 2148), (2149, 2156), (2157, 2166), (2167, 2172), (2175, 2178), (2179, 2180), (2180, 2190), (2190, 2191), (2192, 2202), (2203, 2207), (2210, 2218), (2219, 2227), (2228, 2232), (2233, 2243), (2244, 2248), (2251, 2266), (2267, 2277), (2278, 2280), (2283, 2286), (2287, 2288), (2288, 2298), (2298, 2299), (2300, 2310), (2311, 2315), (2318, 2323), (2324, 2334), (2335, 2342), (2343, 2346), (2347, 2350), (2351, 2358), (2360, 2361), (2361, 2362), (2363, 2366), (2367, 2371), (2372, 2373), (2373, 2374), (2375, 2385), (2392, 2403), (2405, 2411), (2412, 2413), (2413, 2422), (2422, 2423), (2424, 2429), (2429, 2430), (2431, 2433), (2434, 2436), (2438, 2444), (2445, 2446), (2446, 2460), (2461, 2464), (2464, 2465), (2466, 2468), (2469, 2471), (2472, 2474), (2475, 2477), (2479, 2486), (2487, 2490), (2491, 2496), (2497, 2499), (2500, 2505), (2506, 2508), (2509, 2512), (2514, 2519), (2520, 2524), (2525, 2528), (2528, 2529), (2530, 2531), (2532, 2534), (2535, 2537), (2539, 2544), (2545, 2547), (2548, 2550), (2551, 2553), (2554, 2556), (2559, 2566), (2567, 2568), (2568, 2580), (2580, 2581), (2582, 2586), (2587, 2593), (2594, 2598), (2599, 2600), (2601, 2607), (2607, 2608), (2608, 2609), (2609, 2610), (2611, 2613), (2614, 2617), (2620, 2624), (2625, 2626), (2626, 2645), (2645, 2646), (2647, 2653), (2654, 2661), (2662, 2666), (2667, 2668), (2669, 2676), (2676, 2677), (2677, 2678), (2678, 2679), (2680, 2682), (2683, 2685), (2688, 2691), (2692, 2693), (2693, 2708), (2709, 2713), (2713, 2714), (2715, 2719), (2720, 2726), (2727, 2731), (2732, 2733), (2734, 2740), (2740, 2741), (2741, 2742), (2742, 2743), (2744, 2746), (2747, 2749), (2752, 2759), (2760, 2761), (2761, 2771), (2771, 2772), (2773, 2776), (2777, 2783), (2784, 2788), (2789, 2790), (2791, 2797), (2797, 2798), (2798, 2799), (2799, 2800), (2801, 2803), (2804, 2806), (2809, 2812), (2813, 2820), (2821, 2829), (2830, 2834), (2835, 2838), (2839, 2842), (2843, 2845), (2846, 2847), (2848, 2855), (2856, 2859), (2860, 2861), (2862, 2865), (2866, 2869), (2870, 2873), (2874, 2881), (2882, 2892), (2892, 2893)]</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
+        <is>
+          <t>[295, 192, 478, 1422, 901, 1709, 1193, 530, 915, 1556, 833, 423, 1575, 319, 1778, 1730, 1534, 1469, 488, 1690, 609, 719, 1399, 1775, 793, 1163, 1300, 1639, 259, 719, 661, 25, 86, 773, 1407, 1809, 1396, 1255, 687, 1679, 71, 228, 1497, 590, 316, 1520, 571, 203, 488, 1701, 1174, 488, 560, 1197, 410, 264, 10, 1892, 1728, 442, 836, 584, 1778, 836, 584, 1257, 1834, 1014, 1282, 1618, 1431, 1728, 325, 830, 1761, 1469, 1778, 1775, 149, 488, 1127, 125, 1282, 1917, 1431, 1728, 1685, 1181, 1114, 1243, 918, 164, 171, 264, 264, 1229, 1763, 433, 433, 1773, 1610, 371, 1282, 426, 1431, 1226, 773, 257, 556, 249, 1282, 1465, 1858, 1431, 883, 951, 257, 556, 381, 382, 1373, 1252, 861, 1581, 557, 130, 971, 1055, 773, 118, 257, 556, 1785, 114, 846, 257, 556, 1815, 1282, 723, 1431, 1511, 672, 151, 1084, 1829, 1282, 654, 1431, 257, 992, 1512, 1282, 1039, 1431, 1195, 1696, 151, 1084, 1458, 1282, 654, 1431, 257, 556, 978, 1282, 1249, 1303, 1431, 166, 672, 151, 1084, 1829, 1282, 654, 1431, 257, 556, 184, 1282, 1436, 1431, 704, 672, 151, 1084, 1829, 1282, 654, 1431, 257, 556, 963, 683, 1095, 1720, 659, 52, 457, 1084, 229, 725, 773, 750, 460, 408, 42, 1568, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7059,7 +7894,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[631, 713, 827, 275, 515, 214, 1536, 1403, 1189, 225, 638, 163, 1102, 1569, 641, 1091, 408, 1711, 519, 620, 1291, 1428, 61, 1799, 1428, 493, 1564, 920, 1068, 115, 439, 1123, 1428, 1637, 1141, 1167, 1587, 1904, 1008]</t>
+          <t>[170, 38, 52, 103, 1289, 450, 543, 951, 257, 556, 1089, 827, 1410, 410, 27, 1497, 1211, 1798, 1874, 302, 526, 773, 1268, 245, 773, 610, 219, 1683, 1214, 1833, 1823, 853, 773, 472, 1742, 1528, 487, 1140, 1538]</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7074,10 +7909,15 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[631, 713, 827, 275, 515, 214, 1536, 1403, 1189, 225, 638, 163, 1102, 1569, 641, 1091, 408, 1711, 519, 620, 1291, 1428, 61, 1799, 1428, 493, 1564, 920, 1068, 115, 439, 1123, 1428, 1637, 1141, 1167, 1587, 1904, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2894, 2900), (2901, 2907), (2908, 2911), (2912, 2914), (2915, 2918), (2920, 2928), (2929, 2931), (2932, 2934), (2935, 2937), (2938, 2940), (2945, 2954), (2956, 2960), (2965, 2967), (2967, 2968), (2969, 2974), (2975, 2977), (2978, 2981), (2985, 2990), (2991, 2996), (2998, 3000), (3001, 3007), (3007, 3008), (3009, 3010), (3011, 3013), (3013, 3014), (3015, 3017), (3018, 3021), (3022, 3024), (3028, 3029), (3030, 3034), (3035, 3036), (3037, 3049), (3049, 3050), (3051, 3055), (3056, 3064), (3065, 3068), (3069, 3079), (3080, 3085), (3085, 3086)]</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
+        <is>
+          <t>[170, 38, 52, 103, 1289, 450, 543, 951, 257, 556, 1089, 827, 1410, 410, 27, 1497, 1211, 1798, 1874, 302, 526, 773, 1268, 245, 773, 610, 219, 1683, 1214, 1833, 1823, 853, 773, 472, 1742, 1528, 487, 1140, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7099,7 +7939,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[659, 1569, 581, 1068, 115, 1034, 1008]</t>
+          <t>[284, 410, 387, 1214, 1833, 868, 1538]</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7114,10 +7954,15 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[659, 1569, 581, 1068, 115, 1034, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3090, 3093), (3093, 3094), (3095, 3102), (3103, 3104), (3105, 3109), (3110, 3115), (3115, 3116)]</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
+        <is>
+          <t>[284, 410, 387, 1214, 1833, 868, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7139,7 +7984,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[885, 1569, 1788, 387, 1929, 1826, 1071, 1428, 55, 1420, 1873, 618, 845, 1399, 1873, 1819, 1602, 209, 110, 1719, 424, 1714, 612, 1428, 1395]</t>
+          <t>[320, 410, 1731, 1822, 91, 860, 696, 773, 1163, 1282, 719, 661, 1431, 690, 719, 1037, 891, 1693, 180, 35, 934, 533, 1338, 773, 1596]</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7154,10 +7999,15 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>[885, 1569, 1788, 387, 1929, 1826, 1071, 1428, 55, 1420, 1873, 618, 845, 1399, 1873, 1819, 1602, 209, 110, 1719, 424, 1714, 612, 1428, 1395, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3120, 3124), (3124, 3125), (3126, 3131), (3132, 3134), (3135, 3143), (3153, 3160), (3161, 3163), (3163, 3164), (3165, 3173), (3174, 3175), (3175, 3178), (3179, 3185), (3185, 3186), (3187, 3190), (3191, 3194), (3195, 3204), (3214, 3222), (3223, 3233), (3234, 3238), (3244, 3274), (3308, 3311), (3312, 3314), (3315, 3319), (3319, 3320), (3321, 3323)]</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
+        <is>
+          <t>[320, 410, 1731, 1822, 91, 860, 696, 773, 1163, 1282, 719, 661, 1431, 690, 719, 1037, 891, 1693, 180, 35, 934, 533, 1338, 773, 1596, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7179,7 +8029,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 589, 1750, 170, 270, 253, 966, 1929, 972, 1453, 1693, 1569, 1867, 1428, 1722, 72, 779, 603, 1569, 811, 279, 1421, 1412, 1569, 1530, 1750, 1705, 972, 1569, 1784, 807, 1072, 1569, 424, 612, 902, 509, 1569, 931, 964, 596, 797, 1569, 922, 1094, 1569, 1693, 1428, 72, 779, 1147, 1569, 340, 1121, 1742, 889, 1252, 657, 1428, 1625, 1068, 115, 1904, 940, 1336, 1428, 584, 1008]</t>
+          <t>[330, 871, 410, 1133, 379, 678, 209, 1182, 1637, 91, 819, 137, 329, 410, 761, 773, 699, 1345, 330, 395, 410, 105, 883, 1623, 703, 410, 181, 379, 736, 819, 410, 155, 54, 467, 410, 934, 1338, 945, 143, 410, 660, 493, 1898, 577, 410, 303, 1876, 410, 329, 773, 1345, 330, 332, 410, 1752, 503, 906, 61, 1265, 1065, 773, 1169, 1214, 1833, 1140, 1863, 1747, 773, 771, 1538]</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7189,17 +8039,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 10, 16, 16, 1, 1, 1, 1, 2, 24, 24, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 4, 13, 1, 1, 1, 4, 13, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 25, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 15, 19, 19, 1, 1, 1, 1, 17, 24, 24, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 2, 16, 1, 1, 1, 2, 16, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[779, 229, 1569, 589, 1750, 170, 270, 253, 966, 1929, 972, 1453, 1693, 1569, 1867, 1428, 1722, 72, 779, 603, 1569, 811, 279, 1421, 1412, 1569, 1530, 1750, 1705, 972, 1569, 1784, 807, 1072, 1569, 424, 612, 902, 509, 1569, 931, 964, 596, 797, 1569, 922, 1094, 1569, 1693, 1428, 72, 779, 1147, 1569, 340, 1121, 1742, 889, 1252, 657, 1428, 1625, 1068, 115, 1904, 940, 1336, 1428, 584, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3, 9), (10, 14), (14, 15), (16, 26), (28, 32), (33, 40), (41, 45), (46, 52), (53, 61), (62, 70), (71, 80), (81, 85), (87, 94), (94, 95), (96, 102), (102, 103), (104, 111), (112, 119), (120, 126), (127, 133), (133, 134), (135, 138), (139, 141), (142, 144), (145, 149), (149, 150), (151, 156), (157, 161), (162, 164), (165, 174), (174, 175), (176, 183), (184, 193), (194, 203), (203, 204), (205, 208), (209, 213), (214, 223), (224, 230), (230, 231), (232, 238), (239, 245), (246, 250), (251, 257), (257, 258), (259, 263), (265, 271), (271, 272), (273, 280), (280, 281), (282, 289), (290, 296), (298, 303), (303, 304), (305, 310), (311, 314), (315, 317), (318, 320), (321, 331), (332, 342), (342, 343), (344, 351), (352, 353), (354, 358), (359, 364), (365, 368), (369, 372), (372, 373), (374, 387), (387, 388)]</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 8, 1, 8, 1, 1, 1, 1, 1, 1, 1, 1, 10, 16, 16, 1, 1, 1, 1, 2, 24, 24, 1, 1, 1, 1, 1, 1, 1, 8, 1, 1, 1, 4, 13, 1, 1, 1, 4, 13, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[330, 871, 410, 1133, 379, 678, 209, 1182, 1637, 91, 819, 137, 329, 410, 761, 773, 699, 1345, 330, 395, 410, 105, 883, 1623, 703, 410, 181, 379, 736, 819, 410, 155, 54, 467, 410, 934, 1338, 945, 143, 410, 660, 493, 1898, 577, 410, 303, 1876, 410, 329, 773, 1345, 330, 332, 410, 1752, 503, 906, 61, 1265, 1065, 773, 1169, 1214, 1833, 1140, 1863, 1747, 773, 771, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>[1, 1, 1, 25, 1, 25, 1, 1, 1, 1, 1, 1, 1, 1, 15, 19, 19, 1, 1, 1, 1, 17, 24, 24, 1, 1, 1, 1, 1, 1, 1, 25, 1, 1, 1, 2, 16, 1, 1, 1, 2, 16, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -7219,7 +8074,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[404, 1705, 523, 382, 1569, 1693, 741, 1706, 479, 980, 799, 387, 1619, 1428, 730, 1046, 42, 1259, 1428, 1112, 889, 721, 952, 1428, 1115, 689, 1008]</t>
+          <t>[1199, 736, 1616, 1588, 410, 329, 78, 1176, 310, 1619, 1227, 1822, 1005, 773, 1459, 138, 1364, 1694, 773, 1165, 61, 1860, 679, 773, 985, 1462, 1538]</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7234,10 +8089,15 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[404, 1705, 523, 382, 1569, 1693, 741, 1706, 479, 980, 799, 387, 1619, 1428, 730, 1046, 42, 1259, 1428, 1112, 889, 721, 952, 1428, 1115, 689, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(390, 397), (398, 400), (401, 408), (409, 416), (416, 417), (420, 427), (428, 435), (436, 440), (441, 446), (447, 449), (450, 455), (456, 458), (459, 468), (468, 469), (470, 473), (474, 477), (478, 489), (490, 496), (496, 497), (498, 506), (507, 509), (510, 514), (515, 522), (522, 523), (524, 544), (545, 551), (551, 552)]</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
+        <is>
+          <t>[1199, 736, 1616, 1588, 410, 329, 78, 1176, 310, 1619, 1227, 1822, 1005, 773, 1459, 138, 1364, 1694, 773, 1165, 61, 1860, 679, 773, 985, 1462, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7259,7 +8119,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[153, 741, 604, 689, 1428, 1075, 1008]</t>
+          <t>[295, 78, 1529, 1462, 773, 539, 1538]</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7274,10 +8134,15 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[153, 741, 604, 689, 1428, 1075, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(554, 557), (558, 565), (566, 570), (571, 577), (577, 578), (579, 587), (587, 588)]</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
+        <is>
+          <t>[295, 78, 1529, 1462, 773, 539, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7299,7 +8164,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[1406, 1863, 166, 1428, 730, 1046, 682, 63, 1091, 820, 1705, 746, 844, 741, 1425, 1305, 1705, 1697, 1420, 1863, 609, 226, 1902, 1046, 11, 1091, 1478, 882, 1428, 1299, 1074, 444, 845, 1008]</t>
+          <t>[260, 1516, 744, 773, 1459, 138, 57, 1124, 1497, 1158, 736, 1649, 566, 78, 1369, 1368, 736, 685, 1282, 1516, 1772, 1006, 51, 138, 595, 1497, 268, 634, 773, 586, 408, 1028, 1431, 1538]</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7314,10 +8179,15 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[1406, 1863, 166, 1428, 730, 1046, 682, 63, 1091, 820, 1705, 746, 844, 741, 1425, 1305, 1705, 1697, 1420, 1863, 609, 226, 1902, 1046, 11, 1091, 1478, 882, 1428, 1299, 1074, 444, 845, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(590, 592), (593, 596), (597, 601), (601, 602), (603, 606), (607, 610), (611, 618), (619, 627), (628, 630), (631, 638), (639, 641), (642, 654), (654, 655), (656, 663), (664, 669), (670, 676), (677, 679), (680, 684), (685, 686), (686, 689), (690, 693), (694, 700), (701, 703), (704, 707), (708, 712), (713, 715), (716, 720), (721, 726), (726, 727), (728, 734), (735, 738), (739, 742), (742, 743), (743, 744)]</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
+        <is>
+          <t>[260, 1516, 744, 773, 1459, 138, 57, 1124, 1497, 1158, 736, 1649, 566, 78, 1369, 1368, 736, 685, 1282, 1516, 1772, 1006, 51, 138, 595, 1497, 268, 634, 773, 586, 408, 1028, 1431, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7339,7 +8209,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[868, 1804, 544, 1428, 1253, 730, 1046, 89, 130, 387, 1023, 1008]</t>
+          <t>[349, 1824, 1625, 773, 1456, 1459, 138, 1073, 1574, 1822, 1417, 1538]</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7354,10 +8224,15 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[868, 1804, 544, 1428, 1253, 730, 1046, 89, 130, 387, 1023, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(746, 752), (753, 758), (759, 766), (766, 767), (768, 771), (772, 775), (776, 779), (780, 795), (796, 803), (804, 806), (807, 820), (820, 821)]</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
+        <is>
+          <t>[349, 1824, 1625, 773, 1456, 1459, 138, 1073, 1574, 1822, 1417, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7379,7 +8254,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[1693, 741, 1068, 82, 1904, 491, 1500, 1587, 198, 479, 1153, 1008]</t>
+          <t>[329, 78, 1214, 701, 1140, 1617, 1856, 487, 443, 310, 574, 1538]</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7394,10 +8269,15 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[1693, 741, 1068, 82, 1904, 491, 1500, 1587, 198, 479, 1153, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(823, 830), (831, 838), (839, 840), (841, 848), (849, 854), (855, 858), (859, 866), (867, 877), (878, 882), (883, 888), (889, 893), (893, 894)]</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
+        <is>
+          <t>[329, 78, 1214, 701, 1140, 1617, 1856, 487, 443, 310, 574, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7419,7 +8299,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[153, 288, 1715, 1119, 422, 391, 844, 1580, 1059, 1428, 815, 889, 1773, 1199, 1654, 832, 1008]</t>
+          <t>[295, 1260, 153, 477, 21, 1514, 566, 1821, 702, 773, 1665, 61, 506, 1899, 637, 1077, 1538]</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7434,10 +8314,15 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[153, 288, 1715, 1119, 422, 391, 844, 1580, 1059, 1428, 815, 889, 1773, 1199, 1654, 832, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(896, 899), (900, 908), (909, 914), (915, 918), (919, 926), (927, 931), (931, 932), (933, 937), (938, 946), (946, 947), (948, 956), (957, 959), (960, 963), (964, 973), (974, 981), (982, 984), (984, 985)]</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
+        <is>
+          <t>[295, 1260, 153, 477, 21, 1514, 566, 1821, 702, 773, 1665, 61, 506, 1899, 637, 1077, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7459,7 +8344,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[1406, 1863, 204, 1428, 848, 1569, 1279, 334, 1809, 1010, 537, 1916, 358, 1008]</t>
+          <t>[260, 1516, 1112, 773, 385, 410, 1547, 1796, 1931, 40, 1443, 726, 1652, 1538]</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7474,10 +8359,15 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[1406, 1863, 204, 1428, 848, 1569, 1279, 334, 1809, 1010, 537, 1916, 358, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(989, 991), (992, 995), (996, 998), (998, 999), (1000, 1002), (1002, 1003), (1004, 1009), (1010, 1014), (1015, 1023), (1024, 1028), (1029, 1036), (1036, 1037), (1037, 1039), (1039, 1040)]</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
+        <is>
+          <t>[260, 1516, 1112, 773, 385, 410, 1547, 1796, 1931, 40, 1443, 726, 1652, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7499,7 +8389,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[1213, 1119, 1236, 1074, 1068, 115, 1904, 1428, 1372, 1364, 224, 1426, 1008]</t>
+          <t>[1469, 477, 239, 408, 1214, 1833, 1140, 773, 838, 1691, 262, 666, 1538]</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7514,10 +8404,15 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[1213, 1119, 1236, 1074, 1068, 115, 1904, 1428, 1372, 1364, 224, 1426, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1042, 1046), (1047, 1050), (1051, 1061), (1062, 1065), (1066, 1067), (1068, 1072), (1073, 1078), (1078, 1079), (1080, 1083), (1084, 1092), (1093, 1101), (1102, 1110), (1110, 1111)]</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
+        <is>
+          <t>[1469, 477, 239, 408, 1214, 1833, 1140, 773, 838, 1691, 262, 666, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7539,7 +8434,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[1906, 800, 1299, 1256, 1765, 1428, 795, 977, 1428, 1238, 889, 855, 114, 1008]</t>
+          <t>[1352, 1408, 586, 1403, 1052, 773, 1156, 1157, 773, 1049, 61, 1841, 276, 1538]</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7554,10 +8449,15 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[1906, 800, 1299, 1256, 1765, 1428, 795, 977, 1428, 1238, 889, 855, 114, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1113, 1117), (1118, 1124), (1125, 1131), (1132, 1137), (1138, 1141), (1141, 1142), (1143, 1150), (1151, 1154), (1154, 1155), (1156, 1159), (1160, 1162), (1163, 1165), (1166, 1173), (1173, 1174)]</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
+        <is>
+          <t>[1352, 1408, 586, 1403, 1052, 773, 1156, 1157, 773, 1049, 61, 1841, 276, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7579,7 +8479,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[453, 1705, 115, 1901, 517, 1705, 1863, 1865, 1587, 198, 230, 1068, 1428, 518, 889, 99, 1008]</t>
+          <t>[116, 736, 1833, 1336, 1797, 736, 1516, 1515, 487, 443, 126, 1214, 773, 1406, 61, 1341, 1538]</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7594,10 +8494,15 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[453, 1705, 115, 1901, 517, 1705, 1863, 1865, 1587, 198, 230, 1068, 1428, 518, 889, 99, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1176, 1181), (1182, 1184), (1185, 1189), (1190, 1202), (1203, 1214), (1215, 1217), (1218, 1221), (1222, 1225), (1226, 1236), (1237, 1241), (1242, 1244), (1245, 1246), (1246, 1247), (1248, 1256), (1257, 1259), (1260, 1264), (1264, 1265)]</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
+        <is>
+          <t>[116, 736, 1833, 1336, 1797, 736, 1516, 1515, 487, 443, 126, 1214, 773, 1406, 61, 1341, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7619,7 +8524,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[1693, 1119, 203, 35, 1428, 1266, 1074, 1259, 1008]</t>
+          <t>[329, 477, 1565, 281, 773, 693, 408, 1694, 1538]</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7634,10 +8539,15 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[1693, 1119, 203, 35, 1428, 1266, 1074, 1259, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1267, 1274), (1275, 1278), (1279, 1284), (1285, 1298), (1298, 1299), (1300, 1306), (1307, 1310), (1311, 1317), (1317, 1318)]</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
+        <is>
+          <t>[329, 477, 1565, 281, 773, 693, 408, 1694, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7659,7 +8569,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[1322, 1705, 1741, 1569, 824, 1068, 1182, 1117, 1428, 479, 980, 799, 1428, 1597, 1827, 1675, 1695, 1428, 1878, 889, 1124, 1042, 1008]</t>
+          <t>[1464, 736, 480, 410, 6, 1214, 1271, 965, 773, 310, 1619, 1227, 773, 1160, 1374, 402, 1276, 773, 196, 61, 1137, 778, 1538]</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7674,10 +8584,15 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[1322, 1705, 1741, 1569, 824, 1068, 1182, 1117, 1428, 479, 980, 799, 1428, 1597, 1827, 1675, 1695, 1428, 1878, 889, 1124, 1042, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1321, 1327), (1328, 1330), (1331, 1338), (1338, 1339), (1340, 1351), (1352, 1353), (1354, 1361), (1362, 1366), (1366, 1367), (1368, 1373), (1374, 1376), (1377, 1382), (1382, 1383), (1384, 1389), (1390, 1397), (1398, 1403), (1404, 1413), (1413, 1414), (1415, 1420), (1421, 1423), (1424, 1432), (1433, 1442), (1442, 1443)]</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
+        <is>
+          <t>[1464, 736, 480, 410, 6, 1214, 1271, 965, 773, 310, 1619, 1227, 773, 1160, 1374, 402, 1276, 773, 196, 61, 1137, 778, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7699,7 +8614,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[1473, 1428, 1075, 988, 970, 79, 1899, 1816, 387, 1358, 1074, 1068, 1365, 238, 1008]</t>
+          <t>[1430, 773, 539, 1561, 628, 1138, 654, 74, 1822, 1302, 408, 1214, 1784, 1309, 1538]</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7714,10 +8629,15 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[1473, 1428, 1075, 988, 970, 79, 1899, 1816, 387, 1358, 1074, 1068, 1365, 238, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1445, 1451), (1451, 1452), (1453, 1461), (1462, 1466), (1467, 1470), (1470, 1471), (1471, 1472), (1473, 1483), (1484, 1486), (1487, 1496), (1497, 1500), (1501, 1502), (1503, 1508), (1509, 1516), (1516, 1517)]</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
+        <is>
+          <t>[1430, 773, 539, 1561, 628, 1138, 654, 74, 1822, 1302, 408, 1214, 1784, 1309, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7739,7 +8659,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[1802, 452, 1008]</t>
+          <t>[1382, 675, 1538]</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7754,10 +8674,15 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[1802, 452, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1519, 1522), (1523, 1528), (1528, 1529)]</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
+        <is>
+          <t>[1382, 675, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7779,7 +8704,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[1787, 1875, 1008]</t>
+          <t>[464, 211, 1538]</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7794,10 +8719,15 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[1787, 1875, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1531, 1538), (1539, 1547), (1547, 1548)]</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
+        <is>
+          <t>[464, 211, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7819,7 +8749,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[1693, 1684, 1863, 1616, 63, 1008]</t>
+          <t>[329, 380, 1516, 129, 1124, 1538]</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7834,10 +8764,15 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[1693, 1684, 1863, 1616, 63, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1549, 1556), (1557, 1563), (1564, 1567), (1568, 1577), (1578, 1586), (1586, 1587)]</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
+        <is>
+          <t>[329, 380, 1516, 129, 1124, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7859,7 +8794,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[1942, 1569, 1424, 167, 1569, 74, 1446, 201, 999, 1569, 1917, 346, 1569, 1895, 1038, 735, 502, 1726, 1569, 449, 986, 580, 1269, 1569, 462, 1829, 1569, 1698, 1569, 473, 1736, 1129, 1008]</t>
+          <t>[1029, 410, 1813, 714, 410, 383, 481, 120, 1152, 410, 225, 414, 410, 1522, 1128, 929, 55, 29, 410, 528, 1896, 1804, 1175, 410, 546, 627, 410, 1383, 410, 1070, 230, 759, 1538]</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7874,10 +8809,15 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[1942, 1569, 1424, 167, 1569, 74, 1446, 201, 999, 1569, 1917, 346, 1569, 1895, 1038, 735, 502, 1726, 1569, 449, 986, 580, 1269, 1569, 462, 1829, 1569, 1698, 1569, 473, 1736, 1129, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1588, 1601), (1601, 1602), (1603, 1607), (1609, 1614), (1614, 1615), (1616, 1623), (1624, 1633), (1634, 1651), (1652, 1656), (1656, 1657), (1658, 1666), (1667, 1669), (1669, 1670), (1671, 1676), (1677, 1697), (1700, 1716), (1717, 1725), (1726, 1729), (1729, 1730), (1730, 1733), (1734, 1770), (1771, 1779), (1780, 1782), (1782, 1783), (1784, 1809), (1810, 1814), (1814, 1815), (1817, 1822), (1822, 1823), (1824, 1834), (1835, 1882), (1883, 1889), (1889, 1890)]</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
+        <is>
+          <t>[1029, 410, 1813, 714, 410, 383, 481, 120, 1152, 410, 225, 414, 410, 1522, 1128, 929, 55, 29, 410, 528, 1896, 1804, 1175, 410, 546, 627, 410, 1383, 410, 1070, 230, 759, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7899,7 +8839,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[1391, 1287, 404, 1569, 610, 1864, 657, 1428, 71, 1428, 1023, 868, 504, 595, 1873, 1819, 1860, 443, 961, 257, 1401, 1705, 837, 1428, 1385, 106, 1008]</t>
+          <t>[161, 1705, 1199, 410, 1191, 958, 1065, 773, 1902, 773, 1417, 349, 769, 243, 719, 1037, 1553, 1635, 1487, 90, 1326, 736, 624, 773, 1594, 160, 1538]</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7914,10 +8854,15 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[1391, 1287, 404, 1569, 610, 1864, 657, 1428, 71, 1428, 1023, 868, 504, 595, 1873, 1819, 1860, 443, 961, 257, 1401, 1705, 837, 1428, 1385, 106, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(1892, 1896), (1897, 1913), (1914, 1921), (1921, 1922), (1923, 1926), (1928, 1931), (1932, 1942), (1942, 1943), (1944, 1947), (1947, 1948), (1949, 1962), (1964, 1970), (1971, 1982), (1984, 1987), (1988, 1991), (1992, 2001), (2002, 2005), (2006, 2010), (2011, 2017), (2019, 2024), (2025, 2035), (2036, 2038), (2039, 2041), (2041, 2042), (2043, 2045), (2046, 2050), (2050, 2051)]</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
+        <is>
+          <t>[161, 1705, 1199, 410, 1191, 958, 1065, 773, 1902, 773, 1417, 349, 769, 243, 719, 1037, 1553, 1635, 1487, 90, 1326, 736, 624, 773, 1594, 160, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7939,7 +8884,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[171, 300, 1705, 1635, 1904, 592, 1587, 198, 1705, 1385, 1008]</t>
+          <t>[430, 490, 736, 347, 1140, 1849, 487, 443, 736, 1594, 1538]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7954,10 +8899,15 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[171, 300, 1705, 1635, 1904, 592, 1587, 198, 1705, 1385, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2052, 2057), (2058, 2069), (2070, 2072), (2073, 2084), (2085, 2090), (2091, 2093), (2094, 2104), (2105, 2109), (2110, 2112), (2113, 2115), (2115, 2116)]</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
+        <is>
+          <t>[430, 490, 736, 347, 1140, 1849, 487, 443, 736, 1594, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -7979,7 +8929,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[1068, 1365, 238, 587, 1569, 1153, 1604, 30, 1916, 844, 1383, 608, 1428, 1132, 1428, 1606, 781, 945, 1008]</t>
+          <t>[1214, 1784, 1309, 65, 410, 574, 1367, 1636, 726, 566, 1148, 417, 773, 1283, 773, 1789, 1365, 1349, 1538]</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7994,10 +8944,15 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>[1068, 1365, 238, 587, 1569, 1153, 1604, 30, 1916, 844, 1383, 608, 1428, 1132, 1428, 1606, 781, 945, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2117, 2118), (2119, 2124), (2125, 2132), (2134, 2137), (2137, 2138), (2139, 2143), (2144, 2146), (2147, 2149), (2149, 2150), (2150, 2151), (2152, 2162), (2163, 2165), (2165, 2166), (2167, 2170), (2170, 2171), (2172, 2183), (2184, 2189), (2190, 2197), (2197, 2198)]</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
+        <is>
+          <t>[1214, 1784, 1309, 65, 410, 574, 1367, 1636, 726, 566, 1148, 417, 773, 1283, 773, 1789, 1365, 1349, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8019,7 +8974,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[140, 350, 1428, 417, 636, 1339, 1705, 1787, 1761, 638, 1569, 163, 806, 1569, 793, 880, 832, 1118, 279, 832, 1472, 279, 832, 1538, 279, 351, 214, 1100, 832, 1368, 1359, 832, 216, 1234, 832, 1456, 105, 832, 688, 1930, 1449, 1428, 1380, 1449, 1380, 161, 1508, 1641, 671, 1074, 426, 1877, 54, 671, 889, 1926, 87, 404, 1569, 104, 1091, 298, 889, 1317, 1008]</t>
+          <t>[1853, 753, 773, 150, 1022, 1919, 736, 464, 1921, 1089, 410, 827, 1610, 410, 133, 1472, 1077, 249, 883, 1077, 1631, 883, 1077, 1815, 883, 1777, 450, 724, 1077, 1081, 579, 1077, 1086, 908, 1077, 717, 118, 1077, 381, 1246, 163, 773, 607, 163, 607, 578, 406, 1934, 1602, 408, 1394, 82, 1392, 1602, 61, 1105, 1506, 1199, 410, 821, 1497, 1562, 61, 1590, 1538]</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8034,10 +8989,15 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>[140, 350, 1428, 417, 636, 1339, 1705, 1787, 1761, 638, 1569, 163, 806, 1569, 793, 880, 832, 1118, 279, 832, 1472, 279, 832, 1538, 279, 351, 214, 1100, 832, 1368, 1359, 832, 216, 1234, 832, 1456, 105, 832, 688, 1930, 1449, 1428, 1380, 1449, 1380, 161, 1508, 1641, 671, 1074, 426, 1877, 54, 671, 889, 1926, 87, 404, 1569, 104, 1091, 298, 889, 1317, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2199, 2206), (2207, 2209), (2209, 2210), (2211, 2215), (2216, 2222), (2223, 2229), (2230, 2232), (2233, 2240), (2241, 2248), (2250, 2259), (2259, 2260), (2261, 2265), (2267, 2278), (2278, 2279), (2280, 2283), (2284, 2286), (2287, 2289), (2290, 2296), (2297, 2299), (2300, 2302), (2303, 2313), (2314, 2316), (2317, 2319), (2320, 2327), (2328, 2330), (2331, 2334), (2335, 2343), (2344, 2347), (2348, 2350), (2351, 2361), (2362, 2364), (2365, 2367), (2368, 2372), (2373, 2375), (2376, 2378), (2379, 2385), (2386, 2387), (2388, 2390), (2391, 2398), (2399, 2402), (2403, 2406), (2406, 2407), (2408, 2411), (2412, 2415), (2417, 2420), (2421, 2424), (2426, 2431), (2432, 2437), (2438, 2441), (2442, 2445), (2446, 2448), (2449, 2453), (2454, 2455), (2456, 2459), (2460, 2462), (2463, 2468), (2470, 2476), (2477, 2484), (2484, 2485), (2486, 2491), (2492, 2494), (2495, 2506), (2507, 2509), (2510, 2516), (2516, 2517)]</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
+        <is>
+          <t>[1853, 753, 773, 150, 1022, 1919, 736, 464, 1921, 1089, 410, 827, 1610, 410, 133, 1472, 1077, 249, 883, 1077, 1631, 883, 1077, 1815, 883, 1777, 450, 724, 1077, 1081, 579, 1077, 1086, 908, 1077, 717, 118, 1077, 381, 1246, 163, 773, 607, 163, 607, 578, 406, 1934, 1602, 408, 1394, 82, 1392, 1602, 61, 1105, 1506, 1199, 410, 821, 1497, 1562, 61, 1590, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8059,7 +9019,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[151, 1008]</t>
+          <t>[1884, 1538]</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8074,10 +9034,15 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>[151, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2519, 2529), (2529, 2530)]</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
+        <is>
+          <t>[1884, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
         <is>
           <t>[1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8099,7 +9064,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[685, 1569, 1913, 1003, 1569, 1913, 396, 1569, 1913, 708, 404, 1569, 1815, 1569, 355, 278, 1511, 1569, 728, 230, 47, 997, 1569, 1742, 1932, 1326, 1569, 1200, 1569, 1107, 1623, 570, 1259, 1428, 1117, 1428, 408, 848, 1569, 942, 767, 61, 184, 620, 1713, 987, 1921, 1622, 184, 1916, 358, 167, 1569, 1092, 1773, 1428, 875, 302, 1008]</t>
+          <t>[1882, 410, 1064, 244, 410, 1064, 511, 410, 1064, 1760, 1199, 410, 318, 410, 1910, 1161, 1605, 410, 911, 126, 1231, 333, 410, 906, 1761, 715, 410, 293, 410, 671, 389, 1038, 1694, 773, 965, 773, 1211, 385, 410, 519, 924, 1268, 3, 302, 447, 559, 1252, 1068, 3, 726, 1652, 714, 410, 188, 506, 773, 1913, 1481, 1538]</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8114,10 +9079,15 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>[685, 1569, 1913, 1003, 1569, 1913, 396, 1569, 1913, 708, 404, 1569, 1815, 1569, 355, 278, 1511, 1569, 728, 230, 47, 997, 1569, 1742, 1932, 1326, 1569, 1200, 1569, 1107, 1623, 570, 1259, 1428, 1117, 1428, 408, 848, 1569, 942, 767, 61, 184, 620, 1713, 987, 1921, 1622, 184, 1916, 358, 167, 1569, 1092, 1773, 1428, 875, 302, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2531, 2534), (2534, 2535), (2536, 2540), (2541, 2545), (2545, 2546), (2547, 2551), (2552, 2560), (2560, 2561), (2562, 2566), (2568, 2574), (2575, 2582), (2582, 2583), (2584, 2585), (2585, 2586), (2587, 2592), (2593, 2601), (2602, 2603), (2603, 2604), (2605, 2610), (2611, 2613), (2614, 2619), (2620, 2625), (2625, 2626), (2627, 2629), (2631, 2639), (2640, 2651), (2651, 2652), (2653, 2656), (2656, 2657), (2659, 2665), (2666, 2679), (2680, 2683), (2684, 2690), (2690, 2691), (2692, 2696), (2696, 2697), (2698, 2701), (2702, 2704), (2704, 2705), (2707, 2708), (2709, 2713), (2714, 2715), (2716, 2718), (2719, 2721), (2722, 2728), (2729, 2731), (2732, 2734), (2735, 2740), (2741, 2743), (2743, 2744), (2744, 2746), (2749, 2754), (2754, 2755), (2757, 2759), (2760, 2763), (2763, 2764), (2765, 2768), (2769, 2772), (2772, 2773)]</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
+        <is>
+          <t>[1882, 410, 1064, 244, 410, 1064, 511, 410, 1064, 1760, 1199, 410, 318, 410, 1910, 1161, 1605, 410, 911, 126, 1231, 333, 410, 906, 1761, 715, 410, 293, 410, 671, 389, 1038, 1694, 773, 965, 773, 1211, 385, 410, 519, 924, 1268, 3, 302, 447, 559, 1252, 1068, 3, 726, 1652, 714, 410, 188, 506, 773, 1913, 1481, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8139,7 +9109,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[999, 1569, 1292, 346, 1569, 440, 1116, 168, 1428, 196, 67, 867, 1008]</t>
+          <t>[1152, 410, 692, 414, 410, 1765, 112, 1067, 773, 886, 935, 1579, 1538]</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8154,10 +9124,15 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>[999, 1569, 1292, 346, 1569, 440, 1116, 168, 1428, 196, 67, 867, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2775, 2779), (2779, 2780), (2782, 2786), (2787, 2789), (2789, 2790), (2792, 2799), (2800, 2806), (2807, 2809), (2809, 2810), (2811, 2813), (2814, 2820), (2821, 2832), (2832, 2833)]</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
+        <is>
+          <t>[1152, 410, 692, 414, 410, 1765, 112, 1067, 773, 886, 935, 1579, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8179,7 +9154,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[816, 1428, 1876, 1399, 541, 1299, 1008]</t>
+          <t>[1875, 773, 964, 690, 1657, 586, 1538]</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8194,10 +9169,15 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[816, 1428, 1876, 1399, 541, 1299, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2834, 2837), (2837, 2838), (2839, 2841), (2842, 2845), (2846, 2848), (2849, 2855), (2855, 2856)]</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
+        <is>
+          <t>[1875, 773, 964, 690, 1657, 586, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8219,7 +9199,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[1093, 202, 716, 1630, 1108, 1507, 1428, 1577, 1428, 1399, 1011, 605, 1643, 889, 231, 1008]</t>
+          <t>[474, 806, 617, 1646, 916, 251, 773, 644, 773, 690, 1259, 1519, 1737, 61, 1925, 1538]</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8234,10 +9214,15 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[1093, 202, 716, 1630, 1108, 1507, 1428, 1577, 1428, 1399, 1011, 605, 1643, 889, 231, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2857, 2860), (2861, 2863), (2864, 2869), (2870, 2875), (2876, 2883), (2884, 2890), (2890, 2891), (2892, 2905), (2905, 2906), (2907, 2910), (2911, 2915), (2916, 2919), (2920, 2928), (2929, 2931), (2932, 2943), (2943, 2944)]</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
+        <is>
+          <t>[474, 806, 617, 1646, 916, 251, 773, 644, 773, 690, 1259, 1519, 1737, 61, 1925, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8259,7 +9244,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[1726, 1569, 1582, 1428, 1770, 1008]</t>
+          <t>[29, 410, 1100, 773, 1466, 1538]</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8274,10 +9259,15 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[1726, 1569, 1582, 1428, 1770, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2945, 2948), (2948, 2949), (2951, 2955), (2955, 2956), (2957, 2970), (2970, 2971)]</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
+        <is>
+          <t>[29, 410, 1100, 773, 1466, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8299,7 +9289,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[697, 1836, 207, 1569, 196, 1073, 1900, 1630, 47, 1008]</t>
+          <t>[990, 409, 1016, 410, 886, 1749, 797, 1646, 1231, 1538]</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8314,10 +9304,15 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[697, 1836, 207, 1569, 196, 1073, 1900, 1630, 47, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(2972, 2974), (2975, 2981), (2982, 2986), (2986, 2987), (2989, 2991), (2992, 2997), (2998, 3008), (3009, 3014), (3015, 3020), (3020, 3021)]</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
+        <is>
+          <t>[990, 409, 1016, 410, 886, 1749, 797, 1646, 1231, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8339,7 +9334,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[1565, 1068, 1182, 1900, 1008]</t>
+          <t>[1706, 1214, 1271, 797, 1538]</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8354,10 +9349,15 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[1565, 1068, 1182, 1900, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3023, 3027), (3028, 3029), (3030, 3037), (3038, 3048), (3048, 3049)]</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
+        <is>
+          <t>[1706, 1214, 1271, 797, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8379,7 +9379,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[656, 1124, 916, 1174, 676, 1091, 46, 1843, 1008]</t>
+          <t>[1682, 1137, 499, 1940, 299, 1497, 1887, 1080, 1538]</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8394,10 +9394,15 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>[656, 1124, 916, 1174, 676, 1091, 46, 1843, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3051, 3059), (3060, 3068), (3069, 3072), (3073, 3078), (3079, 3084), (3085, 3087), (3088, 3095), (3096, 3104), (3104, 3105)]</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
+        <is>
+          <t>[1682, 1137, 499, 1940, 299, 1497, 1887, 1080, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8419,7 +9424,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[18, 1569, 441, 322, 889, 1723, 1690, 181, 1428, 1793, 812, 387, 1532, 1428, 889, 571, 1378, 1008]</t>
+          <t>[267, 410, 1413, 131, 61, 365, 791, 1558, 773, 139, 250, 1822, 476, 773, 61, 24, 1786, 1538]</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8434,10 +9439,15 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>[18, 1569, 441, 322, 889, 1723, 1690, 181, 1428, 1793, 812, 387, 1532, 1428, 889, 571, 1378, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3106, 3109), (3109, 3110), (3112, 3121), (3122, 3126), (3127, 3129), (3130, 3133), (3134, 3140), (3141, 3147), (3147, 3148), (3149, 3153), (3154, 3158), (3159, 3161), (3162, 3167), (3167, 3168), (3169, 3171), (3172, 3176), (3177, 3185), (3185, 3186)]</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
+        <is>
+          <t>[267, 410, 1413, 131, 61, 365, 791, 1558, 773, 139, 250, 1822, 476, 773, 61, 24, 1786, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8459,7 +9469,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[961, 230, 1068, 1491, 267, 1428, 1217, 267, 422, 1008]</t>
+          <t>[1487, 126, 1214, 664, 1521, 773, 1698, 1521, 21, 1538]</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8474,10 +9484,15 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[961, 230, 1068, 1491, 267, 1428, 1217, 267, 422, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3188, 3194), (3195, 3197), (3198, 3199), (3200, 3208), (3209, 3213), (3213, 3214), (3215, 3221), (3222, 3226), (3227, 3234), (3234, 3235)]</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
+        <is>
+          <t>[1487, 126, 1214, 664, 1521, 773, 1698, 1521, 21, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8499,7 +9514,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[1590, 757, 230, 1068, 1300, 418, 1008]</t>
+          <t>[816, 872, 126, 1214, 1059, 1582, 1538]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8514,10 +9529,15 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[1590, 757, 230, 1068, 1300, 418, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3238, 3250), (3251, 3261), (3262, 3264), (3265, 3266), (3267, 3272), (3273, 3277), (3277, 3278)]</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
+        <is>
+          <t>[816, 872, 126, 1214, 1059, 1582, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8539,7 +9559,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[416, 1110, 1068, 115, 1428, 82, 1830, 1428, 1754, 1382, 1428, 592, 442, 1466, 1531, 1420, 190, 189, 1531, 1902, 1513, 845, 1428, 196, 224, 693, 1428, 571, 1378, 1705, 115, 1253, 196, 380, 1074, 1533, 1008]</t>
+          <t>[1517, 1496, 1214, 1833, 773, 701, 1269, 773, 587, 1217, 773, 1849, 1331, 1429, 102, 1282, 235, 1870, 102, 51, 23, 1431, 773, 886, 262, 1440, 773, 24, 1786, 736, 1833, 1456, 886, 857, 408, 740, 1538]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8554,10 +9574,15 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>[416, 1110, 1068, 115, 1428, 82, 1830, 1428, 1754, 1382, 1428, 592, 442, 1466, 1531, 1420, 190, 189, 1531, 1902, 1513, 845, 1428, 196, 224, 693, 1428, 571, 1378, 1705, 115, 1253, 196, 380, 1074, 1533, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(3280, 3285), (3286, 3295), (3296, 3297), (3298, 3302), (3302, 3303), (3304, 3311), (3312, 3319), (3319, 3320), (3321, 3324), (3325, 3333), (3333, 3334), (3335, 3337), (3338, 3343), (3344, 3347), (3348, 3352), (3353, 3354), (3354, 3361), (3362, 3365), (3366, 3370), (3371, 3373), (3374, 3378), (3378, 3379), (3379, 3380), (3381, 3383), (3384, 3392), (3393, 3401), (3401, 3402), (3403, 3407), (3408, 3416), (3417, 3419), (3420, 3424), (3425, 3428), (3429, 3431), (3432, 3440), (3441, 3444), (3445, 3455), (3455, 3456)]</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
+        <is>
+          <t>[1517, 1496, 1214, 1833, 773, 701, 1269, 773, 587, 1217, 773, 1849, 1331, 1429, 102, 1282, 235, 1870, 102, 51, 23, 1431, 773, 886, 262, 1440, 773, 24, 1786, 736, 1833, 1456, 886, 857, 408, 740, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8579,7 +9604,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[1698, 1569, 392, 1314, 375, 1370, 1829, 1569, 196, 1086, 1428, 1506, 360, 760, 930, 1569, 31, 854, 316, 1420, 715, 845, 54, 1579, 1420, 715, 845, 1837, 1420, 715, 845, 1652, 1598, 1598, 277, 742, 1702, 1420, 715, 845, 1454, 903, 1351, 1671, 1889, 398, 1789, 977, 1420, 599, 845, 1403, 51, 1420, 715, 845, 1271, 420, 1420, 599, 845, 745, 219, 1420, 599, 845, 176, 702, 1420, 599, 845, 1076, 1420, 599, 845, 1668, 37, 1420, 715, 845, 1732, 935, 1420, 599, 845, 1067, 1234, 1892, 56, 598, 683, 241, 90, 6, 939, 356, 331, 1420, 599, 845, 1271, 420, 1420, 599, 845, 745, 219, 1420, 599, 845, 1004, 1178, 1667, 45, 656, 1846, 271, 949, 839, 656, 122, 538, 1043, 683, 1494, 683, 16, 683, 1109, 833, 1420, 599, 845, 22, 1420, 599, 845, 93, 743, 1420, 715, 845, 901, 1420, 715, 845, 162, 1701, 1420, 715, 845, 644, 1420, 715, 845, 918, 1058, 1420, 715, 845, 431, 1420, 715, 845, 1293, 588, 1420, 715, 845, 588, 1420, 715, 845, 1475, 1031, 906, 352, 489, 474, 40, 1859, 1561, 1420, 599, 845, 1552, 126, 1420, 599, 845, 1396, 1420, 599, 845, 210, 1204, 477, 1880, 1916, 1648, 778, 1420, 599, 845, 1916, 858, 105, 1420, 715, 845, 1916, 14, 466, 1420, 715, 845, 1916, 635, 1036, 1916, 376, 1036, 1146, 1435, 1420, 599, 845, 1223, 381, 1420, 715, 845, 133, 1330, 1420, 599, 845, 950, 1281, 1420, 715, 845, 633, 1488, 1404, 1897, 941, 1897, 383, 1897, 1689, 855, 1420, 599, 845, 993, 1820, 1420, 599, 845, 1220, 855, 855, 1417, 855, 656, 707, 829, 829, 1831, 271, 949, 656, 245, 921, 921, 1090, 168, 855, 1327, 656, 656, 1679, 656, 656, 1550, 1303, 1303, 227, 1631, 175, 1397, 1935, 1303, 1290, 1432, 656, 1452, 656, 1432, 1289, 683, 103, 683, 1490, 683, 1088, 683, 527, 165, 1420, 650, 845, 814, 1662, 1874, 1645, 1803, 1569, 1797, 1243, 1276, 287, 1518, 1428, 1662, 1645, 1008]</t>
+          <t>[1383, 410, 1920, 887, 1149, 1142, 627, 410, 886, 187, 773, 1628, 1258, 1333, 1397, 410, 873, 549, 30, 1282, 612, 1431, 1392, 128, 1282, 612, 1431, 179, 1282, 612, 1431, 1484, 767, 767, 1543, 986, 657, 1282, 612, 1431, 278, 874, 1839, 1120, 1015, 1421, 156, 1157, 1282, 36, 1431, 951, 222, 1282, 612, 1431, 1291, 1412, 1282, 36, 1431, 1004, 1071, 1282, 36, 1431, 237, 1393, 1282, 36, 1431, 1704, 1282, 36, 1431, 764, 360, 1282, 612, 1431, 1244, 1939, 1282, 36, 1431, 1814, 908, 955, 345, 483, 882, 331, 663, 752, 418, 1172, 783, 1282, 36, 1431, 1291, 1412, 1282, 36, 1431, 1004, 1071, 1282, 36, 1431, 1159, 1236, 287, 658, 1682, 1201, 71, 795, 1783, 1682, 1509, 1776, 500, 882, 1659, 882, 1475, 882, 375, 113, 1282, 36, 1431, 370, 1282, 36, 1431, 605, 558, 1282, 612, 1431, 544, 1282, 612, 1431, 686, 1721, 1282, 612, 1431, 220, 1282, 612, 1431, 1151, 946, 1282, 612, 1431, 1113, 1282, 612, 1431, 200, 165, 1282, 612, 1431, 165, 1282, 612, 1431, 1377, 1267, 1272, 67, 1766, 841, 576, 733, 104, 1282, 36, 1431, 1210, 1861, 1282, 36, 1431, 1031, 1282, 36, 1431, 713, 1008, 1591, 614, 726, 1432, 1477, 1282, 36, 1431, 726, 1001, 118, 1282, 612, 1431, 726, 1733, 495, 1282, 612, 1431, 726, 547, 756, 726, 1674, 756, 33, 779, 1282, 36, 1431, 446, 309, 1282, 612, 1431, 1308, 85, 1282, 36, 1431, 1219, 1293, 1282, 612, 1431, 1167, 1746, 521, 995, 1018, 995, 501, 995, 680, 1841, 1282, 36, 1431, 1194, 1695, 1282, 36, 1431, 1837, 1841, 1841, 177, 1841, 1682, 1479, 632, 632, 1250, 71, 795, 1682, 339, 697, 697, 877, 1067, 1841, 604, 1682, 1682, 1196, 1682, 1682, 45, 434, 434, 897, 452, 1460, 206, 89, 434, 1359, 263, 1682, 253, 1682, 263, 896, 882, 1043, 882, 1024, 882, 1634, 882, 1717, 334, 1282, 1448, 1431, 242, 987, 707, 162, 1729, 410, 1188, 312, 641, 232, 734, 773, 987, 162, 1538]</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -8594,10 +9619,15 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[1698, 1569, 392, 1314, 375, 1370, 1829, 1569, 196, 1086, 1428, 1506, 360, 760, 930, 1569, 31, 854, 316, 1420, 715, 845, 54, 1579, 1420, 715, 845, 1837, 1420, 715, 845, 1652, 1598, 1598, 277, 742, 1702, 1420, 715, 845, 1454, 903, 1351, 1671, 1889, 398, 1789, 977, 1420, 599, 845, 1403, 51, 1420, 715, 845, 1271, 420, 1420, 599, 845, 745, 219, 1420, 599, 845, 176, 702, 1420, 599, 845, 1076, 1420, 599, 845, 1668, 37, 1420, 715, 845, 1732, 935, 1420, 599, 845, 1067, 1234, 1892, 56, 598, 683, 241, 90, 6, 939, 356, 331, 1420, 599, 845, 1271, 420, 1420, 599, 845, 745, 219, 1420, 599, 845, 1004, 1178, 1667, 45, 656, 1846, 271, 949, 839, 656, 122, 538, 1043, 683, 1494, 683, 16, 683, 1109, 833, 1420, 599, 845, 22, 1420, 599, 845, 93, 743, 1420, 715, 845, 901, 1420, 715, 845, 162, 1701, 1420, 715, 845, 644, 1420, 715, 845, 918, 1058, 1420, 715, 845, 431, 1420, 715, 845, 1293, 588, 1420, 715, 845, 588, 1420, 715, 845, 1475, 1031, 906, 352, 489, 474, 40, 1859, 1561, 1420, 599, 845, 1552, 126, 1420, 599, 845, 1396, 1420, 599, 845, 210, 1204, 477, 1880, 1916, 1648, 778, 1420, 599, 845, 1916, 858, 105, 1420, 715, 845, 1916, 14, 466, 1420, 715, 845, 1916, 635, 1036, 1916, 376, 1036, 1146, 1435, 1420, 599, 845, 1223, 381, 1420, 715, 845, 133, 1330, 1420, 599, 845, 950, 1281, 1420, 715, 845, 633, 1488, 1404, 1897, 941, 1897, 383, 1897, 1689, 855, 1420, 599, 845, 993, 1820, 1420, 599, 845, 1220, 855, 855, 1417, 855, 656, 707, 829, 829, 1831, 271, 949, 656, 245, 921, 921, 1090, 168, 855, 1327, 656, 656, 1679, 656, 656, 1550, 1303, 1303, 227, 1631, 175, 1397, 1935, 1303, 1290, 1432, 656, 1452, 656, 1432, 1289, 683, 103, 683, 1490, 683, 1088, 683, 527, 165, 1420, 650, 845, 814, 1662, 1874, 1645, 1803, 1569, 1797, 1243, 1276, 287, 1518, 1428, 1662, 1645, 1008]</t>
+          <t>[(3459, 3464), (3464, 3465), (3469, 3471), (3473, 3474), (3474, 3475), (3475, 3478), (3479, 3483), (3483, 3484), (3486, 3488), (3489, 3493), (3493, 3494), (3495, 3499), (3500, 3504), (3505, 3511), (3513, 3517), (3517, 3518), (3520, 3522), (3531, 3534), (3542, 3545), (3545, 3546), (3546, 3547), (3547, 3548), (3586, 3587), (3597, 3600), (3600, 3601), (3601, 3602), (3602, 3603), (3608, 3611), (3611, 3612), (3612, 3613), (3613, 3614), (3652, 3654), (3663, 3666), (3674, 3677), (3718, 3721), (3729, 3733), (3740, 3744), (3744, 3745), (3745, 3746), (3746, 3747), (3784, 3787), (3795, 3797), (3806, 3808), (3850, 3853), (3861, 3864), (3872, 3875), (3916, 3919), (3938, 3941), (3941, 3942), (3942, 3943), (3943, 3944), (3983, 3985), (4016, 4019), (4019, 4020), (4020, 4021), (4021, 4022), (4049, 4054), (4093, 4096), (4096, 4097), (4097, 4098), (4098, 4099), (4115, 4120), (4159, 4162), (4162, 4163), (4163, 4164), (4164, 4165), (4181, 4183), (4203, 4206), (4206, 4207), (4207, 4208), (4208, 4209), (4225, 4229), (4229, 4230), (4230, 4231), (4231, 4232), (4247, 4250), (4291, 4294), (4294, 4295), (4295, 4296), (4296, 4297), (4313, 4317), (4357, 4360), (4360, 4361), (4361, 4362), (4362, 4363), (4379, 4382), (4423, 4425), (4445, 4449), (4489, 4492), (4511, 4514), (4522, 4526), (4578, 4586), (4589, 4590), (4644, 4652), (4655, 4657), (4710, 4714), (4721, 4724), (4724, 4725), (4725, 4726), (4726, 4727), (4776, 4781), (4787, 4790), (4790, 4791), (4791, 4792), (4792, 4793), (4842, 4847), (4853, 4856), (4856, 4857), (4857, 4858), (4858, 4859), (4909, 4911), (4920, 4923), (4975, 4980), (4986, 4989), (4997, 5005), (5041, 5047), (5052, 5055), (5056, 5062), (5107, 5113), (5129, 5137), (5173, 5179), (5184, 5188), (5240, 5242), (5262, 5266), (5306, 5310), (5328, 5332), (5372, 5375), (5383, 5387), (5439, 5442), (5450, 5454), (5454, 5455), (5455, 5456), (5456, 5457), (5461, 5465), (5465, 5466), (5466, 5467), (5467, 5468), (5505, 5508), (5516, 5520), (5520, 5521), (5521, 5522), (5522, 5523), (5527, 5531), (5531, 5532), (5532, 5533), (5533, 5534), (5571, 5574), (5582, 5586), (5586, 5587), (5587, 5588), (5588, 5589), (5593, 5597), (5597, 5598), (5598, 5599), (5599, 5600), (5637, 5640), (5648, 5652), (5652, 5653), (5653, 5654), (5654, 5655), (5659, 5663), (5663, 5664), (5664, 5665), (5665, 5666), (5703, 5706), (5714, 5716), (5716, 5717), (5717, 5718), (5718, 5719), (5725, 5727), (5727, 5728), (5728, 5729), (5729, 5730), (5769, 5772), (5780, 5784), (5791, 5795), (5835, 5839), (5846, 5850), (5857, 5861), (5901, 5904), (5912, 5915), (5923, 5926), (5926, 5927), (5927, 5928), (5928, 5929), (5967, 5970), (5978, 5982), (5982, 5983), (5983, 5984), (5984, 5985), (5989, 5993), (5993, 5994), (5994, 5995), (5995, 5996), (6033, 6038), (6044, 6052), (6099, 6105), (6110, 6114), (6165, 6166), (6166, 6170), (6176, 6178), (6178, 6179), (6179, 6180), (6180, 6181), (6231, 6232), (6232, 6237), (6242, 6243), (6243, 6244), (6244, 6245), (6245, 6246), (6297, 6298), (6298, 6302), (6308, 6309), (6309, 6310), (6310, 6311), (6311, 6312), (6363, 6364), (6364, 6367), (6374, 6375), (6429, 6430), (6430, 6434), (6440, 6441), (6495, 6500), (6506, 6511), (6511, 6512), (6512, 6513), (6513, 6514), (6561, 6566), (6572, 6576), (6576, 6577), (6577, 6578), (6578, 6579), (6627, 6632), (6638, 6642), (6642, 6643), (6643, 6644), (6644, 6645), (6693, 6698), (6704, 6708), (6708, 6709), (6709, 6710), (6710, 6711), (6759, 6765), (6770, 6774), (6825, 6830), (6836, 6840), (6891, 6895), (6902, 6906), (6957, 6962), (6968, 6972), (7023, 7028), (7034, 7036), (7036, 7037), (7037, 7038), (7038, 7039), (7090, 7093), (7101, 7104), (7104, 7105), (7105, 7106), (7106, 7107), (7157, 7164), (7168, 7170), (7179, 7181), (7223, 7229), (7234, 7236), (7245, 7253), (7289, 7296), (7300, 7305), (7311, 7316), (7355, 7361), (7366, 7369), (7370, 7376), (7377, 7385), (7421, 7426), (7432, 7435), (7443, 7446), (7487, 7494), (7498, 7500), (7509, 7511), (7553, 7559), (7564, 7572), (7575, 7583), (7619, 7625), (7630, 7638), (7641, 7649), (7685, 7690), (7696, 7699), (7707, 7710), (7751, 7758), (7762, 7767), (7773, 7777), (7817, 7824), (7828, 7831), (7839, 7842), (7883, 7891), (7894, 7897), (7905, 7913), (7949, 7957), (7960, 7968), (7971, 7974), (8016, 8019), (8027, 8031), (8082, 8085), (8093, 8097), (8148, 8151), (8159, 8163), (8214, 8218), (8225, 8229), (8281, 8289), (8292, 8296), (8296, 8297), (8297, 8299), (8299, 8300), (8348, 8353), (8354, 8361), (8362, 8364), (8365, 8372), (8373, 8378), (8378, 8379), (8380, 8384), (8385, 8390), (8391, 8393), (8394, 8399), (8400, 8408), (8408, 8409), (8410, 8417), (8418, 8425), (8425, 8426)]</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
+        <is>
+          <t>[1383, 410, 1920, 887, 1149, 1142, 627, 410, 886, 187, 773, 1628, 1258, 1333, 1397, 410, 873, 549, 30, 1282, 612, 1431, 1392, 128, 1282, 612, 1431, 179, 1282, 612, 1431, 1484, 767, 767, 1543, 986, 657, 1282, 612, 1431, 278, 874, 1839, 1120, 1015, 1421, 156, 1157, 1282, 36, 1431, 951, 222, 1282, 612, 1431, 1291, 1412, 1282, 36, 1431, 1004, 1071, 1282, 36, 1431, 237, 1393, 1282, 36, 1431, 1704, 1282, 36, 1431, 764, 360, 1282, 612, 1431, 1244, 1939, 1282, 36, 1431, 1814, 908, 955, 345, 483, 882, 331, 663, 752, 418, 1172, 783, 1282, 36, 1431, 1291, 1412, 1282, 36, 1431, 1004, 1071, 1282, 36, 1431, 1159, 1236, 287, 658, 1682, 1201, 71, 795, 1783, 1682, 1509, 1776, 500, 882, 1659, 882, 1475, 882, 375, 113, 1282, 36, 1431, 370, 1282, 36, 1431, 605, 558, 1282, 612, 1431, 544, 1282, 612, 1431, 686, 1721, 1282, 612, 1431, 220, 1282, 612, 1431, 1151, 946, 1282, 612, 1431, 1113, 1282, 612, 1431, 200, 165, 1282, 612, 1431, 165, 1282, 612, 1431, 1377, 1267, 1272, 67, 1766, 841, 576, 733, 104, 1282, 36, 1431, 1210, 1861, 1282, 36, 1431, 1031, 1282, 36, 1431, 713, 1008, 1591, 614, 726, 1432, 1477, 1282, 36, 1431, 726, 1001, 118, 1282, 612, 1431, 726, 1733, 495, 1282, 612, 1431, 726, 547, 756, 726, 1674, 756, 33, 779, 1282, 36, 1431, 446, 309, 1282, 612, 1431, 1308, 85, 1282, 36, 1431, 1219, 1293, 1282, 612, 1431, 1167, 1746, 521, 995, 1018, 995, 501, 995, 680, 1841, 1282, 36, 1431, 1194, 1695, 1282, 36, 1431, 1837, 1841, 1841, 177, 1841, 1682, 1479, 632, 632, 1250, 71, 795, 1682, 339, 697, 697, 877, 1067, 1841, 604, 1682, 1682, 1196, 1682, 1682, 45, 434, 434, 897, 452, 1460, 206, 89, 434, 1359, 263, 1682, 253, 1682, 263, 896, 882, 1043, 882, 1024, 882, 1634, 882, 1717, 334, 1282, 1448, 1431, 242, 987, 707, 162, 1729, 410, 1188, 312, 641, 232, 734, 773, 987, 162, 1538]</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
@@ -8619,7 +9649,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[2, 552, 1428, 1591, 1428, 624, 942, 1899, 518, 387, 1888, 1428, 143, 1705, 1337, 1091, 543, 1008]</t>
+          <t>[280, 1513, 773, 1545, 773, 1872, 519, 654, 1406, 1822, 814, 773, 1644, 736, 1840, 1497, 583, 1538]</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8634,10 +9664,15 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[2, 552, 1428, 1591, 1428, 624, 942, 1899, 518, 387, 1888, 1428, 143, 1705, 1337, 1091, 543, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8428, 8431), (8432, 8435), (8435, 8436), (8437, 8440), (8440, 8441), (8442, 8451), (8452, 8453), (8456, 8457), (8458, 8466), (8467, 8469), (8470, 8478), (8478, 8479), (8480, 8490), (8491, 8493), (8494, 8495), (8496, 8498), (8499, 8502), (8502, 8503)]</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
+        <is>
+          <t>[280, 1513, 773, 1545, 773, 1872, 519, 654, 1406, 1822, 814, 773, 1644, 736, 1840, 1497, 583, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8659,7 +9694,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[329, 1569, 340, 1121, 709, 610, 17, 889, 584, 1705, 1068, 115, 1008]</t>
+          <t>[1075, 410, 1752, 503, 618, 1191, 223, 61, 771, 736, 1214, 1833, 1538]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8674,10 +9709,15 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>[329, 1569, 340, 1121, 709, 610, 17, 889, 584, 1705, 1068, 115, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8505, 8520), (8520, 8521), (8523, 8528), (8529, 8532), (8533, 8544), (8545, 8548), (8549, 8557), (8558, 8560), (8561, 8574), (8575, 8577), (8578, 8579), (8580, 8584), (8584, 8585)]</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
+        <is>
+          <t>[1075, 410, 1752, 503, 618, 1191, 223, 61, 771, 736, 1214, 1833, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8699,7 +9739,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[1138, 1856, 1082, 1569, 1023, 1428, 374, 1420, 785, 196, 42, 1537, 845, 1008]</t>
+          <t>[1541, 1467, 804, 410, 1417, 773, 314, 1282, 1315, 886, 1364, 92, 1431, 1538]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8714,10 +9754,15 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[1138, 1856, 1082, 1569, 1023, 1428, 374, 1420, 785, 196, 42, 1537, 845, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8587, 8602), (8603, 8609), (8610, 8624), (8624, 8625), (8626, 8639), (8639, 8640), (8641, 8654), (8655, 8656), (8656, 8662), (8663, 8665), (8666, 8677), (8678, 8685), (8685, 8686), (8686, 8687)]</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
+        <is>
+          <t>[1541, 1467, 804, 410, 1417, 773, 314, 1282, 1315, 886, 1364, 92, 1431, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8739,7 +9784,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[1693, 730, 1163, 387, 740, 1074, 24, 1705, 584, 1008]</t>
+          <t>[329, 1459, 288, 1822, 1755, 408, 979, 736, 771, 1538]</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -8754,10 +9799,15 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>[1693, 730, 1163, 387, 740, 1074, 24, 1705, 584, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8689, 8696), (8697, 8700), (8701, 8710), (8711, 8713), (8714, 8717), (8718, 8721), (8722, 8731), (8732, 8734), (8735, 8748), (8748, 8749)]</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
+        <is>
+          <t>[329, 1459, 288, 1822, 1755, 408, 979, 736, 771, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8779,7 +9829,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[553, 1569, 734, 24, 1428, 1282, 1487, 1903, 1211, 1008]</t>
+          <t>[670, 410, 772, 979, 773, 32, 561, 565, 1916, 1538]</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -8794,10 +9844,15 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[553, 1569, 734, 24, 1428, 1282, 1487, 1903, 1211, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8751, 8766), (8766, 8767), (8768, 8779), (8780, 8789), (8789, 8790), (8791, 8794), (8795, 8799), (8800, 8807), (8808, 8817), (8817, 8818)]</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
+        <is>
+          <t>[670, 410, 772, 979, 773, 32, 561, 565, 1916, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8819,7 +9874,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[1611, 1746, 1428, 1021, 295, 583, 1910, 1411, 1162, 671, 435, 1569, 1734, 1074, 1372, 1008]</t>
+          <t>[458, 1669, 773, 1527, 1593, 555, 1909, 732, 1471, 1602, 900, 410, 1030, 408, 838, 1538]</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -8834,10 +9889,15 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[1611, 1746, 1428, 1021, 295, 583, 1910, 1411, 1162, 671, 435, 1569, 1734, 1074, 1372, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8820, 8824), (8825, 8828), (8828, 8829), (8830, 8833), (8834, 8835), (8836, 8838), (8840, 8847), (8848, 8851), (8852, 8855), (8856, 8859), (8860, 8873), (8873, 8874), (8875, 8885), (8886, 8889), (8890, 8893), (8893, 8894)]</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
+        <is>
+          <t>[458, 1669, 773, 1527, 1593, 555, 1909, 732, 1471, 1602, 900, 410, 1030, 408, 838, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8859,7 +9919,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[932, 1121, 738, 1008]</t>
+          <t>[1476, 503, 1297, 1538]</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -8874,10 +9934,15 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>[932, 1121, 738, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8896, 8898), (8899, 8902), (8903, 8907), (8907, 8908)]</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
+        <is>
+          <t>[1476, 503, 1297, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8899,7 +9964,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[1413, 1715, 1662, 1428, 41, 196, 738, 1428, 1468, 1251, 387, 663, 1008]</t>
+          <t>[1437, 153, 987, 773, 1099, 886, 1297, 773, 1415, 1740, 1822, 1660, 1538]</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -8914,10 +9979,15 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[1413, 1715, 1662, 1428, 41, 196, 738, 1428, 1468, 1251, 387, 663, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8910, 8913), (8914, 8919), (8920, 8927), (8927, 8928), (8929, 8931), (8932, 8934), (8935, 8939), (8939, 8940), (8941, 8949), (8950, 8956), (8957, 8959), (8960, 8969), (8969, 8970)]</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
+        <is>
+          <t>[1437, 153, 987, 773, 1099, 886, 1297, 773, 1415, 1740, 1822, 1660, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8939,7 +10009,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[1522, 463, 387, 115, 1428, 1856, 889, 371, 1407, 422, 1008]</t>
+          <t>[1580, 437, 1822, 1833, 773, 1467, 61, 1926, 1356, 21, 1538]</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8954,10 +10024,15 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[1522, 463, 387, 115, 1428, 1856, 889, 371, 1407, 422, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(8972, 8977), (8978, 8983), (8984, 8986), (8987, 8991), (8991, 8992), (8993, 8999), (9000, 9002), (9003, 9007), (9008, 9018), (9019, 9026), (9026, 9027)]</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
+        <is>
+          <t>[1580, 437, 1822, 1833, 773, 1467, 61, 1926, 1356, 21, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -8979,7 +10054,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>[1589, 667, 1705, 1068, 916, 1008]</t>
+          <t>[1090, 1572, 736, 1214, 499, 1538]</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -8994,10 +10069,15 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>[1589, 667, 1705, 1068, 916, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9028, 9031), (9032, 9037), (9038, 9040), (9041, 9042), (9043, 9046), (9046, 9047)]</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
+        <is>
+          <t>[1090, 1572, 736, 1214, 499, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9019,7 +10099,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[44, 1597, 572, 1008]</t>
+          <t>[147, 1160, 362, 1538]</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9034,10 +10114,15 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[44, 1597, 572, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9048, 9052), (9053, 9058), (9059, 9065), (9065, 9066)]</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
+        <is>
+          <t>[147, 1160, 362, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9059,7 +10144,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>[2, 1428, 1321, 1428, 1284, 1428, 1425, 428, 272, 1008]</t>
+          <t>[280, 773, 84, 773, 1937, 773, 1369, 825, 1355, 1538]</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9074,10 +10159,15 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>[2, 1428, 1321, 1428, 1284, 1428, 1425, 428, 272, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9067, 9070), (9070, 9071), (9072, 9075), (9075, 9076), (9077, 9082), (9082, 9083), (9084, 9089), (9090, 9094), (9095, 9101), (9101, 9102)]</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
+        <is>
+          <t>[280, 773, 84, 773, 1937, 773, 1369, 825, 1355, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9099,7 +10189,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[1405, 1601, 1428, 1612, 23, 1074, 1257, 1420, 1021, 295, 583, 1428, 66, 730, 11, 752, 1091, 845, 1208, 1578, 457, 483, 1008]</t>
+          <t>[898, 760, 773, 1792, 449, 408, 1888, 1282, 1527, 1593, 555, 773, 983, 1459, 595, 1897, 1497, 1431, 1936, 1878, 532, 64, 1538]</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9114,10 +10204,15 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>[1405, 1601, 1428, 1612, 23, 1074, 1257, 1420, 1021, 295, 583, 1428, 66, 730, 11, 752, 1091, 845, 1208, 1578, 457, 483, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9103, 9106), (9107, 9109), (9109, 9110), (9111, 9120), (9121, 9125), (9126, 9129), (9130, 9136), (9137, 9138), (9138, 9141), (9142, 9143), (9144, 9146), (9146, 9147), (9148, 9153), (9154, 9157), (9158, 9162), (9163, 9169), (9170, 9172), (9172, 9173), (9175, 9180), (9181, 9185), (9186, 9200), (9201, 9214), (9214, 9215)]</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
+        <is>
+          <t>[898, 760, 773, 1792, 449, 408, 1888, 1282, 1527, 1593, 555, 773, 983, 1459, 595, 1897, 1497, 1431, 1936, 1878, 532, 64, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9139,7 +10234,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[610, 1569, 1673, 947, 1074, 1372, 1569, 450, 1068, 1399, 1840, 645, 1012, 1021, 1428, 38, 1735, 294, 1574, 54, 592, 908, 1008]</t>
+          <t>[1191, 410, 185, 1050, 408, 838, 410, 1424, 1214, 690, 527, 691, 518, 1527, 773, 1836, 1723, 88, 855, 1392, 1849, 62, 1538]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9154,10 +10249,15 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>[610, 1569, 1673, 947, 1074, 1372, 1569, 450, 1068, 1399, 1840, 645, 1012, 1021, 1428, 38, 1735, 294, 1574, 54, 592, 908, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9216, 9219), (9219, 9220), (9222, 9227), (9228, 9235), (9236, 9239), (9240, 9243), (9243, 9244), (9245, 9249), (9250, 9251), (9252, 9255), (9256, 9264), (9265, 9266), (9267, 9271), (9272, 9275), (9275, 9276), (9277, 9282), (9283, 9286), (9287, 9292), (9293, 9294), (9295, 9296), (9297, 9299), (9300, 9307), (9307, 9308)]</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
+        <is>
+          <t>[1191, 410, 185, 1050, 408, 838, 410, 1424, 1214, 690, 527, 691, 518, 1527, 773, 1836, 1723, 88, 855, 1392, 1849, 62, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9179,7 +10279,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>[842, 1588, 1246, 1135, 790, 1896, 1208, 1578, 664, 1353, 1137, 844, 1012, 182, 730, 11, 1341, 1008]</t>
+          <t>[482, 42, 373, 603, 1446, 918, 1936, 1878, 504, 1569, 461, 566, 518, 1630, 1459, 595, 1877, 1538]</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9194,10 +10294,15 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>[842, 1588, 1246, 1135, 790, 1896, 1208, 1578, 664, 1353, 1137, 844, 1012, 182, 730, 11, 1341, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9309, 9316), (9317, 9324), (9325, 9332), (9333, 9338), (9340, 9346), (9347, 9350), (9352, 9357), (9358, 9362), (9363, 9366), (9367, 9372), (9373, 9380), (9380, 9381), (9382, 9386), (9387, 9396), (9397, 9400), (9401, 9405), (9406, 9416), (9416, 9417)]</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
+        <is>
+          <t>[482, 42, 373, 603, 1446, 918, 1936, 1878, 504, 1569, 461, 566, 518, 1630, 1459, 595, 1877, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9219,7 +10324,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>[1633, 1873, 1819, 1008]</t>
+          <t>[1846, 719, 1037, 1538]</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9234,10 +10339,15 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[1633, 1873, 1819, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9419, 9423), (9424, 9427), (9428, 9437), (9437, 9438)]</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
+        <is>
+          <t>[1846, 719, 1037, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9259,7 +10369,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[397, 1428, 507, 1428, 606, 1428, 1718, 1008]</t>
+          <t>[515, 773, 1118, 773, 1057, 773, 1362, 1538]</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -9274,10 +10384,15 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>[397, 1428, 507, 1428, 606, 1428, 1718, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9440, 9444), (9444, 9445), (9446, 9454), (9454, 9455), (9456, 9466), (9466, 9467), (9468, 9474), (9474, 9475)]</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
+        <is>
+          <t>[515, 773, 1118, 773, 1057, 773, 1362, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9299,7 +10414,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[71, 1569, 592, 1416, 1443, 739, 39, 762, 110, 1008]</t>
+          <t>[1902, 410, 1849, 1198, 1222, 124, 903, 1316, 180, 1538]</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9314,10 +10429,15 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[71, 1569, 592, 1416, 1443, 739, 39, 762, 110, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9476, 9479), (9479, 9480), (9481, 9483), (9484, 9492), (9493, 9503), (9505, 9511), (9512, 9517), (9518, 9523), (9524, 9528), (9528, 9529)]</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
+        <is>
+          <t>[1902, 410, 1849, 1198, 1222, 124, 903, 1316, 180, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9339,7 +10459,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[946, 1540, 1663, 1428, 565, 1008]</t>
+          <t>[1164, 173, 957, 773, 1110, 1538]</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9354,10 +10474,15 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>[946, 1540, 1663, 1428, 565, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9530, 9532), (9533, 9535), (9536, 9544), (9544, 9545), (9546, 9552), (9552, 9553)]</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
+        <is>
+          <t>[1164, 173, 957, 773, 1110, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9379,7 +10504,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[1307, 1008]</t>
+          <t>[1903, 1538]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9394,10 +10519,15 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>[1307, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9555, 9566), (9566, 9567)]</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
+        <is>
+          <t>[1903, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
         <is>
           <t>[1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9419,7 +10549,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[1068, 1656, 1629, 1569, 447, 1384, 366, 1254, 117, 739, 42, 565, 203, 71, 1858, 1428, 1408, 1008]</t>
+          <t>[1214, 689, 234, 410, 337, 956, 741, 1000, 548, 124, 1364, 1110, 1565, 1902, 1042, 773, 889, 1538]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9434,10 +10564,15 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>[1068, 1656, 1629, 1569, 447, 1384, 366, 1254, 117, 739, 42, 565, 203, 71, 1858, 1428, 1408, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9568, 9569), (9570, 9577), (9578, 9582), (9582, 9583), (9584, 9592), (9593, 9598), (9599, 9601), (9602, 9611), (9612, 9616), (9618, 9624), (9625, 9636), (9637, 9643), (9644, 9649), (9650, 9653), (9655, 9664), (9664, 9665), (9666, 9674), (9674, 9675)]</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
+        <is>
+          <t>[1214, 689, 234, 410, 337, 956, 741, 1000, 548, 124, 1364, 1110, 1565, 1902, 1042, 773, 889, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9459,7 +10594,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[84, 1569, 998, 1737, 1142, 76, 1008]</t>
+          <t>[948, 410, 1452, 1235, 39, 1353, 1538]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9474,10 +10609,15 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[84, 1569, 998, 1737, 1142, 76, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9676, 9682), (9682, 9683), (9684, 9687), (9688, 9691), (9692, 9694), (9695, 9705), (9705, 9706)]</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
+        <is>
+          <t>[948, 410, 1452, 1235, 39, 1353, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9499,7 +10639,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[929, 1416, 1008]</t>
+          <t>[1019, 1198, 1538]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9514,10 +10654,15 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>[929, 1416, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9707, 9709), (9710, 9718), (9718, 9719)]</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
+        <is>
+          <t>[1019, 1198, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9539,7 +10684,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[790, 539, 531, 665, 1699, 1569, 1856, 1091, 820, 1705, 584, 1428, 1625, 182, 790, 1088, 665, 878, 1898, 1569, 160, 556, 413, 517, 1428, 766, 1483, 769, 1428, 1191, 1746, 1008]</t>
+          <t>[1446, 931, 1305, 254, 1493, 410, 1467, 1497, 1158, 736, 771, 773, 1169, 1630, 1446, 1634, 254, 535, 473, 410, 667, 290, 466, 1797, 773, 1097, 1058, 1908, 773, 1131, 1669, 1538]</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -9554,10 +10699,15 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>[790, 539, 531, 665, 1699, 1569, 1856, 1091, 820, 1705, 584, 1428, 1625, 182, 790, 1088, 665, 878, 1898, 1569, 160, 556, 413, 517, 1428, 766, 1483, 769, 1428, 1191, 1746, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9721, 9727), (9728, 9730), (9731, 9738), (9739, 9747), (9748, 9756), (9756, 9757), (9758, 9764), (9765, 9767), (9768, 9775), (9776, 9778), (9779, 9792), (9792, 9793), (9794, 9801), (9802, 9811), (9813, 9819), (9820, 9824), (9825, 9833), (9834, 9837), (9838, 9842), (9842, 9843), (9845, 9852), (9853, 9857), (9858, 9862), (9863, 9874), (9874, 9875), (9876, 9881), (9882, 9883), (9887, 9889), (9889, 9890), (9891, 9894), (9895, 9898), (9898, 9899)]</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
+        <is>
+          <t>[1446, 931, 1305, 254, 1493, 410, 1467, 1497, 1158, 736, 771, 773, 1169, 1630, 1446, 1634, 254, 535, 473, 410, 667, 290, 466, 1797, 773, 1097, 1058, 1908, 773, 1131, 1669, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9579,7 +10729,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1000, 1569, 196, 575, 1215, 1428, 196, 309, 183, 1428, 1277, 1847, 1186, 1008]</t>
+          <t>[1753, 410, 886, 1085, 1632, 773, 886, 1641, 16, 773, 454, 1027, 591, 1538]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -9594,10 +10744,15 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>[1000, 1569, 196, 575, 1215, 1428, 196, 309, 183, 1428, 1277, 1847, 1186, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9900, 9903), (9903, 9904), (9905, 9907), (9908, 9912), (9913, 9919), (9919, 9920), (9921, 9923), (9924, 9929), (9930, 9934), (9934, 9935), (9936, 9942), (9943, 9948), (9949, 9960), (9960, 9961)]</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
+        <is>
+          <t>[1753, 410, 886, 1085, 1632, 773, 886, 1641, 16, 773, 454, 1027, 591, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9619,7 +10774,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[1148, 1569, 1496, 1428, 1084, 319, 361, 832, 1008]</t>
+          <t>[1482, 410, 676, 773, 451, 1376, 997, 1077, 1538]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -9634,10 +10789,15 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[1148, 1569, 1496, 1428, 1084, 319, 361, 832, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9962, 9968), (9968, 9969), (9970, 9976), (9976, 9977), (9978, 9985), (9986, 9991), (9992, 9994), (9995, 9997), (9997, 9998)]</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
+        <is>
+          <t>[1482, 410, 676, 773, 451, 1376, 997, 1077, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9659,7 +10819,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[577, 1569, 922, 64, 1569, 388, 230, 1744, 975, 1597, 365, 1008]</t>
+          <t>[735, 410, 303, 747, 410, 962, 126, 1387, 1530, 1160, 1559, 1538]</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -9674,10 +10834,15 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>[577, 1569, 922, 64, 1569, 388, 230, 1744, 975, 1597, 365, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(9999, 10003), (10003, 10004), (10005, 10009), (10010, 10015), (10015, 10016), (10017, 10024), (10025, 10027), (10028, 10038), (10039, 10045), (10046, 10051), (10052, 10063), (10063, 10064)]</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
+        <is>
+          <t>[735, 410, 303, 747, 410, 962, 126, 1387, 1530, 1160, 1559, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9699,7 +10864,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[402, 385, 1008]</t>
+          <t>[1865, 669, 1538]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9714,10 +10879,15 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>[402, 385, 1008, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(10065, 10071), (10072, 10076), (10076, 10077)]</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
+        <is>
+          <t>[1865, 669, 1538, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
         <is>
           <t>[1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
@@ -9739,7 +10909,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[410, 931, 964, 1428, 1395, 399, 1569, 79, 1203]</t>
+          <t>[1812, 660, 493, 773, 1596, 1242, 410, 1138, 117]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -9754,10 +10924,15 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>[410, 931, 964, 1428, 1395, 399, 1569, 79, 1203, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[(10096, 10102), (10117, 10123), (10124, 10130), (10130, 10131), (10132, 10134), (10135, 10140), (10140, 10141), (10142, 10143), (10143, 10148)]</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
+        <is>
+          <t>[1812, 660, 493, 773, 1596, 1242, 410, 1138, 117, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
         <is>
           <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
